--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -38,8 +38,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+弓弩营换迷雾阵</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="1619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5447" uniqueCount="1621">
   <si>
     <t>战斗</t>
   </si>
@@ -413,8 +445,8 @@
     <t>刘备1</t>
   </si>
   <si>
-    <t>小关星级：1
-大关星级：2</t>
+    <t>第4关星级：1
+第7关星级：2</t>
   </si>
   <si>
     <t>赵云</t>
@@ -433,8 +465,8 @@
     <t>刘备2</t>
   </si>
   <si>
-    <t>小关星级：2
-大关星级：3</t>
+    <t>第4关星级：2
+第7关星级：3</t>
   </si>
   <si>
     <t>马超</t>
@@ -453,8 +485,8 @@
     <t>曹操1</t>
   </si>
   <si>
-    <t>小关星级：1
-大关星级：1</t>
+    <t>第4关星级：1
+第7关星级：1</t>
   </si>
   <si>
     <t>许褚</t>
@@ -489,8 +521,8 @@
     <t>刘备3</t>
   </si>
   <si>
-    <t>小关星级：3
-大关星级：4</t>
+    <t>第4关星级：3
+第7关星级：4</t>
   </si>
   <si>
     <t>张飞</t>
@@ -541,14 +573,14 @@
     <t>曹操5</t>
   </si>
   <si>
-    <t>小关星级：4
-大关星级：4</t>
+    <t>第4关星级：4
+第7关星级：4</t>
   </si>
   <si>
     <t>张辽</t>
   </si>
   <si>
-    <t>*自行探索</t>
+    <t>*暂无</t>
   </si>
   <si>
     <t>平定江东</t>
@@ -574,8 +606,8 @@
     <t>曹操6</t>
   </si>
   <si>
-    <t>小关星级：5
-大关星级：5</t>
+    <t>第4关星级：5
+第7关星级：5</t>
   </si>
   <si>
     <t>程昱</t>
@@ -604,8 +636,8 @@
     <t>刘备4</t>
   </si>
   <si>
-    <t>小关星级：4
-大关星级：5</t>
+    <t>第4关星级：4
+第7关星级：5</t>
   </si>
   <si>
     <t>关羽</t>
@@ -631,8 +663,8 @@
     <t>刘备5</t>
   </si>
   <si>
-    <t>小关星级：5
-大关星级：6</t>
+    <t>第4关星级：5
+第7关星级：6</t>
   </si>
   <si>
     <t>庞统</t>
@@ -648,8 +680,8 @@
     <t>刘备6</t>
   </si>
   <si>
-    <t>小关星级：6
-大关星级：7</t>
+    <t>第4关星级：6
+第7关星级：7</t>
   </si>
   <si>
     <t>魏延</t>
@@ -665,8 +697,8 @@
     <t>曹操8</t>
   </si>
   <si>
-    <t>小关星级：6
-大关星级：6</t>
+    <t>第4关星级：6
+第7关星级：6</t>
   </si>
   <si>
     <t>黄忠</t>
@@ -4734,67 +4766,73 @@
     <t>发挥</t>
   </si>
   <si>
+    <t>迷雾阵</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>远程</t>
+  </si>
+  <si>
+    <t>兵营、骑兵营</t>
+  </si>
+  <si>
+    <t>削弱</t>
+  </si>
+  <si>
+    <t>吕布貂蝉</t>
+  </si>
+  <si>
+    <t>陷阵、骠骑、巾帼</t>
+  </si>
+  <si>
+    <t>骑兵营</t>
+  </si>
+  <si>
+    <t>灼烧和中毒</t>
+  </si>
+  <si>
+    <t>界桥之战</t>
+  </si>
+  <si>
+    <t>针对脆皮武将</t>
+  </si>
+  <si>
+    <t>抛石台</t>
+  </si>
+  <si>
+    <t>针对老巢</t>
+  </si>
+  <si>
+    <t>针对中排</t>
+  </si>
+  <si>
+    <t>河北四庭柱</t>
+  </si>
+  <si>
+    <t>突破前排</t>
+  </si>
+  <si>
+    <t>降低</t>
+  </si>
+  <si>
+    <t>南华、北斗</t>
+  </si>
+  <si>
+    <t>滚石、滚木</t>
+  </si>
+  <si>
+    <t>针对脆皮武将和塔</t>
+  </si>
+  <si>
     <t>加强</t>
   </si>
   <si>
-    <t>迷雾阵</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>远程</t>
-  </si>
-  <si>
-    <t>兵营、骑兵营</t>
-  </si>
-  <si>
-    <t>吕布貂蝉</t>
-  </si>
-  <si>
-    <t>陷阵、骠骑、巾帼</t>
-  </si>
-  <si>
-    <t>骑兵营</t>
-  </si>
-  <si>
-    <t>灼烧和中毒</t>
-  </si>
-  <si>
-    <t>界桥之战</t>
-  </si>
-  <si>
-    <t>针对脆皮武将</t>
-  </si>
-  <si>
-    <t>抛石台</t>
-  </si>
-  <si>
-    <t>针对老巢</t>
-  </si>
-  <si>
-    <t>针对中排</t>
-  </si>
-  <si>
-    <t>河北四庭柱</t>
-  </si>
-  <si>
-    <t>突破前排</t>
-  </si>
-  <si>
-    <t>南华、北斗</t>
-  </si>
-  <si>
-    <t>滚石、滚木</t>
-  </si>
-  <si>
-    <t>针对脆皮武将和塔</t>
-  </si>
-  <si>
     <t>弓兵</t>
   </si>
   <si>
-    <t>弓兵营、石墙</t>
+    <t>弓兵营、迷雾阵、石墙</t>
   </si>
   <si>
     <t>针对多单位</t>
@@ -4824,13 +4862,13 @@
     <t>东吴旗、迷雾阵</t>
   </si>
   <si>
+    <t>张辽、五子</t>
+  </si>
+  <si>
     <t>骠骑、先锋、白马</t>
   </si>
   <si>
     <t>骑兵营、轩辕台</t>
-  </si>
-  <si>
-    <t>削弱</t>
   </si>
   <si>
     <t>严颜、张任（刺甲）</t>
@@ -4931,12 +4969,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4967,6 +5005,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -4988,9 +5033,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5002,14 +5055,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5017,17 +5063,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5046,16 +5084,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5077,38 +5154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5121,6 +5166,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -5174,6 +5230,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5216,31 +5278,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5252,55 +5314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5318,7 +5332,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5330,7 +5374,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5342,19 +5398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5366,19 +5410,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5390,19 +5440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5566,6 +5622,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -5582,26 +5653,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5624,15 +5689,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -5646,10 +5702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5658,16 +5714,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5676,119 +5732,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5984,10 +6040,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -6008,7 +6064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6038,13 +6094,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -6053,43 +6115,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -6152,6 +6214,7 @@
     <mruColors>
       <color rgb="00000000"/>
       <color rgb="00FF69FE"/>
+      <color rgb="00FF0000"/>
       <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
@@ -13805,7 +13868,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="B5" s="10" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$H,7,FALSE)</f>
@@ -13844,7 +13907,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B6" s="22">
         <v>14</v>
@@ -13879,7 +13942,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$B,2,FALSE)</f>
@@ -14959,7 +15022,7 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -15031,7 +15094,7 @@
         <v>4</v>
       </c>
       <c r="Q3" s="58" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -15065,7 +15128,7 @@
         <v>5</v>
       </c>
       <c r="Q4" s="59" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -15107,7 +15170,7 @@
         <v>8</v>
       </c>
       <c r="Q5" s="58" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="6" spans="2:17">
@@ -15145,7 +15208,7 @@
         <v>9</v>
       </c>
       <c r="Q6" s="59" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -16362,7 +16425,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="B6" s="22">
         <v>14</v>
@@ -19982,30 +20045,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.33333333333333" style="86"/>
+    <col min="1" max="1" width="5.33333333333333" style="88"/>
     <col min="2" max="9" width="5.33333333333333" style="63" customWidth="1"/>
-    <col min="10" max="10" width="5.33333333333333" style="87" customWidth="1"/>
-    <col min="11" max="11" width="5.33333333333333" style="86" customWidth="1"/>
+    <col min="10" max="10" width="5.33333333333333" style="89" customWidth="1"/>
+    <col min="11" max="11" width="5.33333333333333" style="88" customWidth="1"/>
     <col min="12" max="19" width="5.33333333333333" style="63" customWidth="1"/>
-    <col min="20" max="20" width="5.33333333333333" style="87" customWidth="1"/>
-    <col min="21" max="21" width="5.33333333333333" style="86" customWidth="1"/>
+    <col min="20" max="20" width="5.33333333333333" style="89" customWidth="1"/>
+    <col min="21" max="21" width="5.33333333333333" style="88" customWidth="1"/>
     <col min="22" max="29" width="5.33333333333333" style="63" customWidth="1"/>
-    <col min="30" max="30" width="5.33333333333333" style="87" customWidth="1"/>
-    <col min="31" max="31" width="5.33333333333333" style="86" customWidth="1"/>
+    <col min="30" max="30" width="5.33333333333333" style="89" customWidth="1"/>
+    <col min="31" max="31" width="5.33333333333333" style="88" customWidth="1"/>
     <col min="32" max="39" width="5.33333333333333" style="63" customWidth="1"/>
-    <col min="40" max="40" width="5.33333333333333" style="87" customWidth="1"/>
-    <col min="41" max="41" width="5.33333333333333" style="86" customWidth="1"/>
+    <col min="40" max="40" width="5.33333333333333" style="89" customWidth="1"/>
+    <col min="41" max="41" width="5.33333333333333" style="88" customWidth="1"/>
     <col min="42" max="49" width="5.33333333333333" style="63" customWidth="1"/>
-    <col min="50" max="50" width="5.33333333333333" style="87" customWidth="1"/>
-    <col min="51" max="51" width="5.33333333333333" style="86" customWidth="1"/>
+    <col min="50" max="50" width="5.33333333333333" style="89" customWidth="1"/>
+    <col min="51" max="51" width="5.33333333333333" style="88" customWidth="1"/>
     <col min="52" max="59" width="5.33333333333333" style="63" customWidth="1"/>
-    <col min="60" max="60" width="5.33333333333333" style="87" customWidth="1"/>
+    <col min="60" max="60" width="5.33333333333333" style="89" customWidth="1"/>
     <col min="61" max="61" width="5.33333333333333" style="63" customWidth="1"/>
     <col min="62" max="16384" width="9" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" s="86">
+      <c r="A1" s="88">
         <v>1</v>
       </c>
       <c r="B1" s="63">
@@ -20032,10 +20095,10 @@
       <c r="I1" s="63">
         <v>9</v>
       </c>
-      <c r="J1" s="87">
+      <c r="J1" s="89">
         <v>10</v>
       </c>
-      <c r="K1" s="86">
+      <c r="K1" s="88">
         <v>11</v>
       </c>
       <c r="L1" s="63">
@@ -20062,10 +20125,10 @@
       <c r="S1" s="63">
         <v>19</v>
       </c>
-      <c r="T1" s="87">
+      <c r="T1" s="89">
         <v>20</v>
       </c>
-      <c r="U1" s="86">
+      <c r="U1" s="88">
         <v>21</v>
       </c>
       <c r="V1" s="63">
@@ -20092,10 +20155,10 @@
       <c r="AC1" s="63">
         <v>29</v>
       </c>
-      <c r="AD1" s="87">
+      <c r="AD1" s="89">
         <v>30</v>
       </c>
-      <c r="AE1" s="86">
+      <c r="AE1" s="88">
         <v>31</v>
       </c>
       <c r="AF1" s="63">
@@ -20122,10 +20185,10 @@
       <c r="AM1" s="63">
         <v>39</v>
       </c>
-      <c r="AN1" s="87">
+      <c r="AN1" s="89">
         <v>40</v>
       </c>
-      <c r="AO1" s="86">
+      <c r="AO1" s="88">
         <v>41</v>
       </c>
       <c r="AP1" s="63">
@@ -20152,10 +20215,10 @@
       <c r="AW1" s="63">
         <v>49</v>
       </c>
-      <c r="AX1" s="87">
+      <c r="AX1" s="89">
         <v>50</v>
       </c>
-      <c r="AY1" s="86">
+      <c r="AY1" s="88">
         <v>51</v>
       </c>
       <c r="AZ1" s="63">
@@ -20182,134 +20245,134 @@
       <c r="BG1" s="63">
         <v>59</v>
       </c>
-      <c r="BH1" s="87">
+      <c r="BH1" s="89">
         <v>60</v>
       </c>
     </row>
-    <row r="2" s="84" customFormat="1" spans="1:60">
-      <c r="A2" s="88">
+    <row r="2" s="86" customFormat="1" spans="1:60">
+      <c r="A2" s="90">
         <v>2</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="86">
         <v>2</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="86">
         <v>2</v>
       </c>
-      <c r="F2" s="84">
+      <c r="F2" s="86">
         <v>2</v>
       </c>
-      <c r="H2" s="84">
+      <c r="H2" s="86">
         <v>2</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="100">
         <v>2</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="84">
+      <c r="K2" s="90"/>
+      <c r="L2" s="86">
         <v>3</v>
       </c>
-      <c r="N2" s="84">
+      <c r="N2" s="86">
         <v>3</v>
       </c>
-      <c r="P2" s="84">
+      <c r="P2" s="86">
         <v>3</v>
       </c>
-      <c r="R2" s="84">
+      <c r="R2" s="86">
         <v>3</v>
       </c>
-      <c r="T2" s="98">
+      <c r="T2" s="100">
         <v>3</v>
       </c>
-      <c r="U2" s="88"/>
-      <c r="V2" s="84">
+      <c r="U2" s="90"/>
+      <c r="V2" s="86">
         <v>4</v>
       </c>
-      <c r="X2" s="84">
+      <c r="X2" s="86">
         <v>4</v>
       </c>
-      <c r="Z2" s="84">
+      <c r="Z2" s="86">
         <v>4</v>
       </c>
-      <c r="AB2" s="84">
+      <c r="AB2" s="86">
         <v>4</v>
       </c>
-      <c r="AD2" s="98">
+      <c r="AD2" s="100">
         <v>4</v>
       </c>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="84">
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="86">
         <v>5</v>
       </c>
-      <c r="AH2" s="84">
+      <c r="AH2" s="86">
         <v>5</v>
       </c>
-      <c r="AJ2" s="84">
+      <c r="AJ2" s="86">
         <v>5</v>
       </c>
-      <c r="AL2" s="84">
+      <c r="AL2" s="86">
         <v>5</v>
       </c>
-      <c r="AN2" s="98"/>
-      <c r="AO2" s="88"/>
-      <c r="AX2" s="98"/>
-      <c r="AY2" s="88"/>
-      <c r="BH2" s="98"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="90"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="90"/>
+      <c r="BH2" s="100"/>
     </row>
     <row r="3" s="75" customFormat="1" spans="1:60">
-      <c r="A3" s="89"/>
+      <c r="A3" s="91"/>
       <c r="E3" s="75">
         <v>5</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="89"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="91"/>
       <c r="O3" s="75">
         <v>5</v>
       </c>
-      <c r="T3" s="99"/>
-      <c r="U3" s="89"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="91"/>
       <c r="Y3" s="75">
         <v>5</v>
       </c>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="89"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="91"/>
       <c r="AI3" s="75">
         <v>5</v>
       </c>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="89"/>
-      <c r="AX3" s="99"/>
-      <c r="AY3" s="89"/>
-      <c r="BH3" s="99"/>
-    </row>
-    <row r="4" s="85" customFormat="1" spans="1:60">
-      <c r="A4" s="90"/>
-      <c r="G4" s="85">
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="91"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="91"/>
+      <c r="BH3" s="101"/>
+    </row>
+    <row r="4" s="87" customFormat="1" spans="1:60">
+      <c r="A4" s="92"/>
+      <c r="G4" s="87">
         <v>10</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="90"/>
-      <c r="Q4" s="85">
+      <c r="J4" s="102"/>
+      <c r="K4" s="92"/>
+      <c r="Q4" s="87">
         <v>10</v>
       </c>
-      <c r="T4" s="100"/>
-      <c r="U4" s="90"/>
-      <c r="AA4" s="85">
+      <c r="T4" s="102"/>
+      <c r="U4" s="92"/>
+      <c r="AA4" s="87">
         <v>10</v>
       </c>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="90"/>
-      <c r="AK4" s="85">
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="92"/>
+      <c r="AK4" s="87">
         <v>10</v>
       </c>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="90"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="90"/>
-      <c r="BH4" s="100"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="92"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="92"/>
+      <c r="BH4" s="102"/>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="86">
+      <c r="A5" s="88">
         <f>SUM(A2:A4)</f>
         <v>2</v>
       </c>
@@ -20345,11 +20408,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="87">
+      <c r="J5" s="89">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20385,11 +20448,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="87">
+      <c r="T5" s="89">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U5" s="86">
+      <c r="U5" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20425,11 +20488,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="87">
+      <c r="AD5" s="89">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE5" s="86">
+      <c r="AE5" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20465,7 +20528,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN5" s="87">
+      <c r="AN5" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -20617,7 +20680,7 @@
       </c>
     </row>
     <row r="9" spans="1:60">
-      <c r="A9" s="86">
+      <c r="A9" s="88">
         <v>1</v>
       </c>
       <c r="C9" s="63">
@@ -20638,10 +20701,10 @@
       <c r="I9" s="63">
         <v>24</v>
       </c>
-      <c r="J9" s="87">
+      <c r="J9" s="89">
         <v>26</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K9" s="88">
         <v>51</v>
       </c>
       <c r="L9" s="63">
@@ -20668,10 +20731,10 @@
       <c r="S9" s="63">
         <v>76</v>
       </c>
-      <c r="T9" s="87">
+      <c r="T9" s="89">
         <v>78</v>
       </c>
-      <c r="U9" s="86">
+      <c r="U9" s="88">
         <v>101</v>
       </c>
       <c r="W9" s="63">
@@ -20695,10 +20758,10 @@
       <c r="AC9" s="63">
         <v>121</v>
       </c>
-      <c r="AD9" s="87">
+      <c r="AD9" s="89">
         <v>123</v>
       </c>
-      <c r="AE9" s="86">
+      <c r="AE9" s="88">
         <v>151</v>
       </c>
       <c r="AG9" s="63">
@@ -20722,10 +20785,10 @@
       <c r="AM9" s="63">
         <v>171</v>
       </c>
-      <c r="AN9" s="87">
+      <c r="AN9" s="89">
         <v>173</v>
       </c>
-      <c r="AO9" s="86">
+      <c r="AO9" s="88">
         <v>201</v>
       </c>
       <c r="AP9" s="63">
@@ -20749,10 +20812,10 @@
       <c r="AW9" s="63">
         <v>223</v>
       </c>
-      <c r="AX9" s="87">
+      <c r="AX9" s="89">
         <v>225</v>
       </c>
-      <c r="AY9" s="86">
+      <c r="AY9" s="88">
         <f>AO9+16</f>
         <v>217</v>
       </c>
@@ -20772,7 +20835,7 @@
         <f>AU8+16</f>
         <v>233</v>
       </c>
-      <c r="BH9" s="87">
+      <c r="BH9" s="89">
         <f>AX9+16</f>
         <v>241</v>
       </c>
@@ -20916,10 +20979,10 @@
       </c>
     </row>
     <row r="12" spans="1:60">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="88" t="s">
         <v>50</v>
       </c>
       <c r="N12" s="63">
@@ -20928,44 +20991,44 @@
       <c r="P12" s="63">
         <v>70</v>
       </c>
-      <c r="AY12" s="86" t="s">
+      <c r="AY12" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="BH12" s="87" t="s">
+      <c r="BH12" s="89" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="14:16">
-      <c r="N13" s="96" t="s">
+      <c r="N13" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="P13" s="95" t="s">
+      <c r="P13" s="97" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="3:59">
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="94" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L14" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="93" t="s">
+      <c r="M14" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="N14" s="84" t="s">
+      <c r="N14" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="91" t="s">
+      <c r="O14" s="93" t="s">
         <v>54</v>
       </c>
       <c r="P14" s="75" t="s">
@@ -20974,22 +21037,22 @@
       <c r="S14" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="W14" s="91" t="s">
+      <c r="W14" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="Y14" s="93" t="s">
+      <c r="Y14" s="95" t="s">
         <v>57</v>
       </c>
       <c r="AC14" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="AG14" s="91" t="s">
+      <c r="AG14" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AI14" s="93" t="s">
+      <c r="AI14" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="AJ14" s="84" t="s">
+      <c r="AJ14" s="86" t="s">
         <v>60</v>
       </c>
       <c r="AL14" s="75" t="s">
@@ -20998,31 +21061,31 @@
       <c r="AM14" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="AP14" s="84" t="s">
+      <c r="AP14" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="AQ14" s="91" t="s">
+      <c r="AQ14" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AS14" s="93" t="s">
+      <c r="AS14" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="AT14" s="96" t="s">
+      <c r="AT14" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AV14" s="84" t="s">
+      <c r="AV14" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="AW14" s="97" t="s">
+      <c r="AW14" s="66" t="s">
         <v>63</v>
       </c>
       <c r="BA14" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BD14" s="84" t="s">
+      <c r="BD14" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="BF14" s="84" t="s">
+      <c r="BF14" s="86" t="s">
         <v>65</v>
       </c>
       <c r="BG14" s="64" t="s">
@@ -21030,40 +21093,40 @@
       </c>
     </row>
     <row r="15" spans="2:55">
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="84" t="s">
+      <c r="F15" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="H15" s="86" t="s">
         <v>68</v>
       </c>
       <c r="I15" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="R15" s="84" t="s">
+      <c r="R15" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="V15" s="84" t="s">
+      <c r="V15" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="X15" s="96" t="s">
+      <c r="X15" s="99" t="s">
         <v>52</v>
       </c>
       <c r="Z15" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AB15" s="85" t="s">
+      <c r="AB15" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AF15" s="84" t="s">
+      <c r="AF15" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="AH15" s="96" t="s">
+      <c r="AH15" s="99" t="s">
         <v>52</v>
       </c>
       <c r="AR15" s="75" t="s">
@@ -21072,105 +21135,105 @@
       <c r="AU15" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AZ15" s="84" t="s">
+      <c r="AZ15" s="86" t="s">
         <v>70</v>
       </c>
       <c r="BB15" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="BC15" s="93" t="s">
+      <c r="BC15" s="95" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:60">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="97" t="s">
+      <c r="I16" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="98" t="s">
+      <c r="J16" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="94" t="s">
+      <c r="K16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="84" t="s">
+      <c r="L16" s="86" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="84" t="s">
+      <c r="N16" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="92" t="s">
+      <c r="O16" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="P16" s="84" t="s">
+      <c r="P16" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="65" t="s">
+      <c r="Q16" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="85" t="s">
+      <c r="R16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="S16" s="95" t="s">
+      <c r="S16" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="T16" s="98" t="s">
+      <c r="T16" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="U16" s="94" t="s">
+      <c r="U16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="W16" s="95" t="s">
+      <c r="W16" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="X16" s="84" t="s">
+      <c r="X16" s="86" t="s">
         <v>78</v>
       </c>
       <c r="Y16" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="Z16" s="84" t="s">
+      <c r="Z16" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="AA16" s="65" t="s">
+      <c r="AA16" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" s="84" t="s">
+      <c r="AB16" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="AC16" s="95" t="s">
+      <c r="AC16" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="AD16" s="98" t="s">
+      <c r="AD16" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="AE16" s="94" t="s">
+      <c r="AE16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AG16" s="85" t="s">
+      <c r="AG16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AH16" s="84" t="s">
+      <c r="AH16" s="86" t="s">
         <v>80</v>
       </c>
       <c r="AI16" s="64" t="s">
@@ -21179,206 +21242,206 @@
       <c r="AJ16" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AK16" s="65" t="s">
+      <c r="AK16" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AL16" s="85" t="s">
+      <c r="AL16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AM16" s="97" t="s">
+      <c r="AM16" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="AN16" s="98" t="s">
+      <c r="AN16" s="100" t="s">
         <v>81</v>
       </c>
-      <c r="AO16" s="94" t="s">
+      <c r="AO16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AP16" s="92" t="s">
+      <c r="AP16" s="94" t="s">
         <v>53</v>
       </c>
       <c r="AQ16" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AR16" s="84" t="s">
+      <c r="AR16" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="AS16" s="96" t="s">
+      <c r="AS16" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AT16" s="84" t="s">
+      <c r="AT16" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AV16" s="85" t="s">
+      <c r="AV16" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AW16" s="95" t="s">
+      <c r="AW16" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="AX16" s="98" t="s">
+      <c r="AX16" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="AY16" s="94" t="s">
+      <c r="AY16" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="BA16" s="95" t="s">
+      <c r="BA16" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="BB16" s="84" t="s">
+      <c r="BB16" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="BD16" s="95" t="s">
+      <c r="BD16" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="BE16" s="65" t="s">
+      <c r="BE16" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="BF16" s="84" t="s">
+      <c r="BF16" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="BG16" s="97" t="s">
+      <c r="BG16" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="BH16" s="98" t="s">
+      <c r="BH16" s="100" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="84" t="s">
+      <c r="R17" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="V17" s="84" t="s">
+      <c r="V17" s="86" t="s">
         <v>70</v>
       </c>
       <c r="X17" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Z17" s="96" t="s">
+      <c r="Z17" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AB17" s="85" t="s">
+      <c r="AB17" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AF17" s="84" t="s">
+      <c r="AF17" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="AH17" s="96" t="s">
+      <c r="AH17" s="99" t="s">
         <v>52</v>
       </c>
       <c r="AR17" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AU17" s="65" t="s">
+      <c r="AU17" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AZ17" s="84" t="s">
+      <c r="AZ17" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="BB17" s="96" t="s">
+      <c r="BB17" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="BC17" s="91" t="s">
+      <c r="BC17" s="93" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:59">
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="95" t="s">
+      <c r="G18" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="96" t="s">
+      <c r="H18" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="84" t="s">
+      <c r="L18" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="M18" s="91" t="s">
+      <c r="M18" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="84" t="s">
+      <c r="N18" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="O18" s="93" t="s">
+      <c r="O18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="96" t="s">
+      <c r="P18" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="97" t="s">
+      <c r="S18" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="W18" s="93" t="s">
+      <c r="W18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="91" t="s">
+      <c r="Y18" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AC18" s="97" t="s">
+      <c r="AC18" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="AG18" s="93" t="s">
+      <c r="AG18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="AI18" s="91" t="s">
+      <c r="AI18" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AJ18" s="84" t="s">
+      <c r="AJ18" s="86" t="s">
         <v>60</v>
       </c>
       <c r="AL18" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AM18" s="95" t="s">
+      <c r="AM18" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="AP18" s="84" t="s">
+      <c r="AP18" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="AQ18" s="93" t="s">
+      <c r="AQ18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="AS18" s="91" t="s">
+      <c r="AS18" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AT18" s="96" t="s">
+      <c r="AT18" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AV18" s="84" t="s">
+      <c r="AV18" s="86" t="s">
         <v>62</v>
       </c>
       <c r="AW18" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BA18" s="93" t="s">
+      <c r="BA18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="BD18" s="84" t="s">
+      <c r="BD18" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="BF18" s="84" t="s">
+      <c r="BF18" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="BG18" s="95" t="s">
+      <c r="BG18" s="97" t="s">
         <v>53</v>
       </c>
     </row>
@@ -21386,7 +21449,7 @@
       <c r="N19" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="95" t="s">
+      <c r="P19" s="97" t="s">
         <v>53</v>
       </c>
     </row>
@@ -21400,57 +21463,57 @@
       <c r="D21" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="AY21" s="86" t="s">
+      <c r="AY21" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="BD21" s="95" t="s">
+      <c r="BD21" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="BE21" s="92" t="s">
+      <c r="BE21" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="BF21" s="85" t="s">
+      <c r="BF21" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="BG21" s="92" t="s">
+      <c r="BG21" s="94" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="94" t="s">
+      <c r="A22" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="86" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="4:57">
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="AY23" s="86" t="s">
+      <c r="AY23" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="BD23" s="84" t="s">
+      <c r="BD23" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="BE23" s="96" t="s">
+      <c r="BE23" s="99" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="99" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="51:56">
-      <c r="AY25" s="86" t="s">
+      <c r="AY25" s="88" t="s">
         <v>89</v>
       </c>
       <c r="BB25" s="75" t="s">
@@ -21467,22 +21530,22 @@
       <c r="E27" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="AY27" s="86" t="s">
+      <c r="AY27" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="BB27" s="96" t="s">
+      <c r="BB27" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="BC27" s="96" t="s">
+      <c r="BC27" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="BD27" s="96" t="s">
+      <c r="BD27" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="BE27" s="96" t="s">
+      <c r="BE27" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="BF27" s="96" t="s">
+      <c r="BF27" s="99" t="s">
         <v>52</v>
       </c>
     </row>
@@ -21492,452 +21555,452 @@
       </c>
     </row>
     <row r="29" spans="1:51">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="AY29" s="86" t="s">
+      <c r="AY29" s="88" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D30" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D31" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="C32" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="84" t="s">
+      <c r="E35" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D36" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D37" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="86" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="86" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:60">
-      <c r="A41" s="94" t="s">
+      <c r="A41" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="84" t="s">
+      <c r="F41" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="J41" s="101" t="s">
+      <c r="J41" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="84" t="s">
+      <c r="L41" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="N41" s="84" t="s">
+      <c r="N41" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="P41" s="84" t="s">
+      <c r="P41" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="R41" s="84" t="s">
+      <c r="R41" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="T41" s="101" t="s">
+      <c r="T41" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="V41" s="84" t="s">
+      <c r="V41" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="X41" s="84" t="s">
+      <c r="X41" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" s="84" t="s">
+      <c r="Z41" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="AB41" s="84" t="s">
+      <c r="AB41" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="AD41" s="101" t="s">
+      <c r="AD41" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="AF41" s="84" t="s">
+      <c r="AF41" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="AH41" s="84" t="s">
+      <c r="AH41" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="AJ41" s="84" t="s">
+      <c r="AJ41" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="AL41" s="84" t="s">
+      <c r="AL41" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="AN41" s="101" t="s">
+      <c r="AN41" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="AP41" s="84" t="s">
+      <c r="AP41" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="AR41" s="84" t="s">
+      <c r="AR41" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="AT41" s="84" t="s">
+      <c r="AT41" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AV41" s="84" t="s">
+      <c r="AV41" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="AX41" s="101" t="s">
+      <c r="AX41" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="AZ41" s="84" t="s">
+      <c r="AZ41" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="BB41" s="84" t="s">
+      <c r="BB41" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="BD41" s="84" t="s">
+      <c r="BD41" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="BF41" s="84" t="s">
+      <c r="BF41" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="BH41" s="101" t="s">
+      <c r="BH41" s="103" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42" spans="8:58">
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="R42" s="85" t="s">
+      <c r="R42" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AB42" s="85" t="s">
+      <c r="AB42" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AL42" s="85" t="s">
+      <c r="AL42" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AV42" s="85" t="s">
+      <c r="AV42" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="BF42" s="85" t="s">
+      <c r="BF42" s="87" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" s="63" customFormat="1" spans="1:60">
-      <c r="A43" s="86"/>
+      <c r="A43" s="88"/>
       <c r="D43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="87"/>
-      <c r="K43" s="86"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="88"/>
       <c r="N43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="87"/>
-      <c r="U43" s="86"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="88"/>
       <c r="X43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AD43" s="87"/>
-      <c r="AE43" s="86"/>
+      <c r="AD43" s="89"/>
+      <c r="AE43" s="88"/>
       <c r="AH43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AN43" s="87"/>
-      <c r="AO43" s="86"/>
+      <c r="AN43" s="89"/>
+      <c r="AO43" s="88"/>
       <c r="AR43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="AX43" s="87"/>
-      <c r="AY43" s="86"/>
+      <c r="AX43" s="89"/>
+      <c r="AY43" s="88"/>
       <c r="BB43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="BH43" s="87"/>
+      <c r="BH43" s="89"/>
     </row>
     <row r="44" s="63" customFormat="1" spans="1:60">
-      <c r="A44" s="86"/>
-      <c r="D44" s="96" t="s">
+      <c r="A44" s="88"/>
+      <c r="D44" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="87"/>
-      <c r="K44" s="86"/>
-      <c r="N44" s="96" t="s">
+      <c r="J44" s="89"/>
+      <c r="K44" s="88"/>
+      <c r="N44" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="T44" s="87"/>
-      <c r="U44" s="86"/>
-      <c r="X44" s="96" t="s">
+      <c r="T44" s="89"/>
+      <c r="U44" s="88"/>
+      <c r="X44" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AD44" s="87"/>
-      <c r="AE44" s="86"/>
-      <c r="AH44" s="96" t="s">
+      <c r="AD44" s="89"/>
+      <c r="AE44" s="88"/>
+      <c r="AH44" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AN44" s="87"/>
-      <c r="AO44" s="86"/>
-      <c r="AR44" s="96" t="s">
+      <c r="AN44" s="89"/>
+      <c r="AO44" s="88"/>
+      <c r="AR44" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="AX44" s="87"/>
-      <c r="AY44" s="86"/>
-      <c r="BB44" s="96" t="s">
+      <c r="AX44" s="89"/>
+      <c r="AY44" s="88"/>
+      <c r="BB44" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="BH44" s="87"/>
+      <c r="BH44" s="89"/>
     </row>
     <row r="45" spans="1:57">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G45" s="65" t="s">
+      <c r="G45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="65" t="s">
+      <c r="K45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="Q45" s="65" t="s">
+      <c r="Q45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="U45" s="65" t="s">
+      <c r="U45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AA45" s="65" t="s">
+      <c r="AA45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AE45" s="65" t="s">
+      <c r="AE45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AK45" s="65" t="s">
+      <c r="AK45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AO45" s="65" t="s">
+      <c r="AO45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AU45" s="65" t="s">
+      <c r="AU45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="AY45" s="65" t="s">
+      <c r="AY45" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="BE45" s="65" t="s">
+      <c r="BE45" s="98" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21980,46 +22043,46 @@
       </c>
     </row>
     <row r="47" spans="9:59">
-      <c r="I47" s="97" t="s">
+      <c r="I47" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="97" t="s">
+      <c r="S47" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="AC47" s="97" t="s">
+      <c r="AC47" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="AM47" s="97" t="s">
+      <c r="AM47" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="AW47" s="97" t="s">
+      <c r="AW47" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="BG47" s="97" t="s">
+      <c r="BG47" s="66" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="3:55">
-      <c r="C48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="M48" s="93"/>
-      <c r="O48" s="93"/>
-      <c r="W48" s="93"/>
-      <c r="Y48" s="93"/>
-      <c r="AG48" s="93"/>
-      <c r="AI48" s="93"/>
-      <c r="AQ48" s="93"/>
-      <c r="AS48" s="93"/>
-      <c r="BA48" s="93"/>
-      <c r="BC48" s="93"/>
+      <c r="C48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="W48" s="95"/>
+      <c r="Y48" s="95"/>
+      <c r="AG48" s="95"/>
+      <c r="AI48" s="95"/>
+      <c r="AQ48" s="95"/>
+      <c r="AS48" s="95"/>
+      <c r="BA48" s="95"/>
+      <c r="BC48" s="95"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="94" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="97" t="s">
         <v>53</v>
       </c>
     </row>
@@ -26380,12 +26443,12 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -26443,7 +26506,7 @@
       <c r="E2" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="83" t="s">
         <v>124</v>
       </c>
       <c r="G2" s="79">
@@ -26469,7 +26532,7 @@
       <c r="E3" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="83" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="79">
@@ -26495,7 +26558,7 @@
       <c r="E4" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="83" t="s">
         <v>136</v>
       </c>
       <c r="G4" s="79">
@@ -26521,7 +26584,7 @@
       <c r="E5" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="83" t="s">
         <v>141</v>
       </c>
       <c r="G5" s="79">
@@ -26547,7 +26610,7 @@
       <c r="E6" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="83" t="s">
         <v>147</v>
       </c>
       <c r="G6" s="79">
@@ -26573,7 +26636,7 @@
       <c r="E7" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="83" t="s">
         <v>152</v>
       </c>
       <c r="G7" s="79">
@@ -26596,14 +26659,14 @@
       <c r="D8" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="83" t="s">
+      <c r="E8" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="83" t="s">
         <v>157</v>
       </c>
       <c r="G8" s="79">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="80" t="s">
         <v>158</v>
@@ -26622,14 +26685,14 @@
       <c r="D9" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="83" t="s">
         <v>163</v>
       </c>
       <c r="G9" s="79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H9" s="80" t="s">
         <v>164</v>
@@ -26648,14 +26711,14 @@
       <c r="D10" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="83" t="s">
         <v>168</v>
       </c>
       <c r="G10" s="79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" s="80" t="s">
         <v>164</v>
@@ -26674,14 +26737,14 @@
       <c r="D11" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="83" t="s">
         <v>173</v>
       </c>
       <c r="G11" s="79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H11" s="80" t="s">
         <v>164</v>
@@ -26700,14 +26763,14 @@
       <c r="D12" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="83" t="s">
         <v>177</v>
       </c>
       <c r="G12" s="79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H12" s="80" t="s">
         <v>164</v>
@@ -26729,11 +26792,11 @@
       <c r="E13" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="83" t="s">
         <v>182</v>
       </c>
       <c r="G13" s="79">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H13" s="80" t="s">
         <v>164</v>
@@ -26818,7 +26881,7 @@
       <c r="D17" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="85" t="s">
         <v>199</v>
       </c>
       <c r="F17" s="79" t="s">
@@ -52591,8 +52654,8 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -52642,17 +52705,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="65" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>1555</v>
-      </c>
+    <row r="2" spans="3:11">
       <c r="C2" s="63">
         <v>1</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>120</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -52662,23 +52719,23 @@
         <v>373</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I2" s="63" t="s">
         <v>122</v>
       </c>
       <c r="J2" s="63" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K2" s="63" t="s">
         <v>1557</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="3" spans="3:10">
       <c r="C3" s="63">
         <v>2</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="65" t="s">
         <v>126</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -52688,7 +52745,7 @@
         <v>245</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="I3" s="63" t="s">
         <v>128</v>
@@ -52697,11 +52754,14 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="2:10">
+      <c r="B4" s="66" t="s">
+        <v>1559</v>
+      </c>
       <c r="C4" s="63">
         <v>3</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="65" t="s">
         <v>132</v>
       </c>
       <c r="E4" s="63" t="s">
@@ -52727,7 +52787,7 @@
       <c r="C5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="65" t="s">
         <v>1564</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -52737,7 +52797,7 @@
         <v>275</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="I5" s="63" t="s">
         <v>140</v>
@@ -52746,17 +52806,11 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="65" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>1555</v>
-      </c>
+    <row r="6" spans="3:10">
       <c r="C6" s="63">
         <v>5</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>143</v>
       </c>
       <c r="E6" s="63" t="s">
@@ -52779,7 +52833,7 @@
       <c r="C7" s="63">
         <v>6</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="65" t="s">
         <v>149</v>
       </c>
       <c r="E7" s="63" t="s">
@@ -52795,17 +52849,11 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="65" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>1555</v>
-      </c>
+    <row r="8" spans="3:10">
       <c r="C8" s="63">
         <v>7</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="65" t="s">
         <v>154</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -52824,73 +52872,73 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" spans="2:10">
+      <c r="B9" s="66" t="s">
+        <v>1571</v>
+      </c>
       <c r="C9" s="63">
         <v>8</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="65" t="s">
         <v>159</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="I9" s="63" t="s">
         <v>161</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="65" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>1555</v>
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="66" t="s">
+        <v>1575</v>
       </c>
       <c r="C10" s="63">
         <v>9</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="65" t="s">
         <v>165</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>881</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>167</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="63">
         <v>10</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="65" t="s">
         <v>169</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>124</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="I11" s="63" t="s">
         <v>171</v>
@@ -52900,83 +52948,83 @@
       <c r="C12" s="63">
         <v>11</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="65" t="s">
         <v>174</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>391</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="I12" s="63" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="3:9">
+    <row r="13" spans="2:9">
+      <c r="B13" s="63" t="s">
+        <v>1575</v>
+      </c>
       <c r="C13" s="63">
         <v>12</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="65" t="s">
         <v>178</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>299</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="I13" s="63" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="3:9">
+    <row r="14" spans="2:9">
+      <c r="B14" s="66" t="s">
+        <v>1575</v>
+      </c>
       <c r="C14" s="63">
         <v>13</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="65" t="s">
         <v>183</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>163</v>
+        <v>1587</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="I14" s="63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="63" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>1587</v>
-      </c>
+    <row r="15" spans="3:9">
       <c r="C15" s="63">
         <v>14</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="65" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="I15" s="63" t="s">
         <v>239</v>
@@ -52986,49 +53034,43 @@
       <c r="C16" s="63">
         <v>15</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="65" t="s">
         <v>191</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="G16" s="63" t="s">
         <v>424</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="I16" s="63" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="65" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>1555</v>
-      </c>
+    <row r="17" spans="3:9">
       <c r="C17" s="63">
         <v>16</v>
       </c>
-      <c r="D17" s="66" t="s">
-        <v>1593</v>
+      <c r="D17" s="65" t="s">
+        <v>1595</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="G17" s="63" t="s">
         <v>245</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="I17" s="63" t="s">
         <v>223</v>
@@ -53038,8 +53080,8 @@
       <c r="C18" s="63">
         <v>17</v>
       </c>
-      <c r="D18" s="66" t="s">
-        <v>1597</v>
+      <c r="D18" s="65" t="s">
+        <v>1599</v>
       </c>
       <c r="G18" s="63" t="s">
         <v>451</v>
@@ -53052,14 +53094,14 @@
       <c r="C19" s="63">
         <v>18</v>
       </c>
-      <c r="D19" s="66" t="s">
-        <v>1598</v>
+      <c r="D19" s="65" t="s">
+        <v>1600</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="I19" s="63" t="s">
         <v>207</v>
@@ -53069,14 +53111,14 @@
       <c r="C20" s="63">
         <v>19</v>
       </c>
-      <c r="D20" s="66" t="s">
-        <v>1601</v>
+      <c r="D20" s="65" t="s">
+        <v>1603</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="H20" s="63" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="I20" s="63" t="s">
         <v>239</v>
@@ -53086,11 +53128,11 @@
       <c r="C21" s="63">
         <v>20</v>
       </c>
-      <c r="D21" s="66" t="s">
-        <v>1604</v>
+      <c r="D21" s="65" t="s">
+        <v>1606</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="G21" s="63" t="s">
         <v>758</v>
@@ -53101,10 +53143,10 @@
     </row>
     <row r="22" spans="4:7">
       <c r="D22" s="63" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="23" spans="7:7">
@@ -53119,7 +53161,7 @@
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="63" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="27" spans="7:7">
@@ -53129,14 +53171,15 @@
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="63" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -53753,7 +53796,7 @@
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7804" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7821" uniqueCount="1870">
   <si>
     <t>战斗</t>
   </si>
@@ -5461,7 +5461,10 @@
     <t>旗帜</t>
   </si>
   <si>
-    <t>BOSS</t>
+    <t>旗帜名字</t>
+  </si>
+  <si>
+    <t>战斗阵容</t>
   </si>
   <si>
     <t>BOSS羁绊</t>
@@ -5473,6 +5476,9 @@
     <t>发挥</t>
   </si>
   <si>
+    <t>黄巾+张角</t>
+  </si>
+  <si>
     <t>黄巾、术士</t>
   </si>
   <si>
@@ -5485,9 +5491,15 @@
     <t>远程</t>
   </si>
   <si>
+    <t>铁骑+吕布</t>
+  </si>
+  <si>
     <t>兵营、骑兵营</t>
   </si>
   <si>
+    <t>陷阵+吕玲绮+张辽/吕布</t>
+  </si>
+  <si>
     <t>吕布貂蝉</t>
   </si>
   <si>
@@ -5512,12 +5524,12 @@
     <t>针对老巢</t>
   </si>
   <si>
-    <t>张绣、胡车儿</t>
-  </si>
-  <si>
     <t>针对中排</t>
   </si>
   <si>
+    <t>大戟+河北四庭柱</t>
+  </si>
+  <si>
     <t>河北四庭柱</t>
   </si>
   <si>
@@ -5527,6 +5539,9 @@
     <t>南华北斗</t>
   </si>
   <si>
+    <t>滚石滚木+南华北斗</t>
+  </si>
+  <si>
     <t>滚石、滚木</t>
   </si>
   <si>
@@ -5545,6 +5560,9 @@
     <t>长坂坡</t>
   </si>
   <si>
+    <t>长枪+赵云+桃园三结义</t>
+  </si>
+  <si>
     <t>桃园结义</t>
   </si>
   <si>
@@ -5554,7 +5572,7 @@
     <t>长持营</t>
   </si>
   <si>
-    <t>周瑜、黄盖</t>
+    <t>火船+周瑜、黄盖</t>
   </si>
   <si>
     <t>火船、统帅</t>
@@ -5566,7 +5584,7 @@
     <t>水师都督</t>
   </si>
   <si>
-    <t>吕蒙、周瑜</t>
+    <t>战船+水师都督</t>
   </si>
   <si>
     <t>战船</t>
@@ -5578,16 +5596,13 @@
     <t>五子良将</t>
   </si>
   <si>
-    <t>张辽、五子</t>
-  </si>
-  <si>
     <t>骠骑、飞骑、虎豹骑</t>
   </si>
   <si>
     <t>轩辕台</t>
   </si>
   <si>
-    <t>严颜、张任</t>
+    <t>张任、严颜+投石台、箭楼</t>
   </si>
   <si>
     <t>抛石台、箭塔</t>
@@ -5596,7 +5611,7 @@
     <t>魏五奇谋</t>
   </si>
   <si>
-    <t>郭嘉、五谋</t>
+    <t>毒士+魏五奇谋</t>
   </si>
   <si>
     <t>铸铁炉、四方鼎、轩辕台</t>
@@ -5605,7 +5620,7 @@
     <t>五虎上将</t>
   </si>
   <si>
-    <t>五虎</t>
+    <t>铁骑+五虎上将</t>
   </si>
   <si>
     <t>铁骑、军师</t>
@@ -5671,9 +5686,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -5733,23 +5748,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5763,13 +5763,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5777,22 +5770,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5806,22 +5799,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -5830,8 +5807,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5861,6 +5862,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -5868,9 +5884,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5969,7 +5984,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5993,25 +6050,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6023,13 +6074,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6041,7 +6110,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6053,25 +6134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6083,61 +6152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6436,30 +6451,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -6471,6 +6462,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6493,13 +6495,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6511,10 +6526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6523,133 +6538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11023,8 +11038,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>363220</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1345565</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -11059,13 +11074,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>648335</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>284480</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -11085,7 +11100,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6902450" y="777240"/>
+          <a:off x="9066530" y="777240"/>
           <a:ext cx="1813560" cy="3375660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13178,7 +13193,7 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -15322,7 +15337,7 @@
         <v>段煨</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="J11" s="23" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
@@ -15337,7 +15352,7 @@
         <v>骠骑2</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -15378,14 +15393,14 @@
         <v>铁骑1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
         <v>骠骑2</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="F13" s="7" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
@@ -15847,14 +15862,14 @@
         <v>大弓1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大斧2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -15865,14 +15880,14 @@
         <v>大弓1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大斧2</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>1808</v>
+        <v>1812</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -16461,14 +16476,14 @@
         <v>先登1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -16479,14 +16494,14 @@
         <v>先登1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车3</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -17075,14 +17090,14 @@
         <v>投石车1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>投石车2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -17093,14 +17108,14 @@
         <v>投石车1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>投石车2</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -17219,14 +17234,14 @@
         <v>器械2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="D13" s="7" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
         <v>谋士2</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="F13" s="7" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
@@ -17237,14 +17252,14 @@
         <v>器械2</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="K13" s="26" t="str">
         <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
         <v>谋士2</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="M13" s="7" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
@@ -17285,38 +17300,38 @@
     </row>
     <row r="15" ht="15.15" spans="2:13">
       <c r="B15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="C15" s="12" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="E15" s="12" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="J15" s="10" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="L15" s="10" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -17679,14 +17694,14 @@
         <v>弓骑1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>毒士2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -17697,14 +17712,14 @@
         <v>弓骑1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>毒士2</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -17971,14 +17986,14 @@
         <v>刺客1</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>刺客1</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="F17" s="7" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -17989,14 +18004,14 @@
         <v>刺客1</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="K17" s="26" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
         <v>刺客1</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="M17" s="7" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
@@ -18289,14 +18304,14 @@
         <v>大戟1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -18307,14 +18322,14 @@
         <v>大戟1</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车2</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="M9" s="26" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -19521,14 +19536,14 @@
         <v>大弓1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -19539,14 +19554,14 @@
         <v>大弓2</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓2</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>1862</v>
+        <v>1867</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -19735,38 +19750,38 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="J15" s="7" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -19807,14 +19822,14 @@
         <v>统帅2</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="D17" s="33" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="F17" s="33" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -19825,14 +19840,14 @@
         <v>统帅2</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="K17" s="33" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="M17" s="33" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
@@ -20125,14 +20140,14 @@
         <v>大刀2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>羽林2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -20143,14 +20158,14 @@
         <v>大刀2</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>羽林2</v>
       </c>
       <c r="L9" s="57" t="s">
-        <v>1827</v>
+        <v>1833</v>
       </c>
       <c r="M9" s="26" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -22799,14 +22814,14 @@
         <v>统帅1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -22817,14 +22832,14 @@
         <v>统帅2</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅3</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>1863</v>
+        <v>1868</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -23413,14 +23428,14 @@
         <v>艨艟2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>艨艟1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -23431,14 +23446,14 @@
         <v>艨艟3</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>艨艟2</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="M9" s="26" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -24097,38 +24112,38 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="J11" s="7" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -24498,11 +24513,11 @@
         <v>器械1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="10" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
@@ -24513,11 +24528,11 @@
         <v>器械1</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="37" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="M5" s="26" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
@@ -24558,7 +24573,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="10" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="C7" s="12" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
@@ -24573,10 +24588,10 @@
         <v>统帅2</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
       <c r="J7" s="40" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
@@ -24591,7 +24606,7 @@
         <v>统帅2</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>1864</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -24632,14 +24647,14 @@
         <v>统帅2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -24650,14 +24665,14 @@
         <v>统帅2</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="M9" s="12" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -24706,7 +24721,7 @@
         <v>统帅2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="E11" s="12" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
@@ -24725,7 +24740,7 @@
         <v>统帅2</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>1812</v>
+        <v>1816</v>
       </c>
       <c r="L11" s="12" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
@@ -24774,14 +24789,14 @@
         <v>统帅2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="F13" s="7" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
@@ -24792,14 +24807,14 @@
         <v>统帅2</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="K13" s="10" t="str">
         <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>1860</v>
+        <v>1865</v>
       </c>
       <c r="M13" s="7" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
@@ -24840,7 +24855,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="C15" s="12" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
@@ -24855,10 +24870,10 @@
         <v>统帅2</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="J15" s="12" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
@@ -24873,7 +24888,7 @@
         <v>统帅2</v>
       </c>
       <c r="M15" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -24914,14 +24929,14 @@
         <v>统帅2</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>刺盾2</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="F17" s="33" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -24932,14 +24947,14 @@
         <v>统帅2</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="K17" s="26" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
         <v>刺盾2</v>
       </c>
       <c r="L17" s="45" t="s">
-        <v>1861</v>
+        <v>1866</v>
       </c>
       <c r="M17" s="33" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
@@ -25450,38 +25465,38 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
         <v>毒士1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
         <v>毒士1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="J15" s="7" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
         <v>毒士1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>1838</v>
+        <v>1843</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
         <v>毒士1</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -25914,7 +25929,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
@@ -25928,10 +25943,10 @@
         <v>连弩1</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="J11" s="7" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
@@ -25945,7 +25960,7 @@
         <v>连弩2</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>1847</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -66174,10 +66189,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -66186,17 +66201,18 @@
     <col min="3" max="3" width="9" style="70"/>
     <col min="4" max="4" width="13" style="70" customWidth="1"/>
     <col min="5" max="5" width="7.22222222222222" style="70" customWidth="1"/>
-    <col min="6" max="6" width="19.2222222222222" style="70" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="70" customWidth="1"/>
-    <col min="8" max="8" width="19" style="70" customWidth="1"/>
-    <col min="9" max="9" width="31.75" style="70" customWidth="1"/>
-    <col min="10" max="10" width="14.1296296296296" style="70" customWidth="1"/>
-    <col min="11" max="11" width="18.3703703703704" style="70" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="70" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="70"/>
+    <col min="6" max="6" width="16.4444444444444" style="70" customWidth="1"/>
+    <col min="7" max="7" width="34.3333333333333" style="70" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="70" customWidth="1"/>
+    <col min="9" max="9" width="19" style="70" customWidth="1"/>
+    <col min="10" max="10" width="31.75" style="70" customWidth="1"/>
+    <col min="11" max="11" width="14.1296296296296" style="70" customWidth="1"/>
+    <col min="12" max="12" width="18.3703703703704" style="70" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="70" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="70" t="s">
         <v>1793</v>
       </c>
@@ -66216,22 +66232,25 @@
         <v>1798</v>
       </c>
       <c r="H1" s="71" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>1799</v>
       </c>
       <c r="K1" s="71" t="s">
         <v>1800</v>
       </c>
       <c r="L1" s="71" t="s">
+        <v>1801</v>
+      </c>
+      <c r="M1" s="71" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="3:12">
+    <row r="2" spans="3:13">
       <c r="C2" s="70">
         <v>1</v>
       </c>
@@ -66244,23 +66263,26 @@
       <c r="F2" s="70" t="s">
         <v>402</v>
       </c>
-      <c r="H2" s="70" t="s">
-        <v>1801</v>
+      <c r="G2" s="70" t="s">
+        <v>1802</v>
       </c>
       <c r="I2" s="70" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="J2" s="70" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K2" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="70" t="s">
-        <v>1803</v>
-      </c>
       <c r="L2" s="70" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11">
+        <v>1805</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
       <c r="C3" s="70">
         <v>2</v>
       </c>
@@ -66273,20 +66295,23 @@
       <c r="F3" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="70" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I3" s="70" t="s">
         <v>1685</v>
       </c>
-      <c r="I3" s="70" t="s">
-        <v>1805</v>
-      </c>
       <c r="J3" s="70" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K3" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="L3" s="70" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="4" spans="3:11">
+    <row r="4" spans="3:12">
       <c r="C4" s="70">
         <v>3</v>
       </c>
@@ -66300,27 +66325,30 @@
         <v>292</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>1807</v>
+        <v>1809</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>1810</v>
       </c>
       <c r="I4" s="73" t="s">
-        <v>1808</v>
-      </c>
-      <c r="J4" s="70" t="s">
+        <v>1811</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>1812</v>
+      </c>
+      <c r="K4" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="70" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11">
+      <c r="L4" s="70" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" s="70">
         <v>4</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>1810</v>
+        <v>1814</v>
       </c>
       <c r="E5" s="72">
         <v>3</v>
@@ -66328,20 +66356,23 @@
       <c r="F5" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="G5" s="70" t="s">
         <v>1635</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>1802</v>
+        <v>1635</v>
       </c>
       <c r="J5" s="70" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K5" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="70" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11">
+      <c r="L5" s="70" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
       <c r="C6" s="70">
         <v>5</v>
       </c>
@@ -66354,20 +66385,23 @@
       <c r="F6" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="G6" s="70" t="s">
         <v>1461</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>1812</v>
+        <v>1461</v>
       </c>
       <c r="J6" s="70" t="s">
+        <v>1816</v>
+      </c>
+      <c r="K6" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="70" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
+      <c r="L6" s="70" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
       <c r="C7" s="70">
         <v>6</v>
       </c>
@@ -66378,19 +66412,22 @@
         <v>7</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>1814</v>
-      </c>
-      <c r="H7" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>1669</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="I7" s="70" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K7" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="K7" s="70" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11">
+      <c r="L7" s="70" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
       <c r="C8" s="70">
         <v>7</v>
       </c>
@@ -66404,24 +66441,27 @@
         <v>299</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>1816</v>
-      </c>
-      <c r="H8" s="73" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I8" s="73" t="s">
         <v>1649</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="K8" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="70" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11">
+      <c r="L8" s="70" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
       <c r="C9" s="70">
         <v>8</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>1818</v>
+        <v>1822</v>
       </c>
       <c r="E9" s="72">
         <v>12</v>
@@ -66429,20 +66469,23 @@
       <c r="F9" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="G9" s="70" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I9" s="70" t="s">
         <v>1729</v>
       </c>
-      <c r="I9" s="70" t="s">
-        <v>1819</v>
-      </c>
       <c r="J9" s="70" t="s">
+        <v>1824</v>
+      </c>
+      <c r="K9" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="70" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11">
+      <c r="L9" s="70" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10" s="70">
         <v>9</v>
       </c>
@@ -66455,25 +66498,28 @@
       <c r="F10" s="70" t="s">
         <v>936</v>
       </c>
-      <c r="H10" s="73" t="s">
-        <v>1821</v>
+      <c r="G10" s="70" t="s">
+        <v>1712</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>1822</v>
-      </c>
-      <c r="J10" s="70" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>1827</v>
+      </c>
+      <c r="K10" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="K10" s="70" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="L10" s="70" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
       <c r="C11" s="70">
         <v>10</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="E11" s="72">
         <v>0</v>
@@ -66482,19 +66528,22 @@
         <v>129</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="J11" s="70" t="s">
+        <v>1833</v>
+      </c>
+      <c r="K11" s="70" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="3:11">
       <c r="C12" s="70">
         <v>11</v>
       </c>
@@ -66505,66 +66554,75 @@
         <v>2</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>1828</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>1829</v>
+        <v>182</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>1834</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="J12" s="70" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K12" s="70" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="3:11">
       <c r="C13" s="70">
         <v>12</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>1831</v>
+        <v>1837</v>
       </c>
       <c r="E13" s="72">
         <v>2</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>1832</v>
+        <v>250</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>1831</v>
+        <v>1838</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>1833</v>
+        <v>1837</v>
       </c>
       <c r="I13" s="70" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="J13" s="70" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K13" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="3:11">
       <c r="C14" s="70">
         <v>13</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>1835</v>
+        <v>1841</v>
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="70" t="s">
-        <v>1836</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>1837</v>
+        <v>168</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>1841</v>
       </c>
       <c r="I14" s="70" t="s">
-        <v>1838</v>
+        <v>1842</v>
       </c>
       <c r="J14" s="70" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K14" s="70" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="3:11">
       <c r="C15" s="70">
         <v>14</v>
       </c>
@@ -66573,60 +66631,69 @@
       </c>
       <c r="E15" s="72"/>
       <c r="F15" s="70" t="s">
-        <v>1839</v>
-      </c>
-      <c r="I15" s="70" t="s">
-        <v>1840</v>
+        <v>541</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>1844</v>
       </c>
       <c r="J15" s="70" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K15" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="3:11">
       <c r="C16" s="70">
         <v>15</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>1841</v>
+        <v>1846</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="70" t="s">
-        <v>1842</v>
+        <v>162</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>1841</v>
+        <v>1847</v>
       </c>
       <c r="H16" s="70" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I16" s="70" t="s">
         <v>1733</v>
       </c>
-      <c r="I16" s="70" t="s">
-        <v>1843</v>
-      </c>
       <c r="J16" s="70" t="s">
+        <v>1848</v>
+      </c>
+      <c r="K16" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="3:11">
       <c r="C17" s="70">
         <v>16</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>1844</v>
+        <v>1849</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="70" t="s">
-        <v>1845</v>
+        <v>187</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="H17" s="70" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="I17" s="70" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="J17" s="70" t="s">
+        <v>1852</v>
+      </c>
+      <c r="K17" s="70" t="s">
         <v>258</v>
       </c>
     </row>
@@ -66640,7 +66707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:11">
       <c r="C20" s="70">
         <v>19</v>
       </c>
@@ -66649,96 +66716,96 @@
       </c>
       <c r="E20" s="72"/>
       <c r="F20" s="70" t="s">
-        <v>1848</v>
-      </c>
-      <c r="H20" s="70" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I20" s="70" t="s">
         <v>1679</v>
       </c>
-      <c r="J20" s="70" t="s">
+      <c r="K20" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:11">
       <c r="C21" s="70">
         <v>20</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>1849</v>
+        <v>1854</v>
       </c>
       <c r="E21" s="72"/>
-      <c r="H21" s="70" t="s">
-        <v>1850</v>
-      </c>
       <c r="I21" s="70" t="s">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="J21" s="70" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K21" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:11">
       <c r="C22" s="70">
         <v>21</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>1852</v>
+        <v>1857</v>
       </c>
       <c r="E22" s="72"/>
-      <c r="H22" s="70" t="s">
-        <v>1853</v>
-      </c>
       <c r="I22" s="70" t="s">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="J22" s="70" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K22" s="70" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="4:10">
+    <row r="23" spans="4:11">
       <c r="D23" s="72" t="s">
-        <v>1855</v>
+        <v>1860</v>
       </c>
       <c r="E23" s="72"/>
-      <c r="G23" s="70" t="s">
-        <v>1855</v>
-      </c>
       <c r="H23" s="70" t="s">
-        <v>1856</v>
-      </c>
-      <c r="J23" s="70" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I23" s="70" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K23" s="70" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="70" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="70" t="s">
+    <row r="24" spans="9:9">
+      <c r="I24" s="70" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="70" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="26" spans="8:8">
-      <c r="H26" s="70" t="s">
+    <row r="26" spans="9:9">
+      <c r="I26" s="70" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="70" t="s">
-        <v>1858</v>
-      </c>
+    <row r="27" spans="9:10">
       <c r="I27" s="70" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="8:8">
-      <c r="H29" s="70" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="9:9">
+      <c r="I29" s="70" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="30" spans="8:8">
-      <c r="H30" s="70" t="s">
+    <row r="30" spans="9:9">
+      <c r="I30" s="70" t="s">
         <v>1736</v>
       </c>
     </row>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="8"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="6" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -5503,7 +5503,7 @@
     <t>吕布貂蝉</t>
   </si>
   <si>
-    <t>陷阵、骠骑、巾帼</t>
+    <t>陷阵、狼骑</t>
   </si>
   <si>
     <t>骑兵营</t>
@@ -5548,7 +5548,7 @@
     <t>针对脆皮武将和塔</t>
   </si>
   <si>
-    <t>弓兵</t>
+    <t>弓兵、连弩</t>
   </si>
   <si>
     <t>弓兵营、迷雾阵、石墙</t>
@@ -5566,7 +5566,7 @@
     <t>桃园结义</t>
   </si>
   <si>
-    <t>枪兵、飞甲</t>
+    <t>长枪、飞甲</t>
   </si>
   <si>
     <t>长持营</t>
@@ -5687,8 +5687,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -5747,23 +5747,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5776,9 +5761,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5800,29 +5791,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -5830,27 +5798,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5864,7 +5816,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5872,13 +5879,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5978,13 +5978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6002,18 +6008,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6026,7 +6020,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6038,7 +6050,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6050,115 +6158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6361,6 +6361,17 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -6387,17 +6398,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -6417,21 +6417,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6468,29 +6453,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6506,6 +6471,41 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6526,10 +6526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6538,34 +6538,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6574,97 +6571,100 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6843,13 +6843,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6861,19 +6873,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7167,48 +7167,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8557260" y="3054985"/>
-          <a:ext cx="3695700" cy="2377440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -7228,7 +7186,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7270,7 +7228,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7312,7 +7270,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7354,7 +7312,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7466,48 +7424,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8641080" y="1874520"/>
-          <a:ext cx="3688080" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -7527,7 +7443,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7569,7 +7485,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7611,7 +7527,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7653,7 +7569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7662,6 +7578,48 @@
         <a:xfrm>
           <a:off x="4251960" y="3771900"/>
           <a:ext cx="3703320" cy="1203960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172085</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="1491615"/>
+          <a:ext cx="3258185" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7980,16 +7938,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8006,7 +7964,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4937760" y="3859530"/>
+          <a:off x="8465820" y="2167890"/>
           <a:ext cx="3688080" cy="434340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8050,6 +8008,48 @@
         <a:xfrm>
           <a:off x="175895" y="3745230"/>
           <a:ext cx="3672840" cy="1203960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="3722370"/>
+          <a:ext cx="3114040" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8503,7 +8503,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>173355</xdr:rowOff>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8604,7 +8604,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3878580"/>
+          <a:off x="0" y="3897630"/>
           <a:ext cx="3688080" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8620,16 +8620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8646,7 +8646,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4320540" y="3878580"/>
+          <a:off x="3649980" y="3928110"/>
           <a:ext cx="3695700" cy="1203960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8671,7 +8671,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8688,8 +8688,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8641080" y="2588895"/>
+          <a:off x="8641080" y="2598420"/>
           <a:ext cx="3680460" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="3890010"/>
+          <a:ext cx="3048000" cy="1215390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9092,16 +9134,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>8890</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>344170</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>367030</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9118,7 +9160,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8032750" y="3455670"/>
+          <a:off x="4047490" y="3966210"/>
           <a:ext cx="3726180" cy="1203960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9135,15 +9177,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9160,7 +9202,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8046720" y="4690110"/>
+          <a:off x="8122920" y="3920490"/>
           <a:ext cx="3672840" cy="1203960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9176,16 +9218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9202,7 +9244,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8046720" y="2118360"/>
+          <a:off x="635" y="3950970"/>
           <a:ext cx="3695700" cy="1196340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9386,16 +9428,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9412,7 +9454,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="3737610"/>
+          <a:off x="8138160" y="2346960"/>
           <a:ext cx="4373880" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9426,144 +9468,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="组合 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8100060" y="1207770"/>
-          <a:ext cx="3710940" cy="213360"/>
+          <a:off x="8115300" y="1430655"/>
+          <a:ext cx="3749040" cy="643890"/>
+          <a:chOff x="12768" y="2232"/>
+          <a:chExt cx="5904" cy="1011"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="图片 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12768" y="2232"/>
+            <a:ext cx="5844" cy="336"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="图片 10"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12828" y="2568"/>
+            <a:ext cx="5808" cy="333"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="图片 11"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12828" y="2907"/>
+            <a:ext cx="5844" cy="336"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8122920" y="1468755"/>
-          <a:ext cx="3688080" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8092440" y="1724025"/>
-          <a:ext cx="3710940" cy="213360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9580,7 +9606,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="518160" y="4827270"/>
+          <a:off x="8145780" y="3554730"/>
           <a:ext cx="4419600" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10854,48 +10880,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4191000" y="4229100"/>
-          <a:ext cx="4373880" cy="1181100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -10915,7 +10899,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11074,16 +11058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>648335</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114935</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>284480</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>668655</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11100,7 +11084,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9066530" y="777240"/>
+          <a:off x="11679555" y="2065020"/>
           <a:ext cx="1813560" cy="3375660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14400,7 +14384,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14460,7 +14444,7 @@
       <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="1">
         <v>17</v>
       </c>
@@ -14490,7 +14474,7 @@
         <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
         <v>黄巾</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="4" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
         <v>黄巾</v>
@@ -14539,13 +14523,13 @@
       <c r="J6" s="24">
         <v>756</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="63">
         <v>13</v>
       </c>
       <c r="L6" s="24">
         <v>757</v>
       </c>
-      <c r="M6" s="67">
+      <c r="M6" s="58">
         <v>15</v>
       </c>
     </row>
@@ -14586,7 +14570,7 @@
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
         <v>黄巾1</v>
       </c>
-      <c r="M7" s="68" t="str">
+      <c r="M7" s="59" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
         <v>张梁</v>
       </c>
@@ -14598,7 +14582,7 @@
       <c r="C8" s="14">
         <v>11</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="62">
         <v>810</v>
       </c>
       <c r="E8" s="14">
@@ -14619,7 +14603,7 @@
       <c r="L8" s="14">
         <v>12</v>
       </c>
-      <c r="M8" s="58">
+      <c r="M8" s="62">
         <v>2003</v>
       </c>
     </row>
@@ -14632,7 +14616,7 @@
         <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
         <v>张宝</v>
       </c>
-      <c r="D9" s="60" t="str">
+      <c r="D9" s="64" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>黄巾2</v>
       </c>
@@ -14660,7 +14644,7 @@
         <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
         <v>波才</v>
       </c>
-      <c r="M9" s="60" t="str">
+      <c r="M9" s="64" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
         <v>术士1</v>
       </c>
@@ -14681,7 +14665,7 @@
       <c r="F10" s="49">
         <v>10</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="60">
         <v>9</v>
       </c>
       <c r="J10" s="24">
@@ -14693,7 +14677,7 @@
       <c r="L10" s="24">
         <v>753</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="61">
         <v>10</v>
       </c>
     </row>
@@ -14743,13 +14727,13 @@
       <c r="B12" s="6">
         <v>1377</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="60">
         <v>6</v>
       </c>
       <c r="D12" s="24">
         <v>685</v>
       </c>
-      <c r="E12" s="65">
+      <c r="E12" s="61">
         <v>7</v>
       </c>
       <c r="F12" s="6">
@@ -15231,7 +15215,7 @@
       <c r="J8" s="14">
         <v>11</v>
       </c>
-      <c r="K8" s="58">
+      <c r="K8" s="62">
         <v>2007</v>
       </c>
       <c r="L8" s="14">
@@ -15270,7 +15254,7 @@
         <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
         <v>吕布</v>
       </c>
-      <c r="K9" s="60" t="str">
+      <c r="K9" s="64" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>毒士2</v>
       </c>
@@ -15374,13 +15358,13 @@
       <c r="I12" s="11">
         <v>0</v>
       </c>
-      <c r="J12" s="64">
+      <c r="J12" s="60">
         <v>6</v>
       </c>
       <c r="K12" s="24">
         <v>2004</v>
       </c>
-      <c r="L12" s="65">
+      <c r="L12" s="61">
         <v>7</v>
       </c>
       <c r="M12" s="11">
@@ -17356,7 +17340,7 @@
       <c r="J16" s="14">
         <v>1</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="66">
         <v>0</v>
       </c>
       <c r="L16" s="14">
@@ -17395,7 +17379,7 @@
         <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
         <v>曹仁</v>
       </c>
-      <c r="K17" s="63" t="str">
+      <c r="K17" s="67" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
@@ -17465,7 +17449,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17497,30 +17481,30 @@
     <row r="3" spans="2:13">
       <c r="B3" s="4" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
       <c r="M3" s="4" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="6">
-        <v>1430</v>
+        <v>1382</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
@@ -17530,10 +17514,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="6">
-        <v>1430</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1431</v>
+        <v>1382</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1383</v>
       </c>
       <c r="J4" s="1">
         <v>16</v>
@@ -17542,44 +17526,44 @@
       <c r="L4" s="1">
         <v>17</v>
       </c>
-      <c r="M4" s="6">
-        <v>1431</v>
+      <c r="M4" s="13">
+        <v>1383</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="2:13">
       <c r="B5" s="7" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>狼骑</v>
+        <v>刺客</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>狼骑</v>
+        <v>刺客</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="I5" s="7" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>狼骑</v>
+        <v>刺客</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="4" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>狼骑</v>
+        <v>刺客</v>
       </c>
       <c r="M5" s="7" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -17587,13 +17571,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="6">
-        <v>1436</v>
+        <v>1382</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
       </c>
       <c r="E6" s="6">
-        <v>1436</v>
+        <v>1382</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
@@ -17602,13 +17586,13 @@
         <v>14</v>
       </c>
       <c r="J6" s="13">
-        <v>1437</v>
+        <v>1383</v>
       </c>
       <c r="K6" s="14">
         <v>13</v>
       </c>
       <c r="L6" s="13">
-        <v>1437</v>
+        <v>1383</v>
       </c>
       <c r="M6" s="1">
         <v>15</v>
@@ -17617,11 +17601,11 @@
     <row r="7" spans="2:13">
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>狼骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
@@ -17629,19 +17613,19 @@
       </c>
       <c r="E7" s="7" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>狼骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
       <c r="J7" s="46" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>狼骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="K7" s="18" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
@@ -17649,16 +17633,16 @@
       </c>
       <c r="L7" s="47" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>狼骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>弓骑</v>
+        <v>刺客</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="6">
-        <v>1430</v>
+        <v>1382</v>
       </c>
       <c r="C8" s="9">
         <v>11</v>
@@ -17670,10 +17654,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>1430</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1431</v>
+        <v>1382</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1383</v>
       </c>
       <c r="J8" s="35">
         <v>11</v>
@@ -17684,14 +17668,14 @@
       <c r="L8" s="34">
         <v>12</v>
       </c>
-      <c r="M8" s="6">
-        <v>1431</v>
+      <c r="M8" s="13">
+        <v>1383</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="2:13">
       <c r="B9" s="7" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>1804</v>
@@ -17705,11 +17689,11 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="I9" s="7" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>1804</v>
@@ -17723,7 +17707,7 @@
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>刺客1</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -17828,8 +17812,8 @@
       <c r="L12" s="49">
         <v>7</v>
       </c>
-      <c r="M12" s="6">
-        <v>1385</v>
+      <c r="M12" s="13">
+        <v>1383</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="2:13">
@@ -17871,7 +17855,7 @@
       </c>
       <c r="M13" s="7" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>刺客2</v>
+        <v>刺客1</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -17894,13 +17878,13 @@
         <v>4</v>
       </c>
       <c r="J14" s="13">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="K14" s="14">
         <v>3</v>
       </c>
       <c r="L14" s="13">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="M14" s="1">
         <v>5</v>
@@ -18075,7 +18059,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -18211,10 +18195,10 @@
       <c r="I6" s="14">
         <v>14</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="62">
         <v>23</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="63">
         <v>13</v>
       </c>
       <c r="L6" s="21">
@@ -18249,7 +18233,7 @@
         <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
         <v>高览</v>
       </c>
-      <c r="J7" s="60" t="str">
+      <c r="J7" s="64" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
         <v>大刀2</v>
       </c>
@@ -18285,13 +18269,13 @@
       <c r="I8" s="24">
         <v>179</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="65">
         <v>11</v>
       </c>
       <c r="K8" s="24">
         <v>22</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="65">
         <v>12</v>
       </c>
       <c r="M8" s="24">
@@ -19307,7 +19291,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19395,12 +19379,12 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
@@ -19429,13 +19413,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="6">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
       </c>
       <c r="E6" s="6">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
@@ -19459,27 +19443,27 @@
     <row r="7" ht="15.15" spans="2:13">
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓1</v>
+        <v>连弩1</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓1</v>
+        <v>连弩1</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
       <c r="I7" s="17" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
       <c r="J7" s="26" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
@@ -19487,7 +19471,7 @@
       </c>
       <c r="K7" s="27" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
       <c r="L7" s="26" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
@@ -19495,77 +19479,77 @@
       </c>
       <c r="M7" s="19" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>大弓</v>
+        <v>连弩</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="6">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="C8" s="9">
         <v>11</v>
       </c>
       <c r="D8" s="6">
-        <v>1522</v>
+        <v>1508</v>
       </c>
       <c r="E8" s="9">
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="I8" s="6">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="J8" s="28">
         <v>11</v>
       </c>
       <c r="K8" s="6">
-        <v>1523</v>
+        <v>1511</v>
       </c>
       <c r="L8" s="28">
         <v>12</v>
       </c>
       <c r="M8" s="6">
-        <v>1523</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="7" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓1</v>
+        <v>连弩1</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>1867</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓1</v>
+        <v>连弩1</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>1867</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓1</v>
+        <v>连弩1</v>
       </c>
       <c r="I9" s="7" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓2</v>
+        <v>连弩2</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>1867</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓2</v>
+        <v>连弩2</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>1867</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>大弓2</v>
+        <v>连弩2</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -22585,7 +22569,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -22617,30 +22601,30 @@
     <row r="3" spans="2:13">
       <c r="B3" s="4" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>统帅</v>
+        <v>火矢</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>统帅</v>
+        <v>火矢</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>统帅</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
       <c r="M3" s="4" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>统帅</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="6">
-        <v>1592</v>
+      <c r="B4" s="54">
+        <v>1526</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
@@ -22649,11 +22633,11 @@
       <c r="E4" s="1">
         <v>17</v>
       </c>
-      <c r="F4" s="6">
-        <v>1592</v>
+      <c r="F4" s="54">
+        <v>1526</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="1">
         <v>16</v>
@@ -22663,206 +22647,206 @@
         <v>17</v>
       </c>
       <c r="M4" s="6">
-        <v>0</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="2:13">
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="4" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅1</v>
+        <v>火矢1</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>统帅</v>
-      </c>
-      <c r="D5" s="8"/>
+        <v>火矢</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="4" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>统帅</v>
-      </c>
-      <c r="F5" s="7" t="str">
+        <v>火矢</v>
+      </c>
+      <c r="F5" s="4" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>火矢1</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅1</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>火矢</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="4" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
-      </c>
-      <c r="M5" s="7" t="str">
+        <v>火矢</v>
+      </c>
+      <c r="M5" s="4" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>统帅1</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="1">
+      <c r="B6" s="14">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
-        <v>1592</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="54">
+        <v>1526</v>
+      </c>
+      <c r="D6" s="14">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
-        <v>1592</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="54">
+        <v>1526</v>
+      </c>
+      <c r="F6" s="14">
         <v>15</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="14">
         <v>14</v>
       </c>
-      <c r="J6" s="13">
-        <v>0</v>
+      <c r="J6" s="54">
+        <v>1528</v>
       </c>
       <c r="K6" s="14">
         <v>13</v>
       </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="L6" s="54">
+        <v>1528</v>
+      </c>
+      <c r="M6" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="18" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
         <v>程普</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="55" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅1</v>
-      </c>
-      <c r="D7" s="4" t="str">
+        <v>火矢1</v>
+      </c>
+      <c r="D7" s="18" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
         <v>周瑜</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="55" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅1</v>
-      </c>
-      <c r="F7" s="4" t="str">
+        <v>火矢1</v>
+      </c>
+      <c r="F7" s="18" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
         <v>陆逊</v>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="18" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
-      </c>
-      <c r="J7" s="46" t="str">
+        <v>程普</v>
+      </c>
+      <c r="J7" s="55" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>火矢1</v>
       </c>
       <c r="K7" s="18" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
         <v>周瑜</v>
       </c>
-      <c r="L7" s="47" t="str">
+      <c r="L7" s="55" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
-      </c>
-      <c r="M7" s="4" t="str">
+        <v>火矢1</v>
+      </c>
+      <c r="M7" s="18" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>陆逊</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="6">
+      <c r="B8" s="24">
         <v>82</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="56">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="24">
         <v>0</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="56">
         <v>12</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="24">
         <v>27</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="24">
+        <v>82</v>
+      </c>
+      <c r="J8" s="34">
         <v>11</v>
       </c>
       <c r="K8" s="24">
         <v>2035</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="35">
         <v>11</v>
       </c>
-      <c r="M8" s="6">
-        <v>0</v>
+      <c r="M8" s="24">
+        <v>27</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="2:13">
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="26" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="57" t="s">
         <v>1868</v>
       </c>
-      <c r="D9" s="7" t="str">
+      <c r="D9" s="26" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="57" t="s">
         <v>1868</v>
       </c>
-      <c r="F9" s="7" t="str">
+      <c r="F9" s="26" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="I9" s="26" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
-      </c>
-      <c r="J9" s="10" t="s">
+        <v>统帅1</v>
+      </c>
+      <c r="J9" s="36" t="s">
         <v>1868</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅3</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="37" t="s">
         <v>1868</v>
       </c>
-      <c r="M9" s="7" t="str">
+      <c r="M9" s="26" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="1">
+      <c r="B10" s="29">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="38">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="14">
         <v>8</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="39">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="29">
         <v>10</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="29">
         <v>9</v>
       </c>
       <c r="J10" s="11">
@@ -22874,24 +22858,24 @@
       <c r="L10" s="11">
         <v>0</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" ht="15.15" spans="2:13">
       <c r="B11" s="4" t="str">
         <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
         <v>火船</v>
       </c>
-      <c r="C11" s="12" t="str">
+      <c r="C11" s="37" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="18" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
         <v>凌统</v>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="E11" s="36" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
@@ -22901,9 +22885,9 @@
       </c>
       <c r="I11" s="4" t="str">
         <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
-      </c>
-      <c r="J11" s="12" t="str">
+        <v>火船</v>
+      </c>
+      <c r="J11" s="10" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
@@ -22911,193 +22895,193 @@
         <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
         <v>凌统</v>
       </c>
-      <c r="L11" s="12" t="str">
+      <c r="L11" s="10" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="M11" s="4" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>火船</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="6">
+      <c r="B12" s="13">
         <v>1550</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="20">
         <v>6</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="24">
         <v>33</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="14">
         <v>7</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="16">
         <v>1550</v>
       </c>
       <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="48">
+        <v>1552</v>
+      </c>
+      <c r="J12" s="14">
         <v>6</v>
       </c>
       <c r="K12" s="24">
         <v>2034</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="14">
         <v>7</v>
       </c>
       <c r="M12" s="6">
-        <v>0</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="2:13">
-      <c r="B13" s="7" t="str">
+      <c r="B13" s="46" t="str">
         <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船1</v>
       </c>
-      <c r="C13" s="4" t="str">
+      <c r="C13" s="22" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,2,FALSE)</f>
         <v>陈武</v>
       </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="26" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船2</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="18" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,2,FALSE)</f>
         <v>董袭</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="47" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船1</v>
       </c>
-      <c r="I13" s="7" t="str">
+      <c r="I13" s="46" t="str">
         <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
-      </c>
-      <c r="J13" s="17" t="str">
+        <v>火船1</v>
+      </c>
+      <c r="J13" s="18" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>陈武</v>
       </c>
       <c r="K13" s="26" t="str">
         <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船3</v>
       </c>
-      <c r="L13" s="19" t="str">
+      <c r="L13" s="18" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
-      </c>
-      <c r="M13" s="7" t="str">
+        <v>董袭</v>
+      </c>
+      <c r="M13" s="47" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>火船1</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="1">
+      <c r="B14" s="48">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="24">
         <v>92</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="58">
         <v>3</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="24">
         <v>93</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="49">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="48">
         <v>4</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
+      <c r="J14" s="24">
+        <v>92</v>
       </c>
       <c r="K14" s="14">
         <v>3</v>
       </c>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="L14" s="24">
+        <v>93</v>
+      </c>
+      <c r="M14" s="49">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="4" t="str">
+    <row r="15" ht="15.15" spans="2:13">
+      <c r="B15" s="17" t="str">
         <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
         <v>火船</v>
       </c>
-      <c r="C15" s="7" t="str">
+      <c r="C15" s="26" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船1</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="59" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
         <v>黄盖</v>
       </c>
-      <c r="E15" s="7" t="str">
+      <c r="E15" s="26" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船1</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="F15" s="19" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
         <v>火船</v>
       </c>
-      <c r="I15" s="4" t="str">
+      <c r="I15" s="17" t="str">
         <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
-      </c>
-      <c r="J15" s="46" t="str">
+        <v>火船</v>
+      </c>
+      <c r="J15" s="26" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>火船1</v>
       </c>
       <c r="K15" s="18" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
         <v>黄盖</v>
       </c>
-      <c r="L15" s="47" t="str">
+      <c r="L15" s="26" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
-      </c>
-      <c r="M15" s="4" t="str">
+        <v>火船1</v>
+      </c>
+      <c r="M15" s="19" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>火船</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="6">
         <v>1550</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="60">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="24">
         <v>83</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="61">
         <v>2</v>
       </c>
       <c r="F16" s="6">
         <v>1550</v>
       </c>
       <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="48">
+        <v>1552</v>
+      </c>
+      <c r="J16" s="60">
         <v>1</v>
       </c>
       <c r="K16" s="24">
         <v>2033</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="61">
         <v>2</v>
       </c>
       <c r="M16" s="6">
-        <v>0</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="2:13">
@@ -23105,15 +23089,15 @@
         <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船1</v>
       </c>
-      <c r="C17" s="4" t="str">
+      <c r="C17" s="17" t="str">
         <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
         <v>火船</v>
       </c>
-      <c r="D17" s="7" t="str">
+      <c r="D17" s="26" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>火船1</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="19" t="str">
         <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
         <v>火船</v>
       </c>
@@ -23123,11 +23107,11 @@
       </c>
       <c r="I17" s="7" t="str">
         <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>火船1</v>
       </c>
       <c r="J17" s="17" t="str">
         <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>火船</v>
       </c>
       <c r="K17" s="26" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
@@ -23135,11 +23119,11 @@
       </c>
       <c r="L17" s="19" t="str">
         <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>周瑜</v>
+        <v>火船</v>
       </c>
       <c r="M17" s="7" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>火船1</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -23154,11 +23138,11 @@
       <c r="F18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="6">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="6">
-        <v>0</v>
+        <v>1552</v>
       </c>
       <c r="M18" s="2"/>
     </row>
@@ -23177,12 +23161,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="7" t="str">
         <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>火船1</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="7" t="str">
         <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>火船1</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -23813,7 +23797,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25629,8 +25613,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -25860,7 +25844,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
-        <v>连弩</v>
+        <v>铁骑</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25868,7 +25852,7 @@
       </c>
       <c r="E9" s="4" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
-        <v>连弩</v>
+        <v>铁骑</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25880,7 +25864,7 @@
       </c>
       <c r="J9" s="27" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
-        <v>连弩</v>
+        <v>铁骑</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25888,7 +25872,7 @@
       </c>
       <c r="L9" s="27" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
-        <v>连弩</v>
+        <v>铁骑</v>
       </c>
       <c r="M9" s="26" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25900,13 +25884,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>1510</v>
+        <v>1442</v>
       </c>
       <c r="D10" s="9">
         <v>8</v>
       </c>
       <c r="E10" s="6">
-        <v>1510</v>
+        <v>1442</v>
       </c>
       <c r="F10" s="9">
         <v>10</v>
@@ -25915,13 +25899,13 @@
         <v>9</v>
       </c>
       <c r="J10" s="6">
-        <v>1511</v>
+        <v>1444</v>
       </c>
       <c r="K10" s="28">
         <v>8</v>
       </c>
       <c r="L10" s="6">
-        <v>1511</v>
+        <v>1444</v>
       </c>
       <c r="M10" s="28">
         <v>10</v>
@@ -25933,14 +25917,14 @@
       </c>
       <c r="C11" s="7" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
-        <v>连弩1</v>
+        <v>铁骑1</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
-        <v>连弩1</v>
+        <v>铁骑1</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>1852</v>
@@ -25950,14 +25934,14 @@
       </c>
       <c r="J11" s="7" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
-        <v>连弩2</v>
+        <v>铁骑1</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>235</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
-        <v>连弩2</v>
+        <v>铁骑1</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>1852</v>
@@ -26080,7 +26064,7 @@
       </c>
       <c r="D15" s="4" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>骠骑</v>
+        <v>铁骑</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
@@ -26119,7 +26103,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>1422</v>
+        <v>1442</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -26134,7 +26118,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="6">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
@@ -26150,15 +26134,15 @@
       </c>
       <c r="C17" s="4" t="str">
         <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>骠骑</v>
+        <v>铁骑</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>骠骑2</v>
+        <v>铁骑1</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>骠骑</v>
+        <v>铁骑</v>
       </c>
       <c r="F17" s="7" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -26174,7 +26158,7 @@
       </c>
       <c r="K17" s="7" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑2</v>
+        <v>铁骑1</v>
       </c>
       <c r="L17" s="4" t="str">
         <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
@@ -26188,11 +26172,11 @@
     <row r="18" spans="2:13">
       <c r="B18" s="2"/>
       <c r="C18" s="6">
-        <v>1422</v>
+        <v>1442</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="6">
-        <v>1422</v>
+        <v>1442</v>
       </c>
       <c r="F18" s="2"/>
       <c r="I18" s="2"/>
@@ -26209,12 +26193,12 @@
       <c r="B19" s="2"/>
       <c r="C19" s="7" t="str">
         <f>VLOOKUP(C18,单位_武将!$A:$F,6,FALSE)</f>
-        <v>骠骑2</v>
+        <v>铁骑1</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="str">
         <f>VLOOKUP(E18,单位_武将!$A:$F,6,FALSE)</f>
-        <v>骠骑2</v>
+        <v>铁骑1</v>
       </c>
       <c r="F19" s="2"/>
       <c r="I19" s="2"/>
@@ -66191,8 +66175,8 @@
   <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4596,10 +4596,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -4659,12 +4659,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4674,7 +4691,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4688,24 +4726,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4718,49 +4755,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4780,15 +4786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4796,7 +4796,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4889,7 +4889,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4901,55 +4931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4967,42 +4949,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5015,7 +4961,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5027,13 +5003,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5051,25 +5039,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5332,56 +5332,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5412,6 +5367,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -5419,13 +5400,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5437,10 +5437,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5449,133 +5449,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10358,13 +10358,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>138430</xdr:rowOff>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>24130</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10381,7 +10381,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8625840" y="138430"/>
+          <a:off x="8625840" y="635"/>
           <a:ext cx="3688080" cy="617220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10397,16 +10397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10423,7 +10423,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8641080" y="923925"/>
+          <a:off x="8625840" y="664845"/>
           <a:ext cx="3703320" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10439,16 +10439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10465,7 +10465,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8641080" y="1482090"/>
+          <a:off x="8633460" y="1129665"/>
           <a:ext cx="3680460" cy="426720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10481,16 +10481,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112395</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10507,7 +10507,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8641080" y="2049780"/>
+          <a:off x="8633460" y="1590675"/>
           <a:ext cx="4411980" cy="1584960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10523,16 +10523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10549,7 +10549,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8641080" y="3705225"/>
+          <a:off x="8610600" y="3575685"/>
           <a:ext cx="3649980" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10607,16 +10607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10633,7 +10633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4480560" y="3766185"/>
+          <a:off x="8694420" y="4551045"/>
           <a:ext cx="3672840" cy="822960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10677,6 +10677,90 @@
         <a:xfrm>
           <a:off x="8641080" y="4253865"/>
           <a:ext cx="3680460" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4732020" y="3781425"/>
+          <a:ext cx="3025140" cy="1234440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="3339465"/>
+          <a:ext cx="3154680" cy="251460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13913,7 +13997,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13956,14 +14040,14 @@
       </c>
       <c r="I3" s="4" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>王允</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
       <c r="M3" s="4" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>蔡邕</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -13981,7 +14065,7 @@
         <v>432</v>
       </c>
       <c r="I4" s="6">
-        <v>1445</v>
+        <v>168</v>
       </c>
       <c r="J4" s="1">
         <v>16</v>
@@ -13991,7 +14075,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="6">
-        <v>1445</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="2:13">
@@ -14001,12 +14085,12 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>樊稠</v>
+        <v>弓骑</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>董旻</v>
+        <v>弓骑</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
@@ -14014,20 +14098,20 @@
       </c>
       <c r="I5" s="7" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑2</v>
+        <v>说客1</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>弓骑</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="4" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>弓骑</v>
       </c>
       <c r="M5" s="7" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑2</v>
+        <v>辅佐1</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -14035,13 +14119,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="6">
-        <v>794</v>
+        <v>1431</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
       </c>
       <c r="E6" s="6">
-        <v>795</v>
+        <v>1431</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
@@ -14050,13 +14134,13 @@
         <v>14</v>
       </c>
       <c r="J6" s="13">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="K6" s="14">
         <v>13</v>
       </c>
       <c r="L6" s="16">
-        <v>1445</v>
+        <v>1431</v>
       </c>
       <c r="M6" s="1">
         <v>15</v>
@@ -14065,11 +14149,11 @@
     <row r="7" ht="15.15" spans="2:13">
       <c r="B7" s="4" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>李蒙</v>
+        <v>弓骑</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
+        <v>弓骑1</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
@@ -14077,19 +14161,19 @@
       </c>
       <c r="E7" s="7" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
+        <v>弓骑1</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>胡轸</v>
+        <v>弓骑</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>徐荣</v>
+        <v>弓骑</v>
       </c>
       <c r="J7" s="17" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑2</v>
+        <v>弓骑1</v>
       </c>
       <c r="K7" s="18" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
@@ -14097,16 +14181,16 @@
       </c>
       <c r="L7" s="19" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑2</v>
+        <v>弓骑1</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>蔡邕</v>
+        <v>弓骑</v>
       </c>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="6">
-        <v>793</v>
+        <v>1430</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
@@ -14118,10 +14202,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>796</v>
+        <v>1430</v>
       </c>
       <c r="I8" s="13">
-        <v>173</v>
+        <v>1430</v>
       </c>
       <c r="J8" s="14">
         <v>11</v>
@@ -14133,13 +14217,13 @@
         <v>12</v>
       </c>
       <c r="M8" s="16">
-        <v>808</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="2:13">
       <c r="B9" s="7" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
+        <v>弓骑1</v>
       </c>
       <c r="C9" s="4" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
@@ -14155,11 +14239,11 @@
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
+        <v>弓骑1</v>
       </c>
       <c r="I9" s="46" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>骠骑1</v>
+        <v>弓骑1</v>
       </c>
       <c r="J9" s="18" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
@@ -14175,7 +14259,7 @@
       </c>
       <c r="M9" s="47" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>辅佐1</v>
+        <v>弓骑1</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -14526,7 +14610,7 @@
   <sheetPr/>
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -16359,8 +16443,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16415,7 +16499,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="6">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
@@ -16425,10 +16509,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="6">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I4" s="13">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="J4" s="1">
         <v>16</v>
@@ -16438,7 +16522,7 @@
         <v>17</v>
       </c>
       <c r="M4" s="13">
-        <v>1383</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="2:13">
@@ -16461,7 +16545,7 @@
       </c>
       <c r="I5" s="7" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>刺客1</v>
+        <v>刺客2</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
@@ -16474,7 +16558,7 @@
       </c>
       <c r="M5" s="7" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>刺客1</v>
+        <v>刺客2</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -16482,13 +16566,13 @@
         <v>14</v>
       </c>
       <c r="C6" s="6">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
       </c>
       <c r="E6" s="6">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
@@ -16497,13 +16581,13 @@
         <v>14</v>
       </c>
       <c r="J6" s="13">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="K6" s="14">
         <v>13</v>
       </c>
       <c r="L6" s="13">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="M6" s="1">
         <v>15</v>
@@ -16536,7 +16620,7 @@
       </c>
       <c r="J7" s="46" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>刺客1</v>
+        <v>刺客2</v>
       </c>
       <c r="K7" s="18" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
@@ -16544,7 +16628,7 @@
       </c>
       <c r="L7" s="47" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>刺客1</v>
+        <v>刺客2</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
@@ -16553,7 +16637,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="6">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C8" s="9">
         <v>11</v>
@@ -16565,10 +16649,10 @@
         <v>12</v>
       </c>
       <c r="F8" s="6">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="I8" s="13">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="J8" s="35">
         <v>11</v>
@@ -16580,7 +16664,7 @@
         <v>12</v>
       </c>
       <c r="M8" s="13">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="2:13">
@@ -16712,7 +16796,7 @@
         <v>1382</v>
       </c>
       <c r="I12" s="6">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J12" s="48">
         <v>6</v>
@@ -16724,7 +16808,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="13">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="2:13">
@@ -16750,7 +16834,7 @@
       </c>
       <c r="I13" s="7" t="str">
         <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>刺客2</v>
+        <v>刺客1</v>
       </c>
       <c r="J13" s="17" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
@@ -21480,7 +21564,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -21817,7 +21901,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="13">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C12" s="20">
         <v>6</v>
@@ -21829,7 +21913,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="16">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="I12" s="6">
         <v>1552</v>
@@ -21965,7 +22049,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="6">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="C16" s="60">
         <v>1</v>
@@ -21977,7 +22061,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="6">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="I16" s="6">
         <v>1552</v>
@@ -22040,11 +22124,11 @@
     <row r="18" spans="2:13">
       <c r="B18" s="2"/>
       <c r="C18" s="6">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="6">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="F18" s="2"/>
       <c r="I18" s="2"/>
@@ -27647,7 +27731,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F2502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -29522,7 +29606,7 @@
         <v>480</v>
       </c>
       <c r="F170" s="79" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:6">

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="5" activeTab="23"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="5" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5031" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5039" uniqueCount="1507">
   <si>
     <t>战斗</t>
   </si>
@@ -4596,10 +4596,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -4658,11 +4658,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4681,14 +4687,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4702,34 +4732,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4742,15 +4757,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4759,22 +4767,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4795,8 +4787,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4889,13 +4889,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4907,13 +4919,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4925,7 +4967,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4937,19 +5003,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4961,7 +5027,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4979,97 +5063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5332,15 +5332,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5380,6 +5371,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5391,17 +5391,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5429,6 +5418,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5437,10 +5437,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5449,133 +5449,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15855,13 +15855,13 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="M2" sqref="M2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>19</v>
       </c>
       <c r="C2" s="2"/>
@@ -15869,10 +15869,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
         <v>20</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="9">
         <v>19</v>
       </c>
       <c r="J2" s="2"/>
@@ -15880,110 +15880,102 @@
         <v>18</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="1">
+      <c r="M2" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="4" t="str">
-        <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>投石车</v>
+      <c r="B3" s="10" t="s">
+        <v>1489</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="4" t="str">
-        <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>投石车</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>投石车</v>
+      <c r="F3" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>1489</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="4" t="str">
-        <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>投石车</v>
+      <c r="M3" s="10" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="6">
-        <v>1502</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
         <v>16</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>17</v>
       </c>
-      <c r="F4" s="6">
-        <v>1502</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1503</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>16</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="1">
+      <c r="L4" s="9">
         <v>17</v>
       </c>
-      <c r="M4" s="6">
-        <v>1503</v>
+      <c r="M4" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="12" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>投石车</v>
+        <v>统帅2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1489</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="4" t="str">
-        <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>投石车</v>
-      </c>
-      <c r="F5" s="7" t="str">
+      <c r="E5" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F5" s="12" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
-      </c>
-      <c r="I5" s="7" t="str">
+        <v>统帅2</v>
+      </c>
+      <c r="I5" s="12" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>蒋济</v>
+        <v>统帅2</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>1489</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="4" t="str">
-        <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
-        <v>丁仪</v>
-      </c>
-      <c r="M5" s="7" t="str">
+      <c r="L5" s="10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="M5" s="12" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
+        <v>统帅2</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="1">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
-        <v>1503</v>
+      <c r="C6" s="11">
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
-        <v>1503</v>
+      <c r="E6" s="11">
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
@@ -15991,14 +15983,14 @@
       <c r="I6" s="1">
         <v>14</v>
       </c>
-      <c r="J6" s="6">
-        <v>99</v>
+      <c r="J6" s="11">
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>13</v>
       </c>
-      <c r="L6" s="6">
-        <v>574</v>
+      <c r="L6" s="11">
+        <v>0</v>
       </c>
       <c r="M6" s="1">
         <v>15</v>
@@ -16009,17 +16001,17 @@
         <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
         <v>陈群</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="12" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
+        <v>统帅2</v>
       </c>
       <c r="D7" s="4" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
         <v>程昱</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="12" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
+        <v>统帅2</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
@@ -16029,17 +16021,17 @@
         <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
         <v>陈群</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="J7" s="12" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
+        <v>统帅2</v>
       </c>
       <c r="K7" s="4" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
         <v>程昱</v>
       </c>
-      <c r="L7" s="7" t="str">
+      <c r="L7" s="12" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>投石车1</v>
+        <v>统帅2</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
@@ -18904,8 +18896,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19349,7 +19341,7 @@
     <row r="15" spans="2:13">
       <c r="B15" s="4" t="str">
         <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>长枪</v>
+        <v>飞甲</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
@@ -19357,7 +19349,7 @@
       </c>
       <c r="D15" s="4" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>长枪</v>
+        <v>飞甲</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
@@ -19365,11 +19357,11 @@
       </c>
       <c r="F15" s="4" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>长枪</v>
+        <v>飞甲</v>
       </c>
       <c r="I15" s="4" t="str">
         <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>长枪</v>
+        <v>飞甲</v>
       </c>
       <c r="J15" s="7" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
@@ -19377,7 +19369,7 @@
       </c>
       <c r="K15" s="4" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>长枪</v>
+        <v>飞甲</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
@@ -19385,45 +19377,45 @@
       </c>
       <c r="M15" s="4" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>长枪</v>
+        <v>飞甲</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="6">
-        <v>1310</v>
+        <v>1241</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>1310</v>
+        <v>1241</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="6">
-        <v>1310</v>
+        <v>1241</v>
       </c>
       <c r="I16" s="6">
-        <v>1312</v>
+        <v>1242</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="6">
-        <v>1312</v>
+        <v>1242</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
       </c>
       <c r="M16" s="6">
-        <v>1312</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="7" t="str">
         <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>长枪1</v>
+        <v>飞甲2</v>
       </c>
       <c r="C17" s="4" t="str">
         <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
@@ -19431,7 +19423,7 @@
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>长枪1</v>
+        <v>飞甲2</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
@@ -19439,11 +19431,11 @@
       </c>
       <c r="F17" s="7" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>长枪1</v>
+        <v>飞甲2</v>
       </c>
       <c r="I17" s="7" t="str">
         <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>长枪1</v>
+        <v>飞甲2</v>
       </c>
       <c r="J17" s="4" t="str">
         <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
@@ -19451,7 +19443,7 @@
       </c>
       <c r="K17" s="7" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>长枪1</v>
+        <v>飞甲2</v>
       </c>
       <c r="L17" s="4" t="str">
         <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
@@ -19459,7 +19451,7 @@
       </c>
       <c r="M17" s="7" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
-        <v>长枪1</v>
+        <v>飞甲2</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -24011,7 +24003,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="8"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4658,8 +4658,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -4727,6 +4727,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4734,7 +4764,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4742,36 +4772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4786,40 +4787,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4839,19 +4826,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4862,11 +4848,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4957,7 +4957,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4969,19 +5023,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4993,103 +5065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5107,19 +5089,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5131,13 +5113,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5402,9 +5402,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5420,6 +5422,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5448,32 +5483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5488,15 +5497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5505,10 +5505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5517,133 +5517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6059,8 +6059,8 @@
     <mruColors>
       <color rgb="00000000"/>
       <color rgb="00FF69FE"/>
+      <color rgb="00FF0000"/>
       <color rgb="00FFFF00"/>
-      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -11887,6 +11887,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8778240" y="5396865"/>
+          <a:ext cx="3954780" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043940" y="5495925"/>
+          <a:ext cx="6373495" cy="389890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15110,8 +15194,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15143,30 +15227,30 @@
     <row r="3" spans="2:13">
       <c r="B3" s="4" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>李儒</v>
+        <v>弓骑</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>李肃</v>
+        <v>弓骑</v>
       </c>
       <c r="I3" s="4" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>王允</v>
+        <v>弓骑</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" s="2"/>
       <c r="M3" s="4" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
-        <v>蔡邕</v>
+        <v>弓骑</v>
       </c>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="6">
-        <v>174</v>
+        <v>1430</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
@@ -15176,10 +15260,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="6">
-        <v>432</v>
+        <v>1430</v>
       </c>
       <c r="I4" s="6">
-        <v>168</v>
+        <v>1432</v>
       </c>
       <c r="J4" s="1">
         <v>16</v>
@@ -15189,30 +15273,30 @@
         <v>17</v>
       </c>
       <c r="M4" s="6">
-        <v>808</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="2:13">
       <c r="B5" s="7" t="str">
         <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>毒士1</v>
+        <v>弓骑1</v>
       </c>
       <c r="C5" s="4" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
         <v>弓骑</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="4" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
         <v>弓骑</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>说客1</v>
+        <v>弓骑1</v>
       </c>
       <c r="I5" s="7" t="str">
         <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>说客1</v>
+        <v>弓骑1</v>
       </c>
       <c r="J5" s="4" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
@@ -15225,21 +15309,21 @@
       </c>
       <c r="M5" s="7" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
-        <v>辅佐1</v>
+        <v>弓骑1</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="1">
         <v>14</v>
       </c>
-      <c r="C6" s="6">
-        <v>1431</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="13">
+        <v>1430</v>
+      </c>
+      <c r="D6" s="14">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
-        <v>1431</v>
+      <c r="E6" s="16">
+        <v>1430</v>
       </c>
       <c r="F6" s="1">
         <v>15</v>
@@ -15248,13 +15332,13 @@
         <v>14</v>
       </c>
       <c r="J6" s="13">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="K6" s="14">
         <v>13</v>
       </c>
       <c r="L6" s="16">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="M6" s="1">
         <v>15</v>
@@ -15265,15 +15349,15 @@
         <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
         <v>弓骑</v>
       </c>
-      <c r="C7" s="7" t="str">
+      <c r="C7" s="25" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑1</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="18" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>吕布</v>
-      </c>
-      <c r="E7" s="7" t="str">
+        <v>董卓</v>
+      </c>
+      <c r="E7" s="28" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑1</v>
       </c>
@@ -15287,15 +15371,15 @@
       </c>
       <c r="J7" s="25" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>弓骑2</v>
       </c>
       <c r="K7" s="18" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
-        <v>李儒</v>
+        <v>董卓</v>
       </c>
       <c r="L7" s="28" t="str">
         <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
-        <v>弓骑1</v>
+        <v>弓骑2</v>
       </c>
       <c r="M7" s="4" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
@@ -15303,59 +15387,59 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="6">
+      <c r="B8" s="13">
         <v>1430</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="14">
         <v>11</v>
       </c>
-      <c r="D8" s="6">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="30">
+        <v>21</v>
+      </c>
+      <c r="E8" s="14">
         <v>12</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="16">
         <v>1430</v>
       </c>
       <c r="I8" s="13">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="J8" s="14">
         <v>11</v>
       </c>
-      <c r="K8" s="63">
-        <v>2007</v>
+      <c r="K8" s="30">
+        <v>21</v>
       </c>
       <c r="L8" s="14">
         <v>12</v>
       </c>
       <c r="M8" s="16">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="2:13">
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="25" t="str">
         <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑1</v>
       </c>
-      <c r="C9" s="4" t="str">
+      <c r="C9" s="18" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
-        <v>李傕</v>
-      </c>
-      <c r="D9" s="7" t="str">
+        <v>吕布</v>
+      </c>
+      <c r="D9" s="31" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>骠骑2</v>
-      </c>
-      <c r="E9" s="4" t="str">
+        <v>战车2</v>
+      </c>
+      <c r="E9" s="18" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
-        <v>郭汜</v>
-      </c>
-      <c r="F9" s="7" t="str">
+        <v>华雄</v>
+      </c>
+      <c r="F9" s="28" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑1</v>
       </c>
-      <c r="I9" s="17" t="str">
+      <c r="I9" s="25" t="str">
         <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑1</v>
       </c>
@@ -15363,165 +15447,165 @@
         <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
         <v>吕布</v>
       </c>
-      <c r="K9" s="65" t="str">
+      <c r="K9" s="31" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
-        <v>毒士2</v>
+        <v>战车2</v>
       </c>
       <c r="L9" s="18" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
         <v>华雄</v>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M9" s="28" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑1</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="1">
+      <c r="B10" s="14">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>791</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="63">
+        <v>19</v>
+      </c>
+      <c r="D10" s="66">
         <v>8</v>
       </c>
-      <c r="E10" s="6">
-        <v>792</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="38">
+        <v>433</v>
+      </c>
+      <c r="F10" s="14">
         <v>10</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="14">
         <v>9</v>
       </c>
-      <c r="J10" s="38">
-        <v>2005</v>
-      </c>
-      <c r="K10" s="14">
+      <c r="J10" s="63">
+        <v>19</v>
+      </c>
+      <c r="K10" s="66">
         <v>8</v>
       </c>
-      <c r="L10" s="22">
-        <v>2006</v>
-      </c>
-      <c r="M10" s="42">
+      <c r="L10" s="38">
+        <v>433</v>
+      </c>
+      <c r="M10" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:13">
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="18" t="str">
         <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
-        <v>张济</v>
-      </c>
-      <c r="C11" s="7" t="str">
+        <v>马腾</v>
+      </c>
+      <c r="C11" s="65" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
-      </c>
-      <c r="D11" s="4" t="str">
+        <v>骠骑2</v>
+      </c>
+      <c r="D11" s="58" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
-        <v>华雄</v>
-      </c>
-      <c r="E11" s="7" t="str">
+        <v>吕布</v>
+      </c>
+      <c r="E11" s="40" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
-      </c>
-      <c r="F11" s="4" t="str">
+        <v>骠骑2</v>
+      </c>
+      <c r="F11" s="18" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,2,FALSE)</f>
-        <v>段煨</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>1456</v>
-      </c>
-      <c r="J11" s="40" t="str">
+        <v>韩遂</v>
+      </c>
+      <c r="I11" s="18" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>马腾</v>
+      </c>
+      <c r="J11" s="65" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
-        <v>骠骑3</v>
-      </c>
-      <c r="K11" s="18" t="str">
+        <v>骠骑2</v>
+      </c>
+      <c r="K11" s="58" t="str">
         <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
-        <v>董卓</v>
-      </c>
-      <c r="L11" s="26" t="str">
+        <v>吕布</v>
+      </c>
+      <c r="L11" s="40" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
         <v>骠骑2</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="18" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>韩遂</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="22">
+        <v>188</v>
+      </c>
+      <c r="C12" s="54">
+        <v>6</v>
+      </c>
+      <c r="D12" s="35">
+        <v>19</v>
+      </c>
+      <c r="E12" s="55">
+        <v>7</v>
+      </c>
+      <c r="F12" s="22">
+        <v>189</v>
+      </c>
+      <c r="I12" s="22">
+        <v>188</v>
+      </c>
+      <c r="J12" s="54">
+        <v>6</v>
+      </c>
+      <c r="K12" s="35">
+        <v>19</v>
+      </c>
+      <c r="L12" s="55">
+        <v>7</v>
+      </c>
+      <c r="M12" s="22">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="2:13">
+      <c r="B13" s="26" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>铁骑2</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="6">
-        <v>366</v>
-      </c>
-      <c r="C12" s="33">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6">
-        <v>433</v>
-      </c>
-      <c r="E12" s="33">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6">
-        <v>815</v>
-      </c>
-      <c r="I12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="61">
-        <v>6</v>
-      </c>
-      <c r="K12" s="22">
-        <v>2004</v>
-      </c>
-      <c r="L12" s="62">
-        <v>7</v>
-      </c>
-      <c r="M12" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.15" spans="2:13">
-      <c r="B13" s="7" t="str">
-        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D13" s="7" t="str">
+      <c r="D13" s="36" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
         <v>骠骑2</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="45" t="s">
         <v>1456</v>
       </c>
-      <c r="F13" s="7" t="str">
+      <c r="F13" s="26" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
         <v>铁骑1</v>
       </c>
-      <c r="I13" s="36" t="str">
+      <c r="I13" s="26" t="str">
         <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
-      </c>
-      <c r="J13" s="25" t="str">
-        <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
-      </c>
-      <c r="K13" s="26" t="str">
+        <v>铁骑2</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K13" s="36" t="str">
         <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>战车3</v>
-      </c>
-      <c r="L13" s="28" t="str">
-        <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
-      </c>
-      <c r="M13" s="36" t="str">
+        <v>骠骑2</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M13" s="26" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
-        <v>统帅2</v>
+        <v>铁骑1</v>
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="1">
+      <c r="B14" s="29">
         <v>4</v>
       </c>
       <c r="C14" s="35">
@@ -15533,29 +15617,29 @@
       <c r="E14" s="35">
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="29">
         <v>5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="29">
         <v>4</v>
       </c>
-      <c r="J14" s="6">
-        <v>1444</v>
-      </c>
-      <c r="K14" s="29">
+      <c r="J14" s="35">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>3</v>
       </c>
-      <c r="L14" s="6">
-        <v>1444</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="L14" s="35">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="4" t="str">
         <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>胡轸</v>
       </c>
       <c r="C15" s="36" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
@@ -15563,7 +15647,7 @@
       </c>
       <c r="D15" s="4" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>牛辅</v>
+        <v>董旻</v>
       </c>
       <c r="E15" s="36" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
@@ -15571,23 +15655,23 @@
       </c>
       <c r="F15" s="4" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>王方</v>
       </c>
       <c r="I15" s="4" t="str">
         <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
         <v>铁骑</v>
       </c>
-      <c r="J15" s="7" t="str">
+      <c r="J15" s="36" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
+        <v>统帅2</v>
       </c>
       <c r="K15" s="4" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
         <v>铁骑</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="L15" s="36" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑1</v>
+        <v>统帅2</v>
       </c>
       <c r="M15" s="4" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
@@ -15596,19 +15680,19 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="6">
-        <v>1442</v>
+        <v>796</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
       <c r="F16" s="6">
-        <v>1442</v>
+        <v>797</v>
       </c>
       <c r="I16" s="6">
         <v>1444</v>
@@ -15633,7 +15717,7 @@
       </c>
       <c r="C17" s="4" t="str">
         <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>李蒙</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
@@ -15641,7 +15725,7 @@
       </c>
       <c r="E17" s="4" t="str">
         <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>樊稠</v>
       </c>
       <c r="F17" s="7" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -15653,7 +15737,7 @@
       </c>
       <c r="J17" s="4" t="str">
         <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>段煨</v>
       </c>
       <c r="K17" s="7" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
@@ -15661,7 +15745,7 @@
       </c>
       <c r="L17" s="4" t="str">
         <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
-        <v>铁骑</v>
+        <v>张济</v>
       </c>
       <c r="M17" s="7" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
@@ -15671,20 +15755,20 @@
     <row r="18" spans="2:13">
       <c r="B18" s="2"/>
       <c r="C18" s="6">
-        <v>1443</v>
+        <v>793</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="6">
-        <v>1443</v>
+        <v>794</v>
       </c>
       <c r="F18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="6">
-        <v>1445</v>
+        <v>815</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="6">
-        <v>1445</v>
+        <v>366</v>
       </c>
       <c r="M18" s="2"/>
     </row>
@@ -15703,12 +15787,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="7" t="str">
         <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑2</v>
+        <v>铁骑1</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="7" t="str">
         <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
-        <v>铁骑2</v>
+        <v>铁骑1</v>
       </c>
       <c r="M19" s="2"/>
     </row>
@@ -26327,7 +26411,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -26945,7 +27029,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -27563,7 +27647,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -28181,7 +28265,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -54973,7 +55057,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -56175,7 +56259,7 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4659,8 +4659,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -4727,7 +4727,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4735,13 +4780,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4756,46 +4794,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4810,6 +4809,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4818,9 +4824,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4835,21 +4849,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4857,14 +4857,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4957,31 +4957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4993,25 +4981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5029,19 +4999,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5059,7 +5065,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5071,31 +5119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5107,37 +5131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5402,11 +5402,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5426,35 +5439,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5477,8 +5466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5497,6 +5486,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5505,10 +5505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5517,133 +5517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15194,7 +15194,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -56259,8 +56259,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" firstSheet="3" activeTab="8"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="3" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4659,9 +4659,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -4740,25 +4740,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4772,14 +4756,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4788,6 +4787,52 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4803,32 +4848,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4841,32 +4863,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4957,19 +4957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4981,7 +4969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4993,7 +4987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5011,7 +5005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5023,19 +5023,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5047,43 +5101,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5095,49 +5131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5400,30 +5400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5442,8 +5418,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5465,9 +5441,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5489,11 +5491,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5505,10 +5505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5517,19 +5517,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5538,112 +5538,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7346,6 +7346,48 @@
         <a:xfrm>
           <a:off x="8641080" y="1664970"/>
           <a:ext cx="3710940" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8618220" y="3617595"/>
+          <a:ext cx="4104005" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20079,8 +20121,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K70" sqref="K64:K70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -56259,7 +56301,7 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="3" activeTab="18"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="3" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4727,6 +4727,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4740,53 +4755,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4800,26 +4770,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4832,23 +4786,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4867,6 +4805,68 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4957,7 +4957,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4969,25 +5071,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4999,85 +5083,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5095,49 +5113,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5400,6 +5400,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5415,11 +5424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5435,17 +5450,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5474,17 +5478,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5505,10 +5505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5517,133 +5517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7047,6 +7047,48 @@
         <a:xfrm>
           <a:off x="4838700" y="3722370"/>
           <a:ext cx="3114040" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8023860" y="3676650"/>
+          <a:ext cx="2552700" cy="1234440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19517,8 +19559,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -20121,7 +20163,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="3" activeTab="17"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="8" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4658,10 +4658,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -4727,21 +4727,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4756,7 +4741,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4779,7 +4772,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4792,25 +4785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4825,15 +4802,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4856,7 +4825,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4864,7 +4833,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4963,13 +4963,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4981,43 +5017,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5029,49 +5035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5083,7 +5053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5101,7 +5071,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5113,13 +5095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5131,13 +5125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5400,15 +5400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5420,6 +5411,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5439,26 +5465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5480,20 +5491,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5505,10 +5505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5517,133 +5517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -19559,7 +19559,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -28348,7 +28348,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4646,9 +4646,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -4720,6 +4720,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -4736,23 +4781,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4773,33 +4820,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4811,54 +4850,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4951,7 +4951,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4963,13 +5011,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4981,79 +5047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5065,19 +5065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5095,13 +5089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5113,7 +5101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5125,13 +5113,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5394,17 +5394,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5424,6 +5418,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5435,6 +5455,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5457,37 +5486,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5499,10 +5499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5511,137 +5511,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5935,9 +5935,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -20780,30 +20777,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.33333333333333" style="102"/>
+    <col min="1" max="1" width="5.33333333333333" style="101"/>
     <col min="2" max="9" width="5.33333333333333" style="75" customWidth="1"/>
-    <col min="10" max="10" width="5.33333333333333" style="103" customWidth="1"/>
-    <col min="11" max="11" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="10" max="10" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="11" max="11" width="5.33333333333333" style="101" customWidth="1"/>
     <col min="12" max="19" width="5.33333333333333" style="75" customWidth="1"/>
-    <col min="20" max="20" width="5.33333333333333" style="103" customWidth="1"/>
-    <col min="21" max="21" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="20" max="20" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="21" max="21" width="5.33333333333333" style="101" customWidth="1"/>
     <col min="22" max="29" width="5.33333333333333" style="75" customWidth="1"/>
-    <col min="30" max="30" width="5.33333333333333" style="103" customWidth="1"/>
-    <col min="31" max="31" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="30" max="30" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="31" max="31" width="5.33333333333333" style="101" customWidth="1"/>
     <col min="32" max="39" width="5.33333333333333" style="75" customWidth="1"/>
-    <col min="40" max="40" width="5.33333333333333" style="103" customWidth="1"/>
-    <col min="41" max="41" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="40" max="40" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="41" max="41" width="5.33333333333333" style="101" customWidth="1"/>
     <col min="42" max="49" width="5.33333333333333" style="75" customWidth="1"/>
-    <col min="50" max="50" width="5.33333333333333" style="103" customWidth="1"/>
-    <col min="51" max="51" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="50" max="50" width="5.33333333333333" style="102" customWidth="1"/>
+    <col min="51" max="51" width="5.33333333333333" style="101" customWidth="1"/>
     <col min="52" max="59" width="5.33333333333333" style="75" customWidth="1"/>
-    <col min="60" max="60" width="5.33333333333333" style="103" customWidth="1"/>
+    <col min="60" max="60" width="5.33333333333333" style="102" customWidth="1"/>
     <col min="61" max="61" width="5.33333333333333" style="75" customWidth="1"/>
     <col min="62" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
-      <c r="A1" s="102">
+      <c r="A1" s="101">
         <v>1</v>
       </c>
       <c r="B1" s="75">
@@ -20830,10 +20827,10 @@
       <c r="I1" s="75">
         <v>9</v>
       </c>
-      <c r="J1" s="103">
+      <c r="J1" s="102">
         <v>10</v>
       </c>
-      <c r="K1" s="102">
+      <c r="K1" s="101">
         <v>11</v>
       </c>
       <c r="L1" s="75">
@@ -20860,10 +20857,10 @@
       <c r="S1" s="75">
         <v>19</v>
       </c>
-      <c r="T1" s="103">
+      <c r="T1" s="102">
         <v>20</v>
       </c>
-      <c r="U1" s="102">
+      <c r="U1" s="101">
         <v>21</v>
       </c>
       <c r="V1" s="75">
@@ -20890,10 +20887,10 @@
       <c r="AC1" s="75">
         <v>29</v>
       </c>
-      <c r="AD1" s="103">
+      <c r="AD1" s="102">
         <v>30</v>
       </c>
-      <c r="AE1" s="102">
+      <c r="AE1" s="101">
         <v>31</v>
       </c>
       <c r="AF1" s="75">
@@ -20920,10 +20917,10 @@
       <c r="AM1" s="75">
         <v>39</v>
       </c>
-      <c r="AN1" s="103">
+      <c r="AN1" s="102">
         <v>40</v>
       </c>
-      <c r="AO1" s="102">
+      <c r="AO1" s="101">
         <v>41</v>
       </c>
       <c r="AP1" s="75">
@@ -20950,10 +20947,10 @@
       <c r="AW1" s="75">
         <v>49</v>
       </c>
-      <c r="AX1" s="103">
+      <c r="AX1" s="102">
         <v>50</v>
       </c>
-      <c r="AY1" s="102">
+      <c r="AY1" s="101">
         <v>51</v>
       </c>
       <c r="AZ1" s="75">
@@ -20980,134 +20977,134 @@
       <c r="BG1" s="75">
         <v>59</v>
       </c>
-      <c r="BH1" s="103">
+      <c r="BH1" s="102">
         <v>60</v>
       </c>
     </row>
-    <row r="2" s="100" customFormat="1" spans="1:60">
-      <c r="A2" s="104">
+    <row r="2" s="99" customFormat="1" spans="1:60">
+      <c r="A2" s="103">
         <v>2</v>
       </c>
-      <c r="B2" s="100">
+      <c r="B2" s="99">
         <v>2</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="99">
         <v>2</v>
       </c>
-      <c r="F2" s="100">
+      <c r="F2" s="99">
         <v>2</v>
       </c>
-      <c r="H2" s="100">
+      <c r="H2" s="99">
         <v>2</v>
       </c>
-      <c r="J2" s="115">
+      <c r="J2" s="114">
         <v>2</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100">
+      <c r="K2" s="103"/>
+      <c r="L2" s="99">
         <v>3</v>
       </c>
-      <c r="N2" s="100">
+      <c r="N2" s="99">
         <v>3</v>
       </c>
-      <c r="P2" s="100">
+      <c r="P2" s="99">
         <v>3</v>
       </c>
-      <c r="R2" s="100">
+      <c r="R2" s="99">
         <v>3</v>
       </c>
-      <c r="T2" s="115">
+      <c r="T2" s="114">
         <v>3</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="100">
+      <c r="U2" s="103"/>
+      <c r="V2" s="99">
         <v>4</v>
       </c>
-      <c r="X2" s="100">
+      <c r="X2" s="99">
         <v>4</v>
       </c>
-      <c r="Z2" s="100">
+      <c r="Z2" s="99">
         <v>4</v>
       </c>
-      <c r="AB2" s="100">
+      <c r="AB2" s="99">
         <v>4</v>
       </c>
-      <c r="AD2" s="115">
+      <c r="AD2" s="114">
         <v>4</v>
       </c>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="100">
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="99">
         <v>5</v>
       </c>
-      <c r="AH2" s="100">
+      <c r="AH2" s="99">
         <v>5</v>
       </c>
-      <c r="AJ2" s="100">
+      <c r="AJ2" s="99">
         <v>5</v>
       </c>
-      <c r="AL2" s="100">
+      <c r="AL2" s="99">
         <v>5</v>
       </c>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="104"/>
-      <c r="AX2" s="115"/>
-      <c r="AY2" s="104"/>
-      <c r="BH2" s="115"/>
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="103"/>
+      <c r="AX2" s="114"/>
+      <c r="AY2" s="103"/>
+      <c r="BH2" s="114"/>
     </row>
     <row r="3" s="88" customFormat="1" spans="1:60">
-      <c r="A3" s="105"/>
+      <c r="A3" s="104"/>
       <c r="E3" s="88">
         <v>5</v>
       </c>
-      <c r="J3" s="116"/>
-      <c r="K3" s="105"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="104"/>
       <c r="O3" s="88">
         <v>5</v>
       </c>
-      <c r="T3" s="116"/>
-      <c r="U3" s="105"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="104"/>
       <c r="Y3" s="88">
         <v>5</v>
       </c>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="105"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="104"/>
       <c r="AI3" s="88">
         <v>5</v>
       </c>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="105"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="105"/>
-      <c r="BH3" s="116"/>
-    </row>
-    <row r="4" s="101" customFormat="1" spans="1:60">
-      <c r="A4" s="106"/>
-      <c r="G4" s="101">
+      <c r="AN3" s="115"/>
+      <c r="AO3" s="104"/>
+      <c r="AX3" s="115"/>
+      <c r="AY3" s="104"/>
+      <c r="BH3" s="115"/>
+    </row>
+    <row r="4" s="100" customFormat="1" spans="1:60">
+      <c r="A4" s="105"/>
+      <c r="G4" s="100">
         <v>10</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="106"/>
-      <c r="Q4" s="101">
+      <c r="J4" s="116"/>
+      <c r="K4" s="105"/>
+      <c r="Q4" s="100">
         <v>10</v>
       </c>
-      <c r="T4" s="117"/>
-      <c r="U4" s="106"/>
-      <c r="AA4" s="101">
+      <c r="T4" s="116"/>
+      <c r="U4" s="105"/>
+      <c r="AA4" s="100">
         <v>10</v>
       </c>
-      <c r="AD4" s="117"/>
-      <c r="AE4" s="106"/>
-      <c r="AK4" s="101">
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="105"/>
+      <c r="AK4" s="100">
         <v>10</v>
       </c>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="106"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="106"/>
-      <c r="BH4" s="117"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="105"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="105"/>
+      <c r="BH4" s="116"/>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="102">
+      <c r="A5" s="101">
         <f>SUM(A2:A4)</f>
         <v>2</v>
       </c>
@@ -21143,11 +21140,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="103">
+      <c r="J5" s="102">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K5" s="102">
+      <c r="K5" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21183,11 +21180,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="103">
+      <c r="T5" s="102">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U5" s="102">
+      <c r="U5" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21223,11 +21220,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="103">
+      <c r="AD5" s="102">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AE5" s="102">
+      <c r="AE5" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21263,7 +21260,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN5" s="103">
+      <c r="AN5" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21415,7 +21412,7 @@
       </c>
     </row>
     <row r="9" spans="1:60">
-      <c r="A9" s="102">
+      <c r="A9" s="101">
         <v>1</v>
       </c>
       <c r="C9" s="75">
@@ -21436,10 +21433,10 @@
       <c r="I9" s="75">
         <v>24</v>
       </c>
-      <c r="J9" s="103">
+      <c r="J9" s="102">
         <v>26</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="101">
         <v>51</v>
       </c>
       <c r="L9" s="75">
@@ -21466,10 +21463,10 @@
       <c r="S9" s="75">
         <v>76</v>
       </c>
-      <c r="T9" s="103">
+      <c r="T9" s="102">
         <v>78</v>
       </c>
-      <c r="U9" s="102">
+      <c r="U9" s="101">
         <v>101</v>
       </c>
       <c r="W9" s="75">
@@ -21493,10 +21490,10 @@
       <c r="AC9" s="75">
         <v>121</v>
       </c>
-      <c r="AD9" s="103">
+      <c r="AD9" s="102">
         <v>123</v>
       </c>
-      <c r="AE9" s="102">
+      <c r="AE9" s="101">
         <v>151</v>
       </c>
       <c r="AG9" s="75">
@@ -21520,10 +21517,10 @@
       <c r="AM9" s="75">
         <v>171</v>
       </c>
-      <c r="AN9" s="103">
+      <c r="AN9" s="102">
         <v>173</v>
       </c>
-      <c r="AO9" s="102">
+      <c r="AO9" s="101">
         <v>201</v>
       </c>
       <c r="AP9" s="75">
@@ -21547,10 +21544,10 @@
       <c r="AW9" s="75">
         <v>223</v>
       </c>
-      <c r="AX9" s="103">
+      <c r="AX9" s="102">
         <v>225</v>
       </c>
-      <c r="AY9" s="102">
+      <c r="AY9" s="101">
         <f>AO9+16</f>
         <v>217</v>
       </c>
@@ -21570,7 +21567,7 @@
         <f>AU8+16</f>
         <v>233</v>
       </c>
-      <c r="BH9" s="103">
+      <c r="BH9" s="102">
         <f>AX9+16</f>
         <v>241</v>
       </c>
@@ -21714,10 +21711,10 @@
       </c>
     </row>
     <row r="12" spans="1:60">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="101" t="s">
         <v>55</v>
       </c>
       <c r="N12" s="75">
@@ -21726,44 +21723,44 @@
       <c r="P12" s="75">
         <v>70</v>
       </c>
-      <c r="AY12" s="102" t="s">
+      <c r="AY12" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="BH12" s="103" t="s">
+      <c r="BH12" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="14:16">
-      <c r="N13" s="113" t="s">
+      <c r="N13" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="111" t="s">
+      <c r="P13" s="110" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="3:59">
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="106" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="107" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="100" t="s">
+      <c r="L14" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="109" t="s">
+      <c r="M14" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="100" t="s">
+      <c r="N14" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="107" t="s">
+      <c r="O14" s="106" t="s">
         <v>59</v>
       </c>
       <c r="P14" s="88" t="s">
@@ -21772,22 +21769,22 @@
       <c r="S14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="W14" s="107" t="s">
+      <c r="W14" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="Y14" s="109" t="s">
+      <c r="Y14" s="108" t="s">
         <v>62</v>
       </c>
       <c r="AC14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="AG14" s="107" t="s">
+      <c r="AG14" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AI14" s="109" t="s">
+      <c r="AI14" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AJ14" s="100" t="s">
+      <c r="AJ14" s="99" t="s">
         <v>65</v>
       </c>
       <c r="AL14" s="88" t="s">
@@ -21796,31 +21793,31 @@
       <c r="AM14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="AP14" s="100" t="s">
+      <c r="AP14" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="AQ14" s="107" t="s">
+      <c r="AQ14" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AS14" s="109" t="s">
+      <c r="AS14" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AT14" s="113" t="s">
+      <c r="AT14" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AV14" s="100" t="s">
+      <c r="AV14" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="AW14" s="114" t="s">
+      <c r="AW14" s="113" t="s">
         <v>68</v>
       </c>
       <c r="BA14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="BD14" s="100" t="s">
+      <c r="BD14" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="BF14" s="100" t="s">
+      <c r="BF14" s="99" t="s">
         <v>70</v>
       </c>
       <c r="BG14" s="76" t="s">
@@ -21828,40 +21825,40 @@
       </c>
     </row>
     <row r="15" spans="2:55">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="99" t="s">
         <v>73</v>
       </c>
       <c r="I15" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="100" t="s">
+      <c r="R15" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="V15" s="100" t="s">
+      <c r="V15" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="X15" s="113" t="s">
+      <c r="X15" s="112" t="s">
         <v>57</v>
       </c>
       <c r="Z15" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AB15" s="101" t="s">
+      <c r="AB15" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AF15" s="100" t="s">
+      <c r="AF15" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="AH15" s="113" t="s">
+      <c r="AH15" s="112" t="s">
         <v>57</v>
       </c>
       <c r="AR15" s="88" t="s">
@@ -21870,105 +21867,105 @@
       <c r="AU15" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AZ15" s="100" t="s">
+      <c r="AZ15" s="99" t="s">
         <v>75</v>
       </c>
       <c r="BB15" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="BC15" s="109" t="s">
+      <c r="BC15" s="108" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:60">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="101" t="s">
+      <c r="H16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="114" t="s">
+      <c r="I16" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="115" t="s">
+      <c r="J16" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="100" t="s">
+      <c r="L16" s="99" t="s">
         <v>61</v>
       </c>
       <c r="M16" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="100" t="s">
+      <c r="N16" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="O16" s="108" t="s">
+      <c r="O16" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="100" t="s">
+      <c r="P16" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="112" t="s">
+      <c r="Q16" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="R16" s="101" t="s">
+      <c r="R16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="111" t="s">
+      <c r="S16" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="115" t="s">
+      <c r="T16" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="U16" s="110" t="s">
+      <c r="U16" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="W16" s="111" t="s">
+      <c r="W16" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="X16" s="100" t="s">
+      <c r="X16" s="99" t="s">
         <v>83</v>
       </c>
       <c r="Y16" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="Z16" s="100" t="s">
+      <c r="Z16" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="AA16" s="112" t="s">
+      <c r="AA16" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AB16" s="100" t="s">
+      <c r="AB16" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="AC16" s="111" t="s">
+      <c r="AC16" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="AD16" s="115" t="s">
+      <c r="AD16" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="AE16" s="110" t="s">
+      <c r="AE16" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="AG16" s="101" t="s">
+      <c r="AG16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AH16" s="100" t="s">
+      <c r="AH16" s="99" t="s">
         <v>85</v>
       </c>
       <c r="AI16" s="76" t="s">
@@ -21977,206 +21974,206 @@
       <c r="AJ16" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AK16" s="112" t="s">
+      <c r="AK16" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AL16" s="101" t="s">
+      <c r="AL16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AM16" s="114" t="s">
+      <c r="AM16" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AN16" s="115" t="s">
+      <c r="AN16" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="AO16" s="110" t="s">
+      <c r="AO16" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="AP16" s="108" t="s">
+      <c r="AP16" s="107" t="s">
         <v>58</v>
       </c>
       <c r="AQ16" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AR16" s="100" t="s">
+      <c r="AR16" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="AS16" s="113" t="s">
+      <c r="AS16" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AT16" s="100" t="s">
+      <c r="AT16" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="AV16" s="101" t="s">
+      <c r="AV16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AW16" s="111" t="s">
+      <c r="AW16" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="AX16" s="115" t="s">
+      <c r="AX16" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="AY16" s="110" t="s">
+      <c r="AY16" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="BA16" s="111" t="s">
+      <c r="BA16" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="BB16" s="100" t="s">
+      <c r="BB16" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="BD16" s="111" t="s">
+      <c r="BD16" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="BE16" s="112" t="s">
+      <c r="BE16" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="BF16" s="100" t="s">
+      <c r="BF16" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="BG16" s="114" t="s">
+      <c r="BG16" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="BH16" s="115" t="s">
+      <c r="BH16" s="114" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="100" t="s">
+      <c r="H17" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="R17" s="100" t="s">
+      <c r="R17" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="V17" s="100" t="s">
+      <c r="V17" s="99" t="s">
         <v>75</v>
       </c>
       <c r="X17" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="Z17" s="113" t="s">
+      <c r="Z17" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="101" t="s">
+      <c r="AB17" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AF17" s="100" t="s">
+      <c r="AF17" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="AH17" s="113" t="s">
+      <c r="AH17" s="112" t="s">
         <v>57</v>
       </c>
       <c r="AR17" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AU17" s="112" t="s">
+      <c r="AU17" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AZ17" s="100" t="s">
+      <c r="AZ17" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="BB17" s="113" t="s">
+      <c r="BB17" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="BC17" s="107" t="s">
+      <c r="BC17" s="106" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="3:59">
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="113" t="s">
+      <c r="H18" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="L18" s="100" t="s">
+      <c r="L18" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="107" t="s">
+      <c r="M18" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="N18" s="100" t="s">
+      <c r="N18" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="O18" s="109" t="s">
+      <c r="O18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="P18" s="113" t="s">
+      <c r="P18" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="S18" s="114" t="s">
+      <c r="S18" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="109" t="s">
+      <c r="W18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="Y18" s="107" t="s">
+      <c r="Y18" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AC18" s="114" t="s">
+      <c r="AC18" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AG18" s="109" t="s">
+      <c r="AG18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AI18" s="107" t="s">
+      <c r="AI18" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AJ18" s="100" t="s">
+      <c r="AJ18" s="99" t="s">
         <v>65</v>
       </c>
       <c r="AL18" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AM18" s="111" t="s">
+      <c r="AM18" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" s="100" t="s">
+      <c r="AP18" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="AQ18" s="109" t="s">
+      <c r="AQ18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AS18" s="107" t="s">
+      <c r="AS18" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AT18" s="113" t="s">
+      <c r="AT18" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AV18" s="100" t="s">
+      <c r="AV18" s="99" t="s">
         <v>67</v>
       </c>
       <c r="AW18" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="BA18" s="109" t="s">
+      <c r="BA18" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="BD18" s="100" t="s">
+      <c r="BD18" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="BF18" s="100" t="s">
+      <c r="BF18" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="BG18" s="111" t="s">
+      <c r="BG18" s="110" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22184,7 +22181,7 @@
       <c r="N19" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="111" t="s">
+      <c r="P19" s="110" t="s">
         <v>58</v>
       </c>
     </row>
@@ -22198,57 +22195,57 @@
       <c r="D21" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="AY21" s="102" t="s">
+      <c r="AY21" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="BD21" s="111" t="s">
+      <c r="BD21" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="BE21" s="108" t="s">
+      <c r="BE21" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="BF21" s="101" t="s">
+      <c r="BF21" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="BG21" s="108" t="s">
+      <c r="BG21" s="107" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="99" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="4:57">
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AY23" s="102" t="s">
+      <c r="AY23" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="BD23" s="100" t="s">
+      <c r="BD23" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="BE23" s="113" t="s">
+      <c r="BE23" s="112" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="113" t="s">
+      <c r="B24" s="112" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="51:56">
-      <c r="AY25" s="102" t="s">
+      <c r="AY25" s="101" t="s">
         <v>94</v>
       </c>
       <c r="BB25" s="88" t="s">
@@ -22265,22 +22262,22 @@
       <c r="E27" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="AY27" s="102" t="s">
+      <c r="AY27" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="BB27" s="113" t="s">
+      <c r="BB27" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="BC27" s="113" t="s">
+      <c r="BC27" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="BD27" s="113" t="s">
+      <c r="BD27" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="BE27" s="113" t="s">
+      <c r="BE27" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="BF27" s="113" t="s">
+      <c r="BF27" s="112" t="s">
         <v>57</v>
       </c>
     </row>
@@ -22290,452 +22287,452 @@
       </c>
     </row>
     <row r="29" spans="1:51">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="100" t="s">
+      <c r="E29" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="100" t="s">
+      <c r="G29" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="AY29" s="102" t="s">
+      <c r="AY29" s="101" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="102" t="s">
+      <c r="A30" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="100" t="s">
+      <c r="E30" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="100" t="s">
+      <c r="G30" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="100" t="s">
+      <c r="E31" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="100" t="s">
+      <c r="G31" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="102" t="s">
+      <c r="A32" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="100" t="s">
+      <c r="E32" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F32" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="100" t="s">
+      <c r="G32" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="100" t="s">
+      <c r="G33" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F34" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="100" t="s">
+      <c r="G34" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D35" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="100" t="s">
+      <c r="G35" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="102" t="s">
+      <c r="A36" s="101" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="100" t="s">
+      <c r="E36" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G36" s="100" t="s">
+      <c r="G36" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="100" t="s">
+      <c r="E37" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F37" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="100" t="s">
+      <c r="G37" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C38" s="99" t="s">
         <v>72</v>
       </c>
       <c r="D38" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="100" t="s">
+      <c r="E38" s="99" t="s">
         <v>0</v>
       </c>
       <c r="F38" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="100" t="s">
+      <c r="G38" s="99" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:60">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="F41" s="100" t="s">
+      <c r="F41" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="100" t="s">
+      <c r="H41" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="118" t="s">
+      <c r="J41" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="100" t="s">
+      <c r="L41" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="N41" s="100" t="s">
+      <c r="N41" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="P41" s="100" t="s">
+      <c r="P41" s="99" t="s">
         <v>81</v>
       </c>
-      <c r="R41" s="100" t="s">
+      <c r="R41" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="T41" s="118" t="s">
+      <c r="T41" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="V41" s="100" t="s">
+      <c r="V41" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="X41" s="100" t="s">
+      <c r="X41" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="Z41" s="100" t="s">
+      <c r="Z41" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="AB41" s="100" t="s">
+      <c r="AB41" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="AD41" s="118" t="s">
+      <c r="AD41" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="AF41" s="100" t="s">
+      <c r="AF41" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="AH41" s="100" t="s">
+      <c r="AH41" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="AJ41" s="100" t="s">
+      <c r="AJ41" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="AL41" s="100" t="s">
+      <c r="AL41" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="AN41" s="118" t="s">
+      <c r="AN41" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="AP41" s="100" t="s">
+      <c r="AP41" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="AR41" s="100" t="s">
+      <c r="AR41" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="AT41" s="100" t="s">
+      <c r="AT41" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="AV41" s="100" t="s">
+      <c r="AV41" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="AX41" s="118" t="s">
+      <c r="AX41" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="AZ41" s="100" t="s">
+      <c r="AZ41" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="BB41" s="100" t="s">
+      <c r="BB41" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="BD41" s="100" t="s">
+      <c r="BD41" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="BF41" s="100" t="s">
+      <c r="BF41" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="BH41" s="118" t="s">
+      <c r="BH41" s="117" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42" spans="8:58">
-      <c r="H42" s="101" t="s">
+      <c r="H42" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="R42" s="101" t="s">
+      <c r="R42" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AB42" s="101" t="s">
+      <c r="AB42" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AL42" s="101" t="s">
+      <c r="AL42" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AV42" s="101" t="s">
+      <c r="AV42" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="BF42" s="101" t="s">
+      <c r="BF42" s="100" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" s="75" customFormat="1" spans="1:60">
-      <c r="A43" s="102"/>
+      <c r="A43" s="101"/>
       <c r="D43" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="103"/>
-      <c r="K43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="101"/>
       <c r="N43" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="T43" s="103"/>
-      <c r="U43" s="102"/>
+      <c r="T43" s="102"/>
+      <c r="U43" s="101"/>
       <c r="X43" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AD43" s="103"/>
-      <c r="AE43" s="102"/>
+      <c r="AD43" s="102"/>
+      <c r="AE43" s="101"/>
       <c r="AH43" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AN43" s="103"/>
-      <c r="AO43" s="102"/>
+      <c r="AN43" s="102"/>
+      <c r="AO43" s="101"/>
       <c r="AR43" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="AX43" s="103"/>
-      <c r="AY43" s="102"/>
+      <c r="AX43" s="102"/>
+      <c r="AY43" s="101"/>
       <c r="BB43" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="BH43" s="103"/>
+      <c r="BH43" s="102"/>
     </row>
     <row r="44" s="75" customFormat="1" spans="1:60">
-      <c r="A44" s="102"/>
-      <c r="D44" s="113" t="s">
+      <c r="A44" s="101"/>
+      <c r="D44" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="J44" s="103"/>
-      <c r="K44" s="102"/>
-      <c r="N44" s="113" t="s">
+      <c r="J44" s="102"/>
+      <c r="K44" s="101"/>
+      <c r="N44" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="T44" s="103"/>
-      <c r="U44" s="102"/>
-      <c r="X44" s="113" t="s">
+      <c r="T44" s="102"/>
+      <c r="U44" s="101"/>
+      <c r="X44" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AD44" s="103"/>
-      <c r="AE44" s="102"/>
-      <c r="AH44" s="113" t="s">
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="101"/>
+      <c r="AH44" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AN44" s="103"/>
-      <c r="AO44" s="102"/>
-      <c r="AR44" s="113" t="s">
+      <c r="AN44" s="102"/>
+      <c r="AO44" s="101"/>
+      <c r="AR44" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="AX44" s="103"/>
-      <c r="AY44" s="102"/>
-      <c r="BB44" s="113" t="s">
+      <c r="AX44" s="102"/>
+      <c r="AY44" s="101"/>
+      <c r="BB44" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="BH44" s="103"/>
+      <c r="BH44" s="102"/>
     </row>
     <row r="45" spans="1:57">
-      <c r="A45" s="112" t="s">
+      <c r="A45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="G45" s="112" t="s">
+      <c r="G45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="K45" s="112" t="s">
+      <c r="K45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="Q45" s="112" t="s">
+      <c r="Q45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="U45" s="112" t="s">
+      <c r="U45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AA45" s="112" t="s">
+      <c r="AA45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AE45" s="112" t="s">
+      <c r="AE45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AK45" s="112" t="s">
+      <c r="AK45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AO45" s="112" t="s">
+      <c r="AO45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AU45" s="112" t="s">
+      <c r="AU45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="AY45" s="112" t="s">
+      <c r="AY45" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="BE45" s="112" t="s">
+      <c r="BE45" s="111" t="s">
         <v>78</v>
       </c>
     </row>
@@ -22778,46 +22775,46 @@
       </c>
     </row>
     <row r="47" spans="9:59">
-      <c r="I47" s="114" t="s">
+      <c r="I47" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="S47" s="114" t="s">
+      <c r="S47" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AC47" s="114" t="s">
+      <c r="AC47" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AM47" s="114" t="s">
+      <c r="AM47" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AW47" s="114" t="s">
+      <c r="AW47" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="BG47" s="114" t="s">
+      <c r="BG47" s="113" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="3:55">
-      <c r="C48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="Y48" s="109"/>
-      <c r="AG48" s="109"/>
-      <c r="AI48" s="109"/>
-      <c r="AQ48" s="109"/>
-      <c r="AS48" s="109"/>
-      <c r="BA48" s="109"/>
-      <c r="BC48" s="109"/>
+      <c r="C48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="W48" s="108"/>
+      <c r="Y48" s="108"/>
+      <c r="AG48" s="108"/>
+      <c r="AI48" s="108"/>
+      <c r="AQ48" s="108"/>
+      <c r="AS48" s="108"/>
+      <c r="BA48" s="108"/>
+      <c r="BC48" s="108"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="107" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="111" t="s">
+      <c r="A50" s="110" t="s">
         <v>58</v>
       </c>
     </row>
@@ -28961,17 +28958,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="5" style="87" customWidth="1"/>
     <col min="2" max="2" width="11.3333333333333" style="88" customWidth="1"/>
@@ -29010,7 +29007,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" ht="39" customHeight="1" spans="1:8">
+    <row r="2" ht="39" customHeight="1" spans="1:9">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -29035,8 +29032,11 @@
       <c r="H2" s="93" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:8">
+      <c r="I2" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:9">
       <c r="A3" s="92">
         <v>2</v>
       </c>
@@ -29061,8 +29061,11 @@
       <c r="H3" s="93" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:8">
+      <c r="I3" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:9">
       <c r="A4" s="92">
         <v>3</v>
       </c>
@@ -29087,8 +29090,11 @@
       <c r="H4" s="93" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" ht="39" customHeight="1" spans="1:8">
+      <c r="I4" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="39" customHeight="1" spans="1:9">
       <c r="A5" s="92">
         <v>4</v>
       </c>
@@ -29113,8 +29119,11 @@
       <c r="H5" s="93" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" ht="39" customHeight="1" spans="1:8">
+      <c r="I5" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="39" customHeight="1" spans="1:9">
       <c r="A6" s="92">
         <v>5</v>
       </c>
@@ -29139,8 +29148,11 @@
       <c r="H6" s="93" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:8">
+      <c r="I6" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:9">
       <c r="A7" s="92">
         <v>6</v>
       </c>
@@ -29165,8 +29177,11 @@
       <c r="H7" s="93" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" ht="39" customHeight="1" spans="1:8">
+      <c r="I7" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="1:9">
       <c r="A8" s="92">
         <v>7</v>
       </c>
@@ -29191,8 +29206,11 @@
       <c r="H8" s="93" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="9" ht="40" customHeight="1" spans="1:8">
+      <c r="I8" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" ht="40" customHeight="1" spans="1:9">
       <c r="A9" s="92">
         <v>8</v>
       </c>
@@ -29217,8 +29235,11 @@
       <c r="H9" s="93" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" ht="40" customHeight="1" spans="1:8">
+      <c r="I9" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="40" customHeight="1" spans="1:9">
       <c r="A10" s="92">
         <v>9</v>
       </c>
@@ -29242,6 +29263,9 @@
       </c>
       <c r="H10" s="93" t="s">
         <v>169</v>
+      </c>
+      <c r="I10" s="88">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="41" customHeight="1" spans="1:8">
@@ -29401,7 +29425,7 @@
       <c r="D17" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="98" t="s">
         <v>192</v>
       </c>
       <c r="F17" s="92" t="s">

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4646,10 +4646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -4720,18 +4720,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4744,7 +4752,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4758,38 +4810,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4805,30 +4828,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4842,14 +4841,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -4857,8 +4848,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4957,7 +4957,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4969,19 +4987,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4993,49 +5053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5053,13 +5071,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5071,31 +5101,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5107,31 +5131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5394,15 +5394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5420,10 +5411,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5440,30 +5429,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5491,6 +5456,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5499,10 +5499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5511,133 +5511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -28965,7 +28965,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -29056,7 +29056,7 @@
         <v>135</v>
       </c>
       <c r="G3" s="92">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="93" t="s">
         <v>136</v>
@@ -29230,7 +29230,7 @@
         <v>168</v>
       </c>
       <c r="G9" s="92">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="93" t="s">
         <v>169</v>
@@ -29314,7 +29314,7 @@
         <v>181</v>
       </c>
       <c r="G12" s="92">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" s="93" t="s">
         <v>169</v>
@@ -29340,7 +29340,7 @@
         <v>185</v>
       </c>
       <c r="G13" s="92">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" s="93" t="s">
         <v>169</v>
@@ -29365,7 +29365,9 @@
       <c r="F14" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="92"/>
+      <c r="G14" s="92">
+        <v>18</v>
+      </c>
       <c r="H14" s="93"/>
     </row>
     <row r="15" ht="41" customHeight="1" spans="1:8">
@@ -29387,7 +29389,9 @@
       <c r="F15" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="G15" s="92"/>
+      <c r="G15" s="92">
+        <v>18</v>
+      </c>
       <c r="H15" s="93"/>
     </row>
     <row r="16" ht="41" customHeight="1" spans="1:8">
@@ -29409,7 +29413,9 @@
       <c r="F16" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="92">
+        <v>19</v>
+      </c>
       <c r="H16" s="93"/>
     </row>
     <row r="17" ht="41" customHeight="1" spans="1:8">
@@ -29431,7 +29437,9 @@
       <c r="F17" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="92">
+        <v>19</v>
+      </c>
       <c r="H17" s="93"/>
     </row>
   </sheetData>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4647,9 +4647,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -4720,41 +4720,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4767,7 +4737,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4775,44 +4752,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4828,6 +4767,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4835,7 +4797,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4848,9 +4810,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4858,7 +4834,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4951,19 +4951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4975,25 +4975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5011,7 +4999,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5023,7 +5071,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5035,7 +5095,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5047,91 +5131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5394,26 +5394,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5434,25 +5434,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5468,11 +5459,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5491,6 +5480,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5502,7 +5502,7 @@
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5511,133 +5511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7083,6 +7083,48 @@
         <a:xfrm>
           <a:off x="8023860" y="3676650"/>
           <a:ext cx="2552700" cy="1234440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="2762250"/>
+          <a:ext cx="2560320" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12432,6 +12474,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="5168265"/>
+          <a:ext cx="3025140" cy="1234440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15887,7 +15971,7 @@
   <dimension ref="B1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -19553,8 +19637,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -28960,7 +29044,7 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="7" activeTab="17"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -593,9 +593,6 @@
     <t>曹操6</t>
   </si>
   <si>
-    <t>程昱</t>
-  </si>
-  <si>
     <t>赤壁之战</t>
   </si>
   <si>
@@ -606,7 +603,7 @@
     <t>曹操7</t>
   </si>
   <si>
-    <t>周瑜</t>
+    <t>鲁肃</t>
   </si>
   <si>
     <t>镇守荆州</t>
@@ -808,6 +805,9 @@
     <t>兵种</t>
   </si>
   <si>
+    <t>周瑜</t>
+  </si>
+  <si>
     <t>统帅2</t>
   </si>
   <si>
@@ -937,9 +937,6 @@
     <t>小乔</t>
   </si>
   <si>
-    <t>鲁肃</t>
-  </si>
-  <si>
     <t>内政2</t>
   </si>
   <si>
@@ -1037,6 +1034,9 @@
   </si>
   <si>
     <t>张绣</t>
+  </si>
+  <si>
+    <t>程昱</t>
   </si>
   <si>
     <t>于禁</t>
@@ -4646,10 +4646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -4721,39 +4721,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4765,24 +4736,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4797,6 +4768,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4804,14 +4782,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4826,25 +4805,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4856,9 +4826,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4951,19 +4951,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4975,13 +4975,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4993,73 +5023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5077,19 +5053,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5101,25 +5083,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5131,7 +5101,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5403,6 +5403,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5433,39 +5477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5480,17 +5491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5499,10 +5499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5511,133 +5511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -19637,7 +19637,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
@@ -26267,7 +26267,7 @@
         <v>铁骑1</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
@@ -26284,7 +26284,7 @@
         <v>铁骑1</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
@@ -29044,12 +29044,12 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -29169,7 +29169,7 @@
         <v>140</v>
       </c>
       <c r="G4" s="92">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="93" t="s">
         <v>141</v>
@@ -29198,7 +29198,7 @@
         <v>145</v>
       </c>
       <c r="G5" s="92">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="93" t="s">
         <v>146</v>
@@ -29227,7 +29227,7 @@
         <v>151</v>
       </c>
       <c r="G6" s="92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="93" t="s">
         <v>152</v>
@@ -29256,7 +29256,7 @@
         <v>156</v>
       </c>
       <c r="G7" s="92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="93" t="s">
         <v>157</v>
@@ -29285,7 +29285,7 @@
         <v>162</v>
       </c>
       <c r="G8" s="92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="93" t="s">
         <v>163</v>
@@ -29314,7 +29314,7 @@
         <v>168</v>
       </c>
       <c r="G9" s="92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="93" t="s">
         <v>169</v>
@@ -29343,7 +29343,7 @@
         <v>173</v>
       </c>
       <c r="G10" s="92">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="93" t="s">
         <v>169</v>
@@ -29369,10 +29369,10 @@
         <v>167</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="G11" s="92">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="93" t="s">
         <v>169</v>
@@ -29383,22 +29383,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="D12" s="92" t="s">
         <v>179</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>180</v>
       </c>
       <c r="E12" s="98" t="s">
         <v>167</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="93" t="s">
         <v>169</v>
@@ -29409,22 +29409,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="D13" s="92" t="s">
         <v>183</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>184</v>
       </c>
       <c r="E13" s="95" t="s">
         <v>167</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="93" t="s">
         <v>169</v>
@@ -29435,13 +29435,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="D14" s="92" t="s">
         <v>187</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>188</v>
       </c>
       <c r="E14" s="95" t="s">
         <v>161</v>
@@ -29450,7 +29450,7 @@
         <v>168</v>
       </c>
       <c r="G14" s="92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="93"/>
     </row>
@@ -29459,22 +29459,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="D15" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="E15" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="F15" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="92" t="s">
-        <v>193</v>
-      </c>
       <c r="G15" s="92">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="93"/>
     </row>
@@ -29483,22 +29483,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="D16" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="E16" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="F16" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="92" t="s">
-        <v>198</v>
-      </c>
       <c r="G16" s="92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="93"/>
     </row>
@@ -29507,22 +29507,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="D17" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="92" t="s">
-        <v>201</v>
-      </c>
       <c r="E17" s="98" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="92" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="92">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="93"/>
     </row>
@@ -29561,105 +29561,105 @@
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="3:12">
       <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
         <v>203</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>204</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>205</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>206</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>207</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>208</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>209</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>210</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>211</v>
-      </c>
-      <c r="L2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="3:12">
       <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
         <v>213</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>214</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>215</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>216</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>217</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>218</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>219</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>220</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>221</v>
-      </c>
-      <c r="L3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" t="s">
         <v>228</v>
-      </c>
-      <c r="J10" t="s">
-        <v>229</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -29668,15 +29668,15 @@
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" t="s">
         <v>231</v>
-      </c>
-      <c r="J11" t="s">
-        <v>232</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -29685,15 +29685,15 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" t="s">
         <v>233</v>
-      </c>
-      <c r="J12" t="s">
-        <v>234</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -29702,15 +29702,15 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" t="s">
         <v>235</v>
-      </c>
-      <c r="J13" t="s">
-        <v>236</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -29719,15 +29719,15 @@
         <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" t="s">
         <v>238</v>
-      </c>
-      <c r="J14" t="s">
-        <v>239</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -29736,12 +29736,12 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -29915,7 +29915,7 @@
         <v>统帅2</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
@@ -30202,7 +30202,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
@@ -30217,7 +30217,7 @@
         <v>统帅2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I15" s="4" t="str">
         <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
@@ -30278,14 +30278,14 @@
         <v>统帅2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" s="12" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -30382,13 +30382,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="F2" s="85" t="s">
         <v>246</v>
@@ -30517,7 +30517,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="85" t="s">
         <v>263</v>
@@ -30572,7 +30572,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" s="85" t="s">
         <v>270</v>
@@ -30715,10 +30715,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="85" t="s">
         <v>289</v>
-      </c>
-      <c r="F31" s="85" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -30726,7 +30726,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F32" s="85" t="s">
         <v>267</v>
@@ -30737,10 +30737,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" s="85" t="s">
         <v>292</v>
-      </c>
-      <c r="F33" s="85" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -30748,7 +30748,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F34" s="85" t="s">
         <v>251</v>
@@ -30759,7 +30759,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F35" s="85" t="s">
         <v>253</v>
@@ -30770,7 +30770,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F36" s="85" t="s">
         <v>262</v>
@@ -30781,7 +30781,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F37" s="85" t="s">
         <v>246</v>
@@ -30792,10 +30792,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="F38" s="85" t="s">
         <v>298</v>
-      </c>
-      <c r="F38" s="85" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -30803,10 +30803,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="85" t="s">
+        <v>299</v>
+      </c>
+      <c r="F39" s="85" t="s">
         <v>300</v>
-      </c>
-      <c r="F39" s="85" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -30814,10 +30814,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F40" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -30825,7 +30825,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F41" s="85" t="s">
         <v>286</v>
@@ -30836,10 +30836,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="85" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>304</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -30847,10 +30847,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -30858,7 +30858,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F44" s="85" t="s">
         <v>276</v>
@@ -30872,7 +30872,7 @@
         <v>145</v>
       </c>
       <c r="F45" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -30880,7 +30880,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F46" s="85" t="s">
         <v>276</v>
@@ -30891,10 +30891,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F47" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -30902,10 +30902,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="F48" s="85" t="s">
         <v>310</v>
-      </c>
-      <c r="F48" s="85" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -30916,7 +30916,7 @@
         <v>140</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -30924,10 +30924,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="85" t="s">
+        <v>312</v>
+      </c>
+      <c r="F50" s="85" t="s">
         <v>313</v>
-      </c>
-      <c r="F50" s="85" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -30935,7 +30935,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F51" s="85" t="s">
         <v>271</v>
@@ -30946,7 +30946,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F52" s="85" t="s">
         <v>248</v>
@@ -30957,7 +30957,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" s="85" t="s">
         <v>282</v>
@@ -30968,10 +30968,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -30979,10 +30979,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="85" t="s">
+        <v>318</v>
+      </c>
+      <c r="F55" s="85" t="s">
         <v>319</v>
-      </c>
-      <c r="F55" s="85" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -30990,7 +30990,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F56" s="85" t="s">
         <v>248</v>
@@ -31001,7 +31001,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F57" s="85" t="s">
         <v>271</v>
@@ -31012,10 +31012,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -31037,7 +31037,7 @@
         <v>324</v>
       </c>
       <c r="F60" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -31089,7 +31089,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F65" s="85" t="s">
         <v>270</v>
@@ -31180,7 +31180,7 @@
         <v>343</v>
       </c>
       <c r="F73" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -31279,7 +31279,7 @@
         <v>355</v>
       </c>
       <c r="F82" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -31664,7 +31664,7 @@
         <v>411</v>
       </c>
       <c r="F117" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -32225,7 +32225,7 @@
         <v>475</v>
       </c>
       <c r="F168" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -34579,7 +34579,7 @@
         <v>703</v>
       </c>
       <c r="F382" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -39207,7 +39207,7 @@
         <v>801</v>
       </c>
       <c r="B803" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F803" s="85" t="s">
         <v>271</v>
@@ -39218,7 +39218,7 @@
         <v>802</v>
       </c>
       <c r="B804" s="85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F804" s="85" t="s">
         <v>276</v>
@@ -39229,7 +39229,7 @@
         <v>803</v>
       </c>
       <c r="B805" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F805" s="85" t="s">
         <v>345</v>
@@ -39276,7 +39276,7 @@
         <v>254</v>
       </c>
       <c r="F809" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="810" spans="1:6">
@@ -39515,7 +39515,7 @@
         <v>829</v>
       </c>
       <c r="B831" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F831" s="85" t="s">
         <v>255</v>
@@ -42039,7 +42039,7 @@
         <v>1125</v>
       </c>
       <c r="B1127" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F1127" s="85" t="s">
         <v>737</v>
@@ -42925,7 +42925,7 @@
         <v>1199</v>
       </c>
       <c r="F1225" s="85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1226" spans="1:6">
@@ -42936,7 +42936,7 @@
         <v>1199</v>
       </c>
       <c r="F1226" s="85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1227" spans="1:6">
@@ -42991,7 +42991,7 @@
         <v>1200</v>
       </c>
       <c r="F1231" s="85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -43002,7 +43002,7 @@
         <v>1200</v>
       </c>
       <c r="F1232" s="85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -45235,7 +45235,7 @@
         <v>1259</v>
       </c>
       <c r="F1435" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1436" spans="1:6">
@@ -45246,7 +45246,7 @@
         <v>1259</v>
       </c>
       <c r="F1436" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1437" spans="1:6">
@@ -46027,7 +46027,7 @@
         <v>1284</v>
       </c>
       <c r="F1507" s="85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1508" spans="1:6">
@@ -46038,7 +46038,7 @@
         <v>1284</v>
       </c>
       <c r="F1508" s="85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1509" spans="1:6">
@@ -46291,7 +46291,7 @@
         <v>1290</v>
       </c>
       <c r="F1531" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1532" spans="1:6">
@@ -46302,7 +46302,7 @@
         <v>1290</v>
       </c>
       <c r="F1532" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1533" spans="1:6">
@@ -47413,7 +47413,7 @@
         <v>1322</v>
       </c>
       <c r="F1633" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1634" spans="1:6">
@@ -47424,7 +47424,7 @@
         <v>1322</v>
       </c>
       <c r="F1634" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1635" spans="1:6">
@@ -47479,7 +47479,7 @@
         <v>1323</v>
       </c>
       <c r="F1639" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1640" spans="1:6">
@@ -47490,7 +47490,7 @@
         <v>1323</v>
       </c>
       <c r="F1640" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1641" spans="1:6">
@@ -47677,7 +47677,7 @@
         <v>1330</v>
       </c>
       <c r="F1657" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1658" spans="1:6">
@@ -47688,7 +47688,7 @@
         <v>1330</v>
       </c>
       <c r="F1658" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1659" spans="1:6">
@@ -48007,7 +48007,7 @@
         <v>1340</v>
       </c>
       <c r="F1687" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1688" spans="1:6">
@@ -48018,7 +48018,7 @@
         <v>1340</v>
       </c>
       <c r="F1688" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -50782,7 +50782,7 @@
         <v>2015</v>
       </c>
       <c r="B2017" s="85" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F2017" s="85" t="s">
         <v>1130</v>
@@ -50793,7 +50793,7 @@
         <v>2016</v>
       </c>
       <c r="B2018" s="85" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2018" s="85" t="s">
         <v>1356</v>
@@ -50815,7 +50815,7 @@
         <v>2018</v>
       </c>
       <c r="B2020" s="85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F2020" s="85" t="s">
         <v>1358</v>
@@ -50826,7 +50826,7 @@
         <v>2019</v>
       </c>
       <c r="B2021" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F2021" s="85" t="s">
         <v>1359</v>
@@ -50870,7 +50870,7 @@
         <v>2023</v>
       </c>
       <c r="B2025" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F2025" s="85" t="s">
         <v>1358</v>
@@ -50914,7 +50914,7 @@
         <v>2027</v>
       </c>
       <c r="B2029" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2029" s="85" t="s">
         <v>1363</v>
@@ -50947,7 +50947,7 @@
         <v>2030</v>
       </c>
       <c r="B2032" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2032" s="85" t="s">
         <v>1360</v>
@@ -50991,7 +50991,7 @@
         <v>2034</v>
       </c>
       <c r="B2036" s="85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F2036" s="85" t="s">
         <v>1365</v>
@@ -51002,7 +51002,7 @@
         <v>2035</v>
       </c>
       <c r="B2037" s="85" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="F2037" s="85" t="s">
         <v>1366</v>
@@ -51024,7 +51024,7 @@
         <v>2037</v>
       </c>
       <c r="B2039" s="85" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="F2039" s="85" t="s">
         <v>1366</v>
@@ -51057,7 +51057,7 @@
         <v>2040</v>
       </c>
       <c r="B2042" s="85" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="F2042" s="85" t="s">
         <v>1368</v>
@@ -51079,7 +51079,7 @@
         <v>2042</v>
       </c>
       <c r="B2044" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F2044" s="85" t="s">
         <v>1369</v>
@@ -51090,7 +51090,7 @@
         <v>2043</v>
       </c>
       <c r="B2045" s="85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F2045" s="85" t="s">
         <v>1361</v>
@@ -51101,7 +51101,7 @@
         <v>2044</v>
       </c>
       <c r="B2046" s="85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2046" s="85" t="s">
         <v>1369</v>
@@ -51200,7 +51200,7 @@
         <v>2053</v>
       </c>
       <c r="B2055" s="85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2055" s="85" t="s">
         <v>1368</v>
@@ -51211,7 +51211,7 @@
         <v>2054</v>
       </c>
       <c r="B2056" s="85" t="s">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="F2056" s="85" t="s">
         <v>1372</v>
@@ -51222,7 +51222,7 @@
         <v>2055</v>
       </c>
       <c r="B2057" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F2057" s="85" t="s">
         <v>1359</v>
@@ -51233,7 +51233,7 @@
         <v>2056</v>
       </c>
       <c r="B2058" s="85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2058" s="85" t="s">
         <v>1360</v>
@@ -51277,7 +51277,7 @@
         <v>2060</v>
       </c>
       <c r="B2062" s="85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2062" s="85" t="s">
         <v>1363</v>
@@ -52408,7 +52408,7 @@
         <v>2201</v>
       </c>
       <c r="B2203" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2203" s="85" t="s">
         <v>486</v>
@@ -52419,7 +52419,7 @@
         <v>2202</v>
       </c>
       <c r="B2204" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2204" s="85" t="s">
         <v>400</v>
@@ -52430,7 +52430,7 @@
         <v>2203</v>
       </c>
       <c r="B2205" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2205" s="85" t="s">
         <v>369</v>
@@ -52441,7 +52441,7 @@
         <v>2204</v>
       </c>
       <c r="B2206" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2206" s="85" t="s">
         <v>1356</v>
@@ -52452,7 +52452,7 @@
         <v>2205</v>
       </c>
       <c r="B2207" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2207" s="85" t="s">
         <v>1130</v>
@@ -52463,7 +52463,7 @@
         <v>2206</v>
       </c>
       <c r="B2208" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2208" s="85" t="s">
         <v>1375</v>
@@ -52474,7 +52474,7 @@
         <v>2207</v>
       </c>
       <c r="B2209" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2209" s="85" t="s">
         <v>1376</v>
@@ -52485,7 +52485,7 @@
         <v>2208</v>
       </c>
       <c r="B2210" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2210" s="85" t="s">
         <v>1377</v>
@@ -52496,7 +52496,7 @@
         <v>2209</v>
       </c>
       <c r="B2211" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2211" s="85" t="s">
         <v>1378</v>
@@ -52507,7 +52507,7 @@
         <v>2210</v>
       </c>
       <c r="B2212" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2212" s="85" t="s">
         <v>1379</v>
@@ -52518,7 +52518,7 @@
         <v>2211</v>
       </c>
       <c r="B2213" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2213" s="85" t="s">
         <v>1353</v>
@@ -52529,7 +52529,7 @@
         <v>2212</v>
       </c>
       <c r="B2214" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2214" s="85" t="s">
         <v>1380</v>
@@ -52540,7 +52540,7 @@
         <v>2213</v>
       </c>
       <c r="B2215" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2215" s="85" t="s">
         <v>1354</v>
@@ -52551,7 +52551,7 @@
         <v>2214</v>
       </c>
       <c r="B2216" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2216" s="85" t="s">
         <v>1381</v>
@@ -52562,7 +52562,7 @@
         <v>2215</v>
       </c>
       <c r="B2217" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2217" s="85" t="s">
         <v>1382</v>
@@ -52573,7 +52573,7 @@
         <v>2216</v>
       </c>
       <c r="B2218" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2218" s="85" t="s">
         <v>1383</v>
@@ -52584,7 +52584,7 @@
         <v>2217</v>
       </c>
       <c r="B2219" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2219" s="85" t="s">
         <v>1384</v>
@@ -52595,7 +52595,7 @@
         <v>2218</v>
       </c>
       <c r="B2220" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2220" s="85" t="s">
         <v>1385</v>
@@ -52606,7 +52606,7 @@
         <v>2219</v>
       </c>
       <c r="B2221" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2221" s="85" t="s">
         <v>1358</v>
@@ -52617,7 +52617,7 @@
         <v>2220</v>
       </c>
       <c r="B2222" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2222" s="85" t="s">
         <v>1362</v>
@@ -52628,7 +52628,7 @@
         <v>2221</v>
       </c>
       <c r="B2223" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2223" s="85" t="s">
         <v>1360</v>
@@ -52639,7 +52639,7 @@
         <v>2222</v>
       </c>
       <c r="B2224" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2224" s="85" t="s">
         <v>1361</v>
@@ -52650,7 +52650,7 @@
         <v>2223</v>
       </c>
       <c r="B2225" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2225" s="85" t="s">
         <v>1386</v>
@@ -52661,7 +52661,7 @@
         <v>2224</v>
       </c>
       <c r="B2226" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2226" s="85" t="s">
         <v>1387</v>
@@ -52672,7 +52672,7 @@
         <v>2225</v>
       </c>
       <c r="B2227" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2227" s="85" t="s">
         <v>1373</v>
@@ -52683,7 +52683,7 @@
         <v>2226</v>
       </c>
       <c r="B2228" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2228" s="85" t="s">
         <v>1388</v>
@@ -52694,7 +52694,7 @@
         <v>2227</v>
       </c>
       <c r="B2229" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2229" s="85" t="s">
         <v>1389</v>
@@ -52705,7 +52705,7 @@
         <v>2228</v>
       </c>
       <c r="B2230" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2230" s="85" t="s">
         <v>1364</v>
@@ -52716,7 +52716,7 @@
         <v>2229</v>
       </c>
       <c r="B2231" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2231" s="85" t="s">
         <v>1390</v>
@@ -52727,7 +52727,7 @@
         <v>2230</v>
       </c>
       <c r="B2232" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2232" s="85" t="s">
         <v>1391</v>
@@ -52738,7 +52738,7 @@
         <v>2231</v>
       </c>
       <c r="B2233" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2233" s="85" t="s">
         <v>1357</v>
@@ -52749,7 +52749,7 @@
         <v>2232</v>
       </c>
       <c r="B2234" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2234" s="85" t="s">
         <v>1392</v>
@@ -52760,7 +52760,7 @@
         <v>2233</v>
       </c>
       <c r="B2235" s="85" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F2235" s="85" t="s">
         <v>1393</v>
@@ -52771,7 +52771,7 @@
         <v>2234</v>
       </c>
       <c r="B2236" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2236" s="85" t="s">
         <v>1369</v>
@@ -52782,7 +52782,7 @@
         <v>2235</v>
       </c>
       <c r="B2237" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2237" s="85" t="s">
         <v>1394</v>
@@ -52793,7 +52793,7 @@
         <v>2236</v>
       </c>
       <c r="B2238" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2238" s="85" t="s">
         <v>1370</v>
@@ -52804,7 +52804,7 @@
         <v>2237</v>
       </c>
       <c r="B2239" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2239" s="85" t="s">
         <v>1350</v>
@@ -52815,7 +52815,7 @@
         <v>2238</v>
       </c>
       <c r="B2240" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2240" s="85" t="s">
         <v>1395</v>
@@ -52826,7 +52826,7 @@
         <v>2239</v>
       </c>
       <c r="B2241" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2241" s="85" t="s">
         <v>1396</v>
@@ -52837,7 +52837,7 @@
         <v>2240</v>
       </c>
       <c r="B2242" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2242" s="85" t="s">
         <v>1397</v>
@@ -52848,7 +52848,7 @@
         <v>2241</v>
       </c>
       <c r="B2243" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2243" s="85" t="s">
         <v>1374</v>
@@ -52859,7 +52859,7 @@
         <v>2242</v>
       </c>
       <c r="B2244" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2244" s="85" t="s">
         <v>1398</v>
@@ -52870,7 +52870,7 @@
         <v>2243</v>
       </c>
       <c r="B2245" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2245" s="85" t="s">
         <v>1399</v>
@@ -52881,7 +52881,7 @@
         <v>2244</v>
       </c>
       <c r="B2246" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2246" s="85" t="s">
         <v>1400</v>
@@ -52892,7 +52892,7 @@
         <v>2245</v>
       </c>
       <c r="B2247" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2247" s="85" t="s">
         <v>1401</v>
@@ -52903,7 +52903,7 @@
         <v>2246</v>
       </c>
       <c r="B2248" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2248" s="85" t="s">
         <v>1402</v>
@@ -52914,7 +52914,7 @@
         <v>2247</v>
       </c>
       <c r="B2249" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2249" s="85" t="s">
         <v>1403</v>
@@ -52925,7 +52925,7 @@
         <v>2248</v>
       </c>
       <c r="B2250" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2250" s="85" t="s">
         <v>1349</v>
@@ -52936,7 +52936,7 @@
         <v>2249</v>
       </c>
       <c r="B2251" s="85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2251" s="85" t="s">
         <v>1404</v>
@@ -52947,7 +52947,7 @@
         <v>2250</v>
       </c>
       <c r="B2252" s="85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2252" s="85" t="s">
         <v>1405</v>
@@ -52958,7 +52958,7 @@
         <v>2251</v>
       </c>
       <c r="B2253" s="85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2253" s="85" t="s">
         <v>1372</v>
@@ -52969,7 +52969,7 @@
         <v>2252</v>
       </c>
       <c r="B2254" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2254" s="85" t="s">
         <v>1406</v>
@@ -52980,7 +52980,7 @@
         <v>2253</v>
       </c>
       <c r="B2255" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2255" s="85" t="s">
         <v>1407</v>
@@ -52991,7 +52991,7 @@
         <v>2254</v>
       </c>
       <c r="B2256" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2256" s="85" t="s">
         <v>1363</v>
@@ -53002,7 +53002,7 @@
         <v>2255</v>
       </c>
       <c r="B2257" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2257" s="85" t="s">
         <v>1408</v>
@@ -53013,7 +53013,7 @@
         <v>2256</v>
       </c>
       <c r="B2258" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2258" s="85" t="s">
         <v>1409</v>
@@ -53024,7 +53024,7 @@
         <v>2257</v>
       </c>
       <c r="B2259" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2259" s="85" t="s">
         <v>1410</v>
@@ -53035,7 +53035,7 @@
         <v>2258</v>
       </c>
       <c r="B2260" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F2260" s="85" t="s">
         <v>1367</v>
@@ -53046,7 +53046,7 @@
         <v>2259</v>
       </c>
       <c r="B2261" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F2261" s="85" t="s">
         <v>1365</v>
@@ -53057,7 +53057,7 @@
         <v>2260</v>
       </c>
       <c r="B2262" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F2262" s="85" t="s">
         <v>1411</v>
@@ -53068,7 +53068,7 @@
         <v>2261</v>
       </c>
       <c r="B2263" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2263" s="85" t="s">
         <v>1412</v>
@@ -53079,7 +53079,7 @@
         <v>2262</v>
       </c>
       <c r="B2264" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2264" s="85" t="s">
         <v>1413</v>
@@ -53090,7 +53090,7 @@
         <v>2263</v>
       </c>
       <c r="B2265" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2265" s="85" t="s">
         <v>1348</v>
@@ -53101,7 +53101,7 @@
         <v>2264</v>
       </c>
       <c r="B2266" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2266" s="85" t="s">
         <v>1414</v>
@@ -53112,7 +53112,7 @@
         <v>2265</v>
       </c>
       <c r="B2267" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2267" s="85" t="s">
         <v>1415</v>
@@ -53123,7 +53123,7 @@
         <v>2266</v>
       </c>
       <c r="B2268" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2268" s="85" t="s">
         <v>1366</v>
@@ -53134,7 +53134,7 @@
         <v>2267</v>
       </c>
       <c r="B2269" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2269" s="85" t="s">
         <v>1416</v>
@@ -53145,7 +53145,7 @@
         <v>2268</v>
       </c>
       <c r="B2270" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2270" s="85" t="s">
         <v>1417</v>
@@ -53156,7 +53156,7 @@
         <v>2269</v>
       </c>
       <c r="B2271" s="85" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2271" s="85" t="s">
         <v>1418</v>
@@ -53167,7 +53167,7 @@
         <v>2270</v>
       </c>
       <c r="B2272" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2272" s="85" t="s">
         <v>1355</v>
@@ -53178,7 +53178,7 @@
         <v>2271</v>
       </c>
       <c r="B2273" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2273" s="85" t="s">
         <v>1419</v>
@@ -53189,7 +53189,7 @@
         <v>2272</v>
       </c>
       <c r="B2274" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2274" s="85" t="s">
         <v>1420</v>
@@ -53200,7 +53200,7 @@
         <v>2273</v>
       </c>
       <c r="B2275" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2275" s="85" t="s">
         <v>1359</v>
@@ -53211,7 +53211,7 @@
         <v>2274</v>
       </c>
       <c r="B2276" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2276" s="85" t="s">
         <v>1421</v>
@@ -53222,7 +53222,7 @@
         <v>2275</v>
       </c>
       <c r="B2277" s="85" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F2277" s="85" t="s">
         <v>1351</v>
@@ -53233,7 +53233,7 @@
         <v>2276</v>
       </c>
       <c r="B2278" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2278" s="85" t="s">
         <v>1368</v>
@@ -53244,7 +53244,7 @@
         <v>2277</v>
       </c>
       <c r="B2279" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2279" s="85" t="s">
         <v>1422</v>
@@ -53255,7 +53255,7 @@
         <v>2278</v>
       </c>
       <c r="B2280" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2280" s="85" t="s">
         <v>1423</v>
@@ -53266,7 +53266,7 @@
         <v>2279</v>
       </c>
       <c r="B2281" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2281" s="85" t="s">
         <v>1424</v>
@@ -53277,7 +53277,7 @@
         <v>2280</v>
       </c>
       <c r="B2282" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2282" s="85" t="s">
         <v>1425</v>
@@ -53288,7 +53288,7 @@
         <v>2281</v>
       </c>
       <c r="B2283" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2283" s="85" t="s">
         <v>1352</v>
@@ -53299,7 +53299,7 @@
         <v>2282</v>
       </c>
       <c r="B2284" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2284" s="85" t="s">
         <v>1371</v>
@@ -53310,7 +53310,7 @@
         <v>2283</v>
       </c>
       <c r="B2285" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2285" s="85" t="s">
         <v>1426</v>
@@ -53321,7 +53321,7 @@
         <v>2284</v>
       </c>
       <c r="B2286" s="85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F2286" s="85" t="s">
         <v>1343</v>
@@ -53332,7 +53332,7 @@
         <v>2285</v>
       </c>
       <c r="B2287" s="85" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F2287" s="85" t="s">
         <v>1344</v>
@@ -54263,7 +54263,7 @@
         <v>2401</v>
       </c>
       <c r="B2403" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2403" s="85" t="s">
         <v>593</v>
@@ -54274,7 +54274,7 @@
         <v>2402</v>
       </c>
       <c r="B2404" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2404" s="85" t="s">
         <v>593</v>
@@ -54285,7 +54285,7 @@
         <v>2403</v>
       </c>
       <c r="B2405" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2405" s="85" t="s">
         <v>593</v>
@@ -54296,7 +54296,7 @@
         <v>2404</v>
       </c>
       <c r="B2406" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2406" s="85" t="s">
         <v>593</v>
@@ -54307,7 +54307,7 @@
         <v>2405</v>
       </c>
       <c r="B2407" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2407" s="85" t="s">
         <v>249</v>
@@ -54318,7 +54318,7 @@
         <v>2406</v>
       </c>
       <c r="B2408" s="85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2408" s="85" t="s">
         <v>249</v>
@@ -54329,7 +54329,7 @@
         <v>2407</v>
       </c>
       <c r="B2409" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2409" s="85" t="s">
         <v>1024</v>
@@ -54340,7 +54340,7 @@
         <v>2408</v>
       </c>
       <c r="B2410" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2410" s="85" t="s">
         <v>1024</v>
@@ -54351,7 +54351,7 @@
         <v>2409</v>
       </c>
       <c r="B2411" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2411" s="85" t="s">
         <v>1024</v>
@@ -54362,7 +54362,7 @@
         <v>2410</v>
       </c>
       <c r="B2412" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2412" s="85" t="s">
         <v>1024</v>
@@ -54373,7 +54373,7 @@
         <v>2411</v>
       </c>
       <c r="B2413" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2413" s="85" t="s">
         <v>1123</v>
@@ -54384,7 +54384,7 @@
         <v>2412</v>
       </c>
       <c r="B2414" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2414" s="85" t="s">
         <v>1123</v>
@@ -54395,7 +54395,7 @@
         <v>2413</v>
       </c>
       <c r="B2415" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2415" s="85" t="s">
         <v>337</v>
@@ -54406,7 +54406,7 @@
         <v>2414</v>
       </c>
       <c r="B2416" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2416" s="85" t="s">
         <v>337</v>
@@ -54417,7 +54417,7 @@
         <v>2415</v>
       </c>
       <c r="B2417" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2417" s="85" t="s">
         <v>337</v>
@@ -54428,7 +54428,7 @@
         <v>2416</v>
       </c>
       <c r="B2418" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2418" s="85" t="s">
         <v>337</v>
@@ -54439,7 +54439,7 @@
         <v>2417</v>
       </c>
       <c r="B2419" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2419" s="85" t="s">
         <v>697</v>
@@ -54450,7 +54450,7 @@
         <v>2418</v>
       </c>
       <c r="B2420" s="85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2420" s="85" t="s">
         <v>697</v>
@@ -54461,7 +54461,7 @@
         <v>2419</v>
       </c>
       <c r="B2421" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2421" s="85" t="s">
         <v>462</v>
@@ -54472,7 +54472,7 @@
         <v>2420</v>
       </c>
       <c r="B2422" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2422" s="85" t="s">
         <v>462</v>
@@ -54483,7 +54483,7 @@
         <v>2421</v>
       </c>
       <c r="B2423" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2423" s="85" t="s">
         <v>462</v>
@@ -54494,7 +54494,7 @@
         <v>2422</v>
       </c>
       <c r="B2424" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2424" s="85" t="s">
         <v>462</v>
@@ -54505,7 +54505,7 @@
         <v>2423</v>
       </c>
       <c r="B2425" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2425" s="85" t="s">
         <v>1127</v>
@@ -54516,7 +54516,7 @@
         <v>2424</v>
       </c>
       <c r="B2426" s="85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F2426" s="85" t="s">
         <v>1127</v>
@@ -54527,7 +54527,7 @@
         <v>2425</v>
       </c>
       <c r="B2427" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2427" s="85" t="s">
         <v>395</v>
@@ -54538,7 +54538,7 @@
         <v>2426</v>
       </c>
       <c r="B2428" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2428" s="85" t="s">
         <v>395</v>
@@ -54549,7 +54549,7 @@
         <v>2427</v>
       </c>
       <c r="B2429" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2429" s="85" t="s">
         <v>395</v>
@@ -54560,7 +54560,7 @@
         <v>2428</v>
       </c>
       <c r="B2430" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2430" s="85" t="s">
         <v>395</v>
@@ -54571,7 +54571,7 @@
         <v>2429</v>
       </c>
       <c r="B2431" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2431" s="85" t="s">
         <v>259</v>
@@ -54582,7 +54582,7 @@
         <v>2430</v>
       </c>
       <c r="B2432" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2432" s="85" t="s">
         <v>259</v>
@@ -54593,7 +54593,7 @@
         <v>2431</v>
       </c>
       <c r="B2433" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2433" s="85" t="s">
         <v>1204</v>
@@ -54604,7 +54604,7 @@
         <v>2432</v>
       </c>
       <c r="B2434" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2434" s="85" t="s">
         <v>1204</v>
@@ -54615,7 +54615,7 @@
         <v>2433</v>
       </c>
       <c r="B2435" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2435" s="85" t="s">
         <v>1204</v>
@@ -54626,7 +54626,7 @@
         <v>2434</v>
       </c>
       <c r="B2436" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2436" s="85" t="s">
         <v>1204</v>
@@ -54637,7 +54637,7 @@
         <v>2435</v>
       </c>
       <c r="B2437" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2437" s="85" t="s">
         <v>1205</v>
@@ -54648,7 +54648,7 @@
         <v>2436</v>
       </c>
       <c r="B2438" s="85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2438" s="85" t="s">
         <v>1205</v>
@@ -54659,7 +54659,7 @@
         <v>2437</v>
       </c>
       <c r="B2439" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2439" s="85" t="s">
         <v>424</v>
@@ -54670,7 +54670,7 @@
         <v>2438</v>
       </c>
       <c r="B2440" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2440" s="85" t="s">
         <v>424</v>
@@ -54681,7 +54681,7 @@
         <v>2439</v>
       </c>
       <c r="B2441" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2441" s="85" t="s">
         <v>424</v>
@@ -54692,7 +54692,7 @@
         <v>2440</v>
       </c>
       <c r="B2442" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2442" s="85" t="s">
         <v>424</v>
@@ -54703,7 +54703,7 @@
         <v>2441</v>
       </c>
       <c r="B2443" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2443" s="85" t="s">
         <v>278</v>
@@ -54714,7 +54714,7 @@
         <v>2442</v>
       </c>
       <c r="B2444" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2444" s="85" t="s">
         <v>278</v>
@@ -54725,7 +54725,7 @@
         <v>2443</v>
       </c>
       <c r="B2445" s="85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2445" s="85" t="s">
         <v>410</v>
@@ -54736,7 +54736,7 @@
         <v>2444</v>
       </c>
       <c r="B2446" s="85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2446" s="85" t="s">
         <v>410</v>
@@ -54747,7 +54747,7 @@
         <v>2445</v>
       </c>
       <c r="B2447" s="85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2447" s="85" t="s">
         <v>410</v>
@@ -54758,7 +54758,7 @@
         <v>2446</v>
       </c>
       <c r="B2448" s="85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2448" s="85" t="s">
         <v>410</v>
@@ -54769,7 +54769,7 @@
         <v>2447</v>
       </c>
       <c r="B2449" s="85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2449" s="85" t="s">
         <v>388</v>
@@ -54780,7 +54780,7 @@
         <v>2448</v>
       </c>
       <c r="B2450" s="85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2450" s="85" t="s">
         <v>388</v>
@@ -54791,7 +54791,7 @@
         <v>2449</v>
       </c>
       <c r="B2451" s="85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2451" s="85" t="s">
         <v>391</v>
@@ -54802,7 +54802,7 @@
         <v>2450</v>
       </c>
       <c r="B2452" s="85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2452" s="85" t="s">
         <v>391</v>
@@ -54813,7 +54813,7 @@
         <v>2451</v>
       </c>
       <c r="B2453" s="85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2453" s="85" t="s">
         <v>391</v>
@@ -54824,7 +54824,7 @@
         <v>2452</v>
       </c>
       <c r="B2454" s="85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2454" s="85" t="s">
         <v>391</v>
@@ -54835,7 +54835,7 @@
         <v>2453</v>
       </c>
       <c r="B2455" s="85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2455" s="85" t="s">
         <v>286</v>
@@ -54846,7 +54846,7 @@
         <v>2454</v>
       </c>
       <c r="B2456" s="85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2456" s="85" t="s">
         <v>286</v>
@@ -54857,7 +54857,7 @@
         <v>2455</v>
       </c>
       <c r="B2457" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2457" s="85" t="s">
         <v>455</v>
@@ -54868,7 +54868,7 @@
         <v>2456</v>
       </c>
       <c r="B2458" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2458" s="85" t="s">
         <v>455</v>
@@ -54879,7 +54879,7 @@
         <v>2457</v>
       </c>
       <c r="B2459" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2459" s="85" t="s">
         <v>455</v>
@@ -54890,7 +54890,7 @@
         <v>2458</v>
       </c>
       <c r="B2460" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2460" s="85" t="s">
         <v>455</v>
@@ -54901,7 +54901,7 @@
         <v>2459</v>
       </c>
       <c r="B2461" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2461" s="85" t="s">
         <v>271</v>
@@ -54912,7 +54912,7 @@
         <v>2460</v>
       </c>
       <c r="B2462" s="85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2462" s="85" t="s">
         <v>271</v>
@@ -56660,7 +56660,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J6" s="75" t="s">
         <v>1452</v>
@@ -56689,7 +56689,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J7" s="75" t="s">
         <v>1249</v>
@@ -56835,13 +56835,13 @@
         <v>11</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G12" s="77">
         <v>2</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="J12" s="75" t="s">
         <v>1471</v>
@@ -56850,7 +56850,7 @@
         <v>1472</v>
       </c>
       <c r="M12" s="75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="4:13">
@@ -56879,7 +56879,7 @@
         <v>1475</v>
       </c>
       <c r="M13" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="3:13">
@@ -56906,7 +56906,7 @@
         <v>1479</v>
       </c>
       <c r="M14" s="75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="3:13">
@@ -56920,7 +56920,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" s="77"/>
       <c r="H15" s="75" t="s">
@@ -56933,7 +56933,7 @@
         <v>1482</v>
       </c>
       <c r="M15" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="3:13">
@@ -56963,12 +56963,12 @@
         <v>1485</v>
       </c>
       <c r="M16" s="75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="3:13">
       <c r="C17" s="75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="75">
         <v>17</v>
@@ -56981,7 +56981,7 @@
       </c>
       <c r="G17" s="77"/>
       <c r="H17" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I17" s="75" t="s">
         <v>1486</v>
@@ -56993,7 +56993,7 @@
         <v>1453</v>
       </c>
       <c r="M17" s="75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="3:13">
@@ -57066,7 +57066,7 @@
         <v>1498</v>
       </c>
       <c r="H20" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J20" s="75" t="s">
         <v>1499</v>
@@ -57131,7 +57131,7 @@
     </row>
     <row r="30" spans="6:13">
       <c r="F30" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G30" s="77"/>
       <c r="H30" s="75" t="s">
@@ -57156,7 +57156,7 @@
         <v>1509</v>
       </c>
       <c r="M31" s="75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="10:10">

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="2"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -408,7 +408,7 @@
     <t>限定军团</t>
   </si>
   <si>
-    <t>挑战星级</t>
+    <t>挑战</t>
   </si>
   <si>
     <t>通关奖励</t>
@@ -432,8 +432,8 @@
     <t>刘备1</t>
   </si>
   <si>
-    <t>第4关星级：1
-第7关星级：1</t>
+    <t>第4关：1
+第7关：1</t>
   </si>
   <si>
     <t>赵云</t>
@@ -452,8 +452,8 @@
     <t>刘备2</t>
   </si>
   <si>
-    <t>第4关星级：2
-第7关星级：2</t>
+    <t>第4关：2
+第7关：2</t>
   </si>
   <si>
     <t>马超</t>
@@ -504,8 +504,8 @@
     <t>刘备3</t>
   </si>
   <si>
-    <t>第4关星级：3
-第7关星级：3</t>
+    <t>第4关：3
+第7关：3</t>
   </si>
   <si>
     <t>张飞</t>
@@ -540,8 +540,8 @@
     <t>曹操4</t>
   </si>
   <si>
-    <t>第4关星级：4
-第7关星级：4</t>
+    <t>第4关：4
+第7关：4</t>
   </si>
   <si>
     <t>郭嘉</t>
@@ -560,8 +560,8 @@
     <t>曹操5</t>
   </si>
   <si>
-    <t>第4关星级：5
-第7关星级：5</t>
+    <t>第4关：5
+第7关：5</t>
   </si>
   <si>
     <t>张辽</t>
@@ -639,8 +639,8 @@
     <t>刘备5</t>
   </si>
   <si>
-    <t>第4关星级：6
-第7关星级：6</t>
+    <t>第4关：6
+第7关：6</t>
   </si>
   <si>
     <t>黄忠</t>
@@ -656,8 +656,8 @@
     <t>刘备6</t>
   </si>
   <si>
-    <t>第4关星级：7
-第7关星级：7</t>
+    <t>第4关：7
+第7关：7</t>
   </si>
   <si>
     <t>魏延</t>
@@ -4646,10 +4646,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -4720,11 +4720,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4737,7 +4743,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4751,22 +4764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -4775,14 +4772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4791,36 +4781,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4842,11 +4802,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4857,8 +4849,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4951,7 +4951,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4963,7 +4999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4975,19 +5011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4999,7 +5023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5011,13 +5047,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5029,7 +5071,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5041,13 +5089,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5059,79 +5131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5394,24 +5394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5423,26 +5405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5477,6 +5439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5491,6 +5462,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5499,10 +5499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5511,133 +5511,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29045,11 +29045,11 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4670,10 +4670,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -4744,13 +4744,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -4759,8 +4752,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4774,7 +4768,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4782,17 +4783,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4810,23 +4811,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4842,17 +4829,40 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4864,25 +4874,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4975,7 +4975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4987,7 +4987,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5005,97 +5113,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5107,19 +5125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5137,19 +5143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5418,6 +5418,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5448,6 +5483,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5466,52 +5510,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5523,10 +5523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5535,133 +5535,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11524,16 +11524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11550,8 +11550,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610100" y="3806190"/>
+          <a:off x="4213860" y="4827270"/>
           <a:ext cx="3726180" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4183380" y="3806190"/>
+          <a:ext cx="3048000" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14762,8 +14804,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -29577,7 +29619,7 @@
   <sheetPr/>
   <dimension ref="A2:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:A26"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="9"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4670,10 +4670,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -4746,14 +4746,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4761,7 +4753,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4774,31 +4766,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4811,11 +4789,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4835,13 +4834,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4850,17 +4842,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4874,15 +4857,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4981,13 +4981,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4999,7 +5029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5011,7 +5047,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5023,37 +5095,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5065,19 +5119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5095,31 +5137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5131,31 +5149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5433,26 +5433,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -5464,6 +5444,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5486,8 +5475,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5509,9 +5498,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5523,10 +5523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5535,19 +5535,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5556,112 +5556,112 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14804,7 +14804,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -29110,12 +29110,12 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -29403,7 +29403,7 @@
         <v>172</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F10" s="96" t="s">
         <v>173</v>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="8" activeTab="27"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" firstSheet="7" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="战役" sheetId="4" r:id="rId1"/>
@@ -4626,7 +4626,7 @@
     <t>火墙</t>
   </si>
   <si>
-    <t>司马6</t>
+    <t>司马8</t>
   </si>
   <si>
     <t>毒谭、蛮族</t>
@@ -10842,20 +10842,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10868,49 +10868,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="3512820"/>
-          <a:ext cx="1432560" cy="2430780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2148840" y="3573780"/>
+          <a:off x="3535680" y="3589020"/>
           <a:ext cx="3025140" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10945,7 +10903,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10987,7 +10945,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11029,7 +10987,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11071,7 +11029,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11113,7 +11071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11122,6 +11080,48 @@
         <a:xfrm>
           <a:off x="8557260" y="1882140"/>
           <a:ext cx="2035175" cy="4434840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>461645</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="2476500"/>
+          <a:ext cx="2312670" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27919,7 +27919,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -28537,8 +28537,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -57116,8 +57116,8 @@
   <sheetPr/>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5198" uniqueCount="1584">
   <si>
     <t>起始</t>
   </si>
@@ -4711,7 +4711,7 @@
     <t>拒马、白马</t>
   </si>
   <si>
-    <t>袁绍5</t>
+    <t>袁绍4</t>
   </si>
   <si>
     <t>下邳</t>
@@ -4744,6 +4744,9 @@
     <t>箭楼、营寨</t>
   </si>
   <si>
+    <t>童渊</t>
+  </si>
+  <si>
     <t>赵云、童渊、张任、张绣</t>
   </si>
   <si>
@@ -4808,6 +4811,9 @@
   </si>
   <si>
     <t>军师、大盾</t>
+  </si>
+  <si>
+    <t>夏侯</t>
   </si>
   <si>
     <t>曹操、曹冲、夏侯惇、夏侯渊</t>
@@ -6256,6 +6262,15 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -12276,48 +12291,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6172200" y="3657600"/>
-          <a:ext cx="2484120" cy="624840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -12337,7 +12310,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -12346,6 +12319,48 @@
         <a:xfrm>
           <a:off x="9258300" y="0"/>
           <a:ext cx="2034540" cy="4434840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107315</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6088380" y="3634740"/>
+          <a:ext cx="2660015" cy="640080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12796,15 +12811,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12821,8 +12836,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5859780" y="3840480"/>
+          <a:off x="5661660" y="4160520"/>
           <a:ext cx="2506980" cy="1005840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5554980" y="3657600"/>
+          <a:ext cx="2514600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15584,9 +15641,9 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -16026,7 +16083,7 @@
       </c>
       <c r="G14" s="78"/>
       <c r="H14" s="75" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="J14" s="75" t="s">
         <v>1519</v>
@@ -16236,6 +16293,9 @@
     </row>
     <row r="22" ht="16.2" spans="5:13">
       <c r="E22" s="79"/>
+      <c r="H22" s="75" t="s">
+        <v>732</v>
+      </c>
       <c r="I22" s="75" t="s">
         <v>1547</v>
       </c>
@@ -16249,26 +16309,32 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="9:13">
+    <row r="23" spans="8:13">
+      <c r="H23" s="75" t="s">
+        <v>1549</v>
+      </c>
       <c r="I23" s="75" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J23" s="75" t="s">
         <v>1280</v>
       </c>
       <c r="K23" s="75" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="M23" s="75" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="9:13">
+    <row r="24" spans="8:13">
+      <c r="H24" s="75" t="s">
+        <v>361</v>
+      </c>
       <c r="I24" s="75" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="J24" s="75" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="K24" s="75" t="s">
         <v>1481</v>
@@ -16277,29 +16343,35 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="9:13">
+    <row r="25" spans="8:13">
+      <c r="H25" s="75" t="s">
+        <v>447</v>
+      </c>
       <c r="I25" s="75" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J25" s="75" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="K25" s="75" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="M25" s="75" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="26" spans="9:13">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="26" spans="8:13">
+      <c r="H26" s="75" t="s">
+        <v>506</v>
+      </c>
       <c r="I26" s="75" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J26" s="75" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="K26" s="75" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="M26" s="75" t="s">
         <v>375</v>
@@ -16307,13 +16379,16 @@
     </row>
     <row r="27" spans="6:13">
       <c r="F27" s="75" t="s">
-        <v>1560</v>
+        <v>1561</v>
+      </c>
+      <c r="H27" s="75" t="s">
+        <v>179</v>
       </c>
       <c r="I27" s="75" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="J27" s="75" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="K27" s="75" t="s">
         <v>1481</v>
@@ -16322,51 +16397,63 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="9:13">
+    <row r="28" spans="8:13">
+      <c r="H28" s="75" t="s">
+        <v>794</v>
+      </c>
       <c r="I28" s="75" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="J28" s="75" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="K28" s="75" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="M28" s="75" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="9:13">
+    <row r="29" spans="8:13">
+      <c r="H29" s="75" t="s">
+        <v>507</v>
+      </c>
       <c r="I29" s="75" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="J29" s="75" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="K29" s="75" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="M29" s="75" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="9:13">
+    <row r="30" spans="8:13">
+      <c r="H30" s="75" t="s">
+        <v>289</v>
+      </c>
       <c r="I30" s="75" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="J30" s="75" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="M30" s="75" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="31" spans="9:13">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="31" spans="8:13">
+      <c r="H31" s="75" t="s">
+        <v>1572</v>
+      </c>
       <c r="I31" s="75" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="J31" s="75" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="K31" s="75" t="s">
         <v>265</v>
@@ -16381,25 +16468,25 @@
       </c>
       <c r="G34" s="78"/>
       <c r="H34" s="75" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="J34" s="75" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="35" spans="6:11">
       <c r="F35" s="78" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="G35" s="78"/>
       <c r="I35" s="75" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="J35" s="75" t="s">
         <v>1343</v>
       </c>
       <c r="K35" s="75" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="37" spans="10:10">
@@ -16433,6 +16520,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -17907,14 +17997,14 @@
         <v>狼骑2</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑2</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -17925,14 +18015,14 @@
         <v>狼骑2</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑2</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -18521,14 +18611,14 @@
         <v>先登1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车2</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -18539,14 +18629,14 @@
         <v>先登1</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车3</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -20023,14 +20113,14 @@
         <v>刺客1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>刺客1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="F17" s="7" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -20041,14 +20131,14 @@
         <v>刺客1</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="K17" s="26" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
         <v>刺客1</v>
       </c>
       <c r="L17" s="53" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="M17" s="7" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
@@ -21573,14 +21663,14 @@
         <v>连弩1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>连弩1</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -21591,14 +21681,14 @@
         <v>连弩2</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>连弩2</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -21787,38 +21877,38 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C15" s="7" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="J15" s="7" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -21859,14 +21949,14 @@
         <v>统帅2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D17" s="12" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="F17" s="12" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -21877,14 +21967,14 @@
         <v>统帅2</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="K17" s="12" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="M17" s="12" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
@@ -24611,14 +24701,14 @@
         <v>艨艟2</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>艨艟1</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -24629,14 +24719,14 @@
         <v>艨艟3</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>艨艟2</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="M9" s="26" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25295,38 +25385,38 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C11" s="7" t="str">
         <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="J11" s="7" t="str">
         <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="L11" s="7" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
         <v>飞骑1</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -25696,11 +25786,11 @@
         <v>器械1</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="34" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
@@ -25711,11 +25801,11 @@
         <v>器械1</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="45" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="M5" s="26" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
@@ -25756,7 +25846,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="34" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
@@ -25771,10 +25861,10 @@
         <v>统帅2</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="J7" s="48" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
@@ -25789,7 +25879,7 @@
         <v>统帅2</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -25830,14 +25920,14 @@
         <v>统帅2</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="F9" s="36" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25848,14 +25938,14 @@
         <v>统帅2</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="M9" s="36" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25904,7 +25994,7 @@
         <v>统帅2</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="E11" s="36" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
@@ -25923,7 +26013,7 @@
         <v>统帅2</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="L11" s="36" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
@@ -25972,14 +26062,14 @@
         <v>统帅2</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D13" s="36" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="F13" s="7" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
@@ -25990,14 +26080,14 @@
         <v>统帅2</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="K13" s="34" t="str">
         <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="M13" s="7" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
@@ -26038,7 +26128,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="C15" s="36" t="str">
         <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
@@ -26053,10 +26143,10 @@
         <v>统帅2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="J15" s="36" t="str">
         <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
@@ -26071,7 +26161,7 @@
         <v>统帅2</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -26112,14 +26202,14 @@
         <v>统帅2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D17" s="7" t="str">
         <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
         <v>大盾3</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="F17" s="12" t="str">
         <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
@@ -26130,14 +26220,14 @@
         <v>统帅2</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="K17" s="26" t="str">
         <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
         <v>大盾3</v>
       </c>
       <c r="L17" s="53" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="M17" s="12" t="str">
         <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
@@ -26655,7 +26745,7 @@
         <v>毒士1</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
@@ -26672,7 +26762,7 @@
         <v>毒士1</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="L15" s="7" t="str">
         <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
@@ -34439,7 +34529,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -35057,7 +35147,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -35675,7 +35765,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -36293,7 +36383,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -36911,7 +37001,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -38022,7 +38112,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" activeTab="9"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="26" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="war" sheetId="40" r:id="rId1"/>
@@ -47,13 +47,19 @@
     <sheet name="28" sheetId="47" r:id="rId38"/>
     <sheet name="29" sheetId="48" r:id="rId39"/>
     <sheet name="30" sheetId="49" r:id="rId40"/>
+    <sheet name="31" sheetId="50" r:id="rId41"/>
+    <sheet name="32" sheetId="51" r:id="rId42"/>
+    <sheet name="33" sheetId="52" r:id="rId43"/>
+    <sheet name="34" sheetId="53" r:id="rId44"/>
+    <sheet name="35" sheetId="54" r:id="rId45"/>
+    <sheet name="36" sheetId="55" r:id="rId46"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5198" uniqueCount="1584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5220" uniqueCount="1594">
   <si>
     <t>起始</t>
   </si>
@@ -4502,7 +4508,7 @@
     <t>旗帜名字</t>
   </si>
   <si>
-    <t>BOSS羁绊</t>
+    <t>BOSS、羁绊</t>
   </si>
   <si>
     <t>主力</t>
@@ -4820,6 +4826,36 @@
   </si>
   <si>
     <t>弓骑、战象</t>
+  </si>
+  <si>
+    <t>玉清、上清、太清</t>
+  </si>
+  <si>
+    <t>单于</t>
+  </si>
+  <si>
+    <t>北院大王、南院大王、东山大王、西山大王</t>
+  </si>
+  <si>
+    <t>拒马、骑兵营</t>
+  </si>
+  <si>
+    <t>袁绍、曹操、刘备、孙坚、刘协</t>
+  </si>
+  <si>
+    <t>羽林、医士</t>
+  </si>
+  <si>
+    <t>关银屏、鲍三娘、花鬘</t>
+  </si>
+  <si>
+    <t>巾帼、象骑兵</t>
+  </si>
+  <si>
+    <t>滚木、骑兵营</t>
+  </si>
+  <si>
+    <t>南华、北斗、东隐、西绝</t>
   </si>
   <si>
     <t>夏侯惇、夏侯渊</t>
@@ -12373,6 +12409,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="4389120"/>
+          <a:ext cx="2537460" cy="436880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13068,6 +13146,1417 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="0"/>
+          <a:ext cx="1333500" cy="3512820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789920" y="15240"/>
+          <a:ext cx="2034540" cy="4434840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="3657600"/>
+          <a:ext cx="2026920" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124700" y="4152900"/>
+          <a:ext cx="4770120" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2887980" y="4526280"/>
+          <a:ext cx="1988820" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2773680" y="3596640"/>
+          <a:ext cx="2499360" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="0"/>
+          <a:ext cx="1333500" cy="3512820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789920" y="15240"/>
+          <a:ext cx="2034540" cy="4434840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="3657600"/>
+          <a:ext cx="2026920" cy="998220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8945880" y="4259580"/>
+          <a:ext cx="4770120" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="3649980"/>
+          <a:ext cx="1912620" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="4572000"/>
+          <a:ext cx="2034540" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="0"/>
+          <a:ext cx="1333500" cy="3512820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789920" y="15240"/>
+          <a:ext cx="2034540" cy="4434840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7406640" y="4389120"/>
+          <a:ext cx="4770120" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="3840480"/>
+          <a:ext cx="1851660" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468880" y="3840480"/>
+          <a:ext cx="1996440" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4937760" y="3840480"/>
+          <a:ext cx="2011680" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4937760" y="4754880"/>
+          <a:ext cx="2011680" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="0"/>
+          <a:ext cx="1333500" cy="3512820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789920" y="15240"/>
+          <a:ext cx="2034540" cy="4434840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="4572000"/>
+          <a:ext cx="4770120" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3840480"/>
+          <a:ext cx="1981200" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468880" y="3840480"/>
+          <a:ext cx="1988820" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4937760" y="3840480"/>
+          <a:ext cx="2011680" cy="830580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4937760" y="4754880"/>
+          <a:ext cx="2019300" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="0"/>
+          <a:ext cx="1333500" cy="3512820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789920" y="15240"/>
+          <a:ext cx="2034540" cy="4434840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="4572000"/>
+          <a:ext cx="4770120" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="3840480"/>
+          <a:ext cx="1965960" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="3840480"/>
+          <a:ext cx="1996440" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="4754880"/>
+          <a:ext cx="2011680" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="4937760"/>
+          <a:ext cx="2042160" cy="167640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -13080,8 +14569,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1072515</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13098,7 +14587,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13359765" y="5341620"/>
+          <a:off x="13359765" y="5372100"/>
           <a:ext cx="1813560" cy="3375660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13116,13 +14605,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1112520</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>837565</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13140,8 +14629,97 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11087100" y="6903720"/>
+          <a:off x="11087100" y="8016240"/>
           <a:ext cx="1622425" cy="2089785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="0"/>
+          <a:ext cx="1333500" cy="3512820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10789920" y="15240"/>
+          <a:ext cx="2034540" cy="4434840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15638,12 +17216,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -16292,7 +17870,9 @@
       </c>
     </row>
     <row r="22" ht="16.2" spans="5:13">
-      <c r="E22" s="79"/>
+      <c r="E22" s="79">
+        <v>21</v>
+      </c>
       <c r="H22" s="75" t="s">
         <v>732</v>
       </c>
@@ -16309,7 +17889,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="8:13">
+    <row r="23" ht="16.2" spans="5:13">
+      <c r="E23" s="77">
+        <v>22</v>
+      </c>
       <c r="H23" s="75" t="s">
         <v>1549</v>
       </c>
@@ -16326,7 +17909,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="8:13">
+    <row r="24" ht="16.2" spans="5:13">
+      <c r="E24" s="79">
+        <v>23</v>
+      </c>
       <c r="H24" s="75" t="s">
         <v>361</v>
       </c>
@@ -16343,7 +17929,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="8:13">
+    <row r="25" ht="16.2" spans="5:13">
+      <c r="E25" s="77">
+        <v>24</v>
+      </c>
       <c r="H25" s="75" t="s">
         <v>447</v>
       </c>
@@ -16360,7 +17949,10 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="26" spans="8:13">
+    <row r="26" ht="16.2" spans="5:13">
+      <c r="E26" s="79">
+        <v>25</v>
+      </c>
       <c r="H26" s="75" t="s">
         <v>506</v>
       </c>
@@ -16377,7 +17969,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="6:13">
+    <row r="27" ht="16.2" spans="5:13">
+      <c r="E27" s="77">
+        <v>26</v>
+      </c>
       <c r="F27" s="75" t="s">
         <v>1561</v>
       </c>
@@ -16397,7 +17992,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="8:13">
+    <row r="28" ht="16.2" spans="5:13">
+      <c r="E28" s="79">
+        <v>27</v>
+      </c>
       <c r="H28" s="75" t="s">
         <v>794</v>
       </c>
@@ -16414,7 +18012,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="8:13">
+    <row r="29" ht="16.2" spans="5:13">
+      <c r="E29" s="77">
+        <v>28</v>
+      </c>
       <c r="H29" s="75" t="s">
         <v>507</v>
       </c>
@@ -16431,7 +18032,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="8:13">
+    <row r="30" ht="16.2" spans="5:13">
+      <c r="E30" s="79">
+        <v>29</v>
+      </c>
       <c r="H30" s="75" t="s">
         <v>289</v>
       </c>
@@ -16445,7 +18049,10 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="31" spans="8:13">
+    <row r="31" ht="16.2" spans="5:13">
+      <c r="E31" s="77">
+        <v>30</v>
+      </c>
       <c r="H31" s="75" t="s">
         <v>1572</v>
       </c>
@@ -16462,60 +18069,151 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="6:10">
-      <c r="F34" s="78" t="s">
+    <row r="32" ht="16.2" spans="5:13">
+      <c r="E32" s="79">
+        <v>31</v>
+      </c>
+      <c r="H32" s="75" t="s">
+        <v>718</v>
+      </c>
+      <c r="I32" s="75" t="s">
+        <v>1575</v>
+      </c>
+      <c r="J32" s="75" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K32" s="75" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M32" s="75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" ht="16.2" spans="5:13">
+      <c r="E33" s="77">
+        <v>32</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>1576</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J33" s="75" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K33" s="75" t="s">
+        <v>1578</v>
+      </c>
+      <c r="M33" s="75" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" ht="16.2" spans="5:13">
+      <c r="E34" s="79">
+        <v>33</v>
+      </c>
+      <c r="H34" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="I34" s="75" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J34" s="75" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K34" s="75" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M34" s="75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" ht="16.2" spans="5:13">
+      <c r="E35" s="77">
+        <v>34</v>
+      </c>
+      <c r="H35" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="I35" s="75" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J35" s="75" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K35" s="75" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M35" s="75" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="36" ht="16.2" spans="5:13">
+      <c r="E36" s="79">
+        <v>35</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I36" s="75" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J36" s="75" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K36" s="75" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M36" s="75" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" ht="16.2" spans="5:5">
+      <c r="E37" s="79"/>
+    </row>
+    <row r="38" ht="16.2" spans="5:5">
+      <c r="E38" s="79"/>
+    </row>
+    <row r="39" spans="6:10">
+      <c r="F39" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="75" t="s">
-        <v>1575</v>
-      </c>
-      <c r="J34" s="75" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="35" spans="6:11">
-      <c r="F35" s="78" t="s">
-        <v>1577</v>
-      </c>
-      <c r="G35" s="78"/>
-      <c r="I35" s="75" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J35" s="75" t="s">
+      <c r="G39" s="78"/>
+      <c r="H39" s="75" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J39" s="75" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11">
+      <c r="F40" s="78" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G40" s="78"/>
+      <c r="I40" s="75" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J40" s="75" t="s">
         <v>1343</v>
       </c>
-      <c r="K35" s="75" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="37" spans="10:10">
-      <c r="J37" s="75" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="38" spans="10:10">
-      <c r="J38" s="75" t="s">
+      <c r="K40" s="75" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="43" spans="10:10">
+      <c r="J43" s="75" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="39" spans="10:10">
-      <c r="J39" s="75" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="40" spans="10:10">
-      <c r="J40" s="75" t="s">
+    <row r="45" spans="10:10">
+      <c r="J45" s="75" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="41" spans="10:10">
-      <c r="J41" s="75" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="42" spans="10:10">
-      <c r="J42" s="75" t="s">
+    <row r="46" spans="10:10">
+      <c r="J46" s="75" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -17997,14 +19695,14 @@
         <v>狼骑2</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1579</v>
+        <v>1589</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑2</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1579</v>
+        <v>1589</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -18015,14 +19713,14 @@
         <v>狼骑2</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1579</v>
+        <v>1589</v>
       </c>
       <c r="K9" s="4" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>弓骑2</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>1579</v>
+        <v>1589</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -18611,14 +20309,14 @@
         <v>先登1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车2</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -18629,14 +20327,14 @@
         <v>先登1</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>战车3</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -21663,14 +23361,14 @@
         <v>连弩1</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>连弩1</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -21681,14 +23379,14 @@
         <v>连弩2</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>连弩2</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>1581</v>
+        <v>1591</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -24701,14 +26399,14 @@
         <v>艨艟2</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>艨艟1</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="F9" s="7" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -24719,14 +26417,14 @@
         <v>艨艟3</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>艨艟2</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="M9" s="26" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25786,11 +27484,11 @@
         <v>器械1</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="34" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
@@ -25801,11 +27499,11 @@
         <v>器械1</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="45" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="M5" s="26" t="str">
         <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
@@ -25846,7 +27544,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="34" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="C7" s="36" t="str">
         <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
@@ -25861,10 +27559,10 @@
         <v>统帅2</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
       <c r="J7" s="48" t="str">
         <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
@@ -25879,7 +27577,7 @@
         <v>统帅2</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>1582</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -25920,14 +27618,14 @@
         <v>统帅2</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="D9" s="7" t="str">
         <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="F9" s="36" t="str">
         <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25938,14 +27636,14 @@
         <v>统帅2</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="K9" s="26" t="str">
         <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
         <v>大弓1</v>
       </c>
       <c r="L9" s="44" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="M9" s="36" t="str">
         <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
@@ -25994,7 +27692,7 @@
         <v>统帅2</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="E11" s="36" t="str">
         <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
@@ -26013,7 +27711,7 @@
         <v>统帅2</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1583</v>
+        <v>1593</v>
       </c>
       <c r="L11" s="36" t="str">
         <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
@@ -26062,14 +27760,14 @@
         <v>统帅2</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="D13" s="36" t="str">
         <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="F13" s="7" t="str">
         <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
@@ -26080,14 +27778,14 @@
         <v>统帅2</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="K13" s="34" t="str">
         <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
         <v>统帅2</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>1580</v>
+        <v>1590</v>
       </c>
       <c r="M13" s="7" t="str">
         <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
@@ -35147,7 +36845,7 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -38112,7 +39810,3715 @@
   <dimension ref="B2:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="J29" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="7" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="7" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="7" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="7" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="7" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="7" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="7" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="7" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="7" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="7" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="7" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="7" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="7" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="7" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="7" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="7" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="7" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="7" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="7" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="7" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="1">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="4" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="1">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="7" t="str">
+        <f>VLOOKUP(B4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>VLOOKUP(F4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>VLOOKUP(I4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>VLOOKUP(M4,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>13</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>VLOOKUP(C6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>VLOOKUP(E6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>VLOOKUP(J6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>VLOOKUP(L6,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M7" s="4" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="7" t="str">
+        <f>VLOOKUP(B8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>VLOOKUP(D8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>VLOOKUP(F8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f>VLOOKUP(I8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f>VLOOKUP(K8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M9" s="7" t="str">
+        <f>VLOOKUP(M8,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>VLOOKUP(C10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>VLOOKUP(E10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f>VLOOKUP(J10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f>VLOOKUP(L10,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M11" s="4" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="7" t="str">
+        <f>VLOOKUP(B12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C13" s="4" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>VLOOKUP(D12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>VLOOKUP(F12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>VLOOKUP(I12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f>VLOOKUP(K12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M13" s="7" t="str">
+        <f>VLOOKUP(M12,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>3</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="4" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>VLOOKUP(C14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>VLOOKUP(E14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f>VLOOKUP(J14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f>VLOOKUP(L14,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="str">
+        <f>VLOOKUP(B16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="C17" s="4" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f>VLOOKUP(D16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>VLOOKUP(F16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>VLOOKUP(I16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f>VLOOKUP(K16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,2,FALSE)</f>
+        <v>周瑜</v>
+      </c>
+      <c r="M17" s="7" t="str">
+        <f>VLOOKUP(M16,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2"/>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2"/>
+      <c r="C19" s="7" t="str">
+        <f>VLOOKUP(C18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="str">
+        <f>VLOOKUP(E18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="7" t="str">
+        <f>VLOOKUP(J18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="7" t="str">
+        <f>VLOOKUP(L18,单位_武将!$A:$F,6,FALSE)</f>
+        <v>统帅2</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/策划文档/数值_关卡.xlsx
+++ b/策划文档/数值_关卡.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="871" firstSheet="26" activeTab="44"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="871" firstSheet="23" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="war" sheetId="40" r:id="rId1"/>
@@ -17219,9 +17219,9 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -36226,8 +36226,8 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -42899,7 +42899,7 @@
   <sheetPr/>
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
